--- a/CS_groups_Fall24.xlsx
+++ b/CS_groups_Fall24.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali.Gad\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -167,6 +162,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Calibri"/>
+        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -404,6 +400,9 @@
     <t>CS-SO-14</t>
   </si>
   <si>
+    <t>ENGL-102 MATH201 ECEN101C MATH112 CSCI207/ECEN204 MATH 211</t>
+  </si>
+  <si>
     <t>CS-SO-15</t>
   </si>
   <si>
@@ -426,6 +425,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Calibri"/>
+        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -447,6 +447,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Calibri"/>
+        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -462,6 +463,7 @@
       <rPr>
         <sz val="14"/>
         <rFont val="Calibri"/>
+        <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -476,16 +478,41 @@
     <t>CS-SO-20A</t>
   </si>
   <si>
+    <t>MATH210 CSCI207/ECEN204 MATH201 MATH 211 ENGL201</t>
+  </si>
+  <si>
     <t>CS-SO-20B</t>
+  </si>
+  <si>
+    <r>
+      <t>MATH210 CSCI207/ECEN204 MATH201 MATH 211 ENGL201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t>CS-SO-21A</t>
   </si>
   <si>
+    <t>CSCI212 MATH210 CSCI207/ECEN204 MATH201 MATH 211 ENGL201 MATH112</t>
+  </si>
+  <si>
     <t>CS-SO-21B</t>
   </si>
   <si>
+    <t>CSCI212 ENGL201 MATH 211 MATH201 MATH210 MATH112 CSCI207/ECEN204</t>
+  </si>
+  <si>
     <t>CS-SO-22</t>
+  </si>
+  <si>
+    <t>CSCI212 MATH 211 MATH201 MATH111 CSCI207/ECEN204 MATH210</t>
   </si>
   <si>
     <t>CS-SR-1</t>
@@ -620,30 +647,18 @@
   <si>
     <t>ENGL202 CSCI221 MATH211 MATH203 ECEN101C CSCI305 CSCI451 CSCI463 CSCI208 CSCI311 CSCI322</t>
   </si>
-  <si>
-    <t>ENGL-102 MATH201 ECEN101C MATH112 CSCI207/ECEN204 MATH211</t>
-  </si>
-  <si>
-    <t>MATH210 CSCI207/ECEN204 MATH201 MATH211 ENGL201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATH210 CSCI207/ECEN204 MATH201 MATH211 ENGL201 </t>
-  </si>
-  <si>
-    <t>CSCI212 MATH210 CSCI207/ECEN204 MATH201 MATH211 ENGL201 MATH112</t>
-  </si>
-  <si>
-    <t>CSCI212 ENGL201 MATH211 MATH201 MATH210 MATH112 CSCI207/ECEN204</t>
-  </si>
-  <si>
-    <t>CSCI212 MATH211 MATH201 MATH111 CSCI207/ECEN204 MATH210</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,12 +675,164 @@
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -675,9 +842,10 @@
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,8 +864,194 @@
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -714,9 +1068,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -744,17 +1340,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,22 +1652,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="120.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1697,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.6" customHeight="1">
+    <row r="2" ht="15.6" customHeight="1" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1879,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" ht="15.6" customHeight="1">
+    <row r="9" ht="15.6" customHeight="1" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +2061,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20" ht="15.6" customHeight="1">
+    <row r="16" ht="15.6" customHeight="1" spans="1:20">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +2243,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="1:20" ht="15.6" customHeight="1">
+    <row r="23" ht="15.6" customHeight="1" spans="1:20">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -1785,7 +2425,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="1:20" ht="15.6" customHeight="1">
+    <row r="30" ht="15.6" customHeight="1" spans="1:20">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
@@ -1967,7 +2607,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="1:20" ht="15.6" customHeight="1">
+    <row r="37" ht="15.6" customHeight="1" spans="1:20">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -2149,7 +2789,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" ht="15.6" customHeight="1">
+    <row r="44" ht="15.6" customHeight="1" spans="1:20">
       <c r="A44" s="4" t="s">
         <v>82</v>
       </c>
@@ -2331,12 +2971,12 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="1:20" ht="15.6" customHeight="1">
+    <row r="51" ht="15.6" customHeight="1" spans="1:20">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2359,10 +2999,10 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2385,10 +3025,10 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2411,10 +3051,10 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2437,10 +3077,10 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2463,10 +3103,10 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2489,10 +3129,10 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2513,12 +3153,12 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" ht="15.6" customHeight="1">
+    <row r="58" ht="15.6" customHeight="1" spans="1:20">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2541,10 +3181,10 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2567,10 +3207,10 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2593,10 +3233,10 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2619,10 +3259,10 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2645,10 +3285,10 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2671,10 +3311,10 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2695,12 +3335,12 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="1:20" ht="15.6" customHeight="1">
+    <row r="65" ht="15.6" customHeight="1" spans="1:20">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2723,10 +3363,10 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2749,10 +3389,10 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2775,10 +3415,10 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2801,10 +3441,10 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2827,10 +3467,10 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2853,10 +3493,10 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2877,12 +3517,12 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" ht="15.6" customHeight="1">
+    <row r="72" ht="15.6" customHeight="1" spans="1:20">
       <c r="A72" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2905,10 +3545,10 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2931,10 +3571,10 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2957,10 +3597,10 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2983,10 +3623,10 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3009,10 +3649,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3035,10 +3675,10 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3061,10 +3701,10 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3085,7 +3725,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20" ht="15.6" customHeight="1">
+    <row r="80" ht="15.6" customHeight="1" spans="1:20">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3107,7 +3747,7 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="1:20" ht="15.6" customHeight="1">
+    <row r="81" ht="15.6" customHeight="1" spans="1:20">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3129,7 +3769,7 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="1:20" ht="15.6" customHeight="1">
+    <row r="82" ht="15.6" customHeight="1" spans="1:20">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3151,7 +3791,7 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="1:20" ht="15.6" customHeight="1">
+    <row r="83" ht="15.6" customHeight="1" spans="1:20">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3173,7 +3813,7 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="1:20" ht="15.6" customHeight="1">
+    <row r="84" ht="15.6" customHeight="1" spans="1:20">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3195,7 +3835,7 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
     </row>
-    <row r="85" spans="1:20" ht="15.6" customHeight="1">
+    <row r="85" ht="15.6" customHeight="1" spans="1:20">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3217,7 +3857,7 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="1:20" ht="15.6" customHeight="1">
+    <row r="86" ht="15.6" customHeight="1" spans="1:20">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3239,7 +3879,7 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="1:20" ht="15.6" customHeight="1">
+    <row r="87" ht="15.6" customHeight="1" spans="1:20">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3261,7 +3901,7 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="1:20" ht="15.6" customHeight="1">
+    <row r="88" ht="15.6" customHeight="1" spans="1:20">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3283,7 +3923,7 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="1:20" ht="15.6" customHeight="1">
+    <row r="89" ht="15.6" customHeight="1" spans="1:20">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3305,7 +3945,7 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="1:20" ht="15.6" customHeight="1">
+    <row r="90" ht="15.6" customHeight="1" spans="1:20">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3327,7 +3967,7 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" customHeight="1">
+    <row r="91" ht="15.6" customHeight="1" spans="1:20">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3349,7 +3989,7 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="1:20" ht="15.6" customHeight="1">
+    <row r="92" ht="15.6" customHeight="1" spans="1:20">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3371,7 +4011,7 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="1:20" ht="15.6" customHeight="1">
+    <row r="93" ht="15.6" customHeight="1" spans="1:20">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3393,7 +4033,7 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="1:20" ht="15.6" customHeight="1">
+    <row r="94" ht="15.6" customHeight="1" spans="1:20">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3415,7 +4055,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" customHeight="1">
+    <row r="95" ht="15.6" customHeight="1" spans="1:20">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3437,7 +4077,7 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" customHeight="1">
+    <row r="96" ht="15.6" customHeight="1" spans="1:20">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3459,7 +4099,7 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
     </row>
-    <row r="97" spans="1:20" ht="15.6" customHeight="1">
+    <row r="97" ht="15.6" customHeight="1" spans="1:20">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3481,7 +4121,7 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="1:20" ht="15.6" customHeight="1">
+    <row r="98" ht="15.6" customHeight="1" spans="1:20">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3503,7 +4143,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
     </row>
-    <row r="99" spans="1:20" ht="15.6" customHeight="1">
+    <row r="99" ht="15.6" customHeight="1" spans="1:20">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3525,7 +4165,7 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
     </row>
-    <row r="100" spans="1:20" ht="15.6" customHeight="1">
+    <row r="100" ht="15.6" customHeight="1" spans="1:20">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3547,7 +4187,7 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
     </row>
-    <row r="101" spans="1:20" ht="15.6" customHeight="1">
+    <row r="101" ht="15.6" customHeight="1" spans="1:20">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3569,7 +4209,7 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
     </row>
-    <row r="102" spans="1:20" ht="15.6" customHeight="1">
+    <row r="102" ht="15.6" customHeight="1" spans="1:20">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3591,7 +4231,7 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
     </row>
-    <row r="103" spans="1:20" ht="15.6" customHeight="1">
+    <row r="103" ht="15.6" customHeight="1" spans="1:20">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3613,7 +4253,7 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
     </row>
-    <row r="104" spans="1:20" ht="15.6" customHeight="1">
+    <row r="104" ht="15.6" customHeight="1" spans="1:20">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3635,7 +4275,7 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20" ht="15.6" customHeight="1">
+    <row r="105" ht="15.6" customHeight="1" spans="1:20">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3657,7 +4297,7 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
     </row>
-    <row r="106" spans="1:20" ht="15.6" customHeight="1">
+    <row r="106" ht="15.6" customHeight="1" spans="1:20">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3679,7 +4319,7 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
     </row>
-    <row r="107" spans="1:20" ht="15.6" customHeight="1">
+    <row r="107" ht="15.6" customHeight="1" spans="1:20">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3701,7 +4341,7 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="1:20" ht="15.6" customHeight="1">
+    <row r="108" ht="15.6" customHeight="1" spans="1:20">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3723,7 +4363,7 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
     </row>
-    <row r="109" spans="1:20" ht="15.6" customHeight="1">
+    <row r="109" ht="15.6" customHeight="1" spans="1:20">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3745,7 +4385,7 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
     </row>
-    <row r="110" spans="1:20" ht="15.6" customHeight="1">
+    <row r="110" ht="15.6" customHeight="1" spans="1:20">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3767,7 +4407,7 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="1:20" ht="15.6" customHeight="1">
+    <row r="111" ht="15.6" customHeight="1" spans="1:20">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3789,7 +4429,7 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="1:20" ht="15.6" customHeight="1">
+    <row r="112" ht="15.6" customHeight="1" spans="1:20">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3811,7 +4451,7 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="1:20" ht="15.6" customHeight="1">
+    <row r="113" ht="15.6" customHeight="1" spans="1:20">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3833,7 +4473,7 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="1:20" ht="15.6" customHeight="1">
+    <row r="114" ht="15.6" customHeight="1" spans="1:20">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3855,7 +4495,7 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="1:20" ht="15.6" customHeight="1">
+    <row r="115" ht="15.6" customHeight="1" spans="1:20">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3877,7 +4517,7 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
     </row>
-    <row r="116" spans="1:20" ht="15.6" customHeight="1">
+    <row r="116" ht="15.6" customHeight="1" spans="1:20">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3899,7 +4539,7 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
     </row>
-    <row r="117" spans="1:20" ht="15.6" customHeight="1">
+    <row r="117" ht="15.6" customHeight="1" spans="1:20">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3921,7 +4561,7 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
     </row>
-    <row r="118" spans="1:20" ht="15.6" customHeight="1">
+    <row r="118" ht="15.6" customHeight="1" spans="1:20">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3943,7 +4583,7 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="1:20" ht="15.6" customHeight="1">
+    <row r="119" ht="15.6" customHeight="1" spans="1:20">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3965,7 +4605,7 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="1:20" ht="15.6" customHeight="1">
+    <row r="120" ht="15.6" customHeight="1" spans="1:20">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3987,7 +4627,7 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="1:20" ht="15.6" customHeight="1">
+    <row r="121" ht="15.6" customHeight="1" spans="1:20">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4009,7 +4649,7 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="1:20" ht="15.6" customHeight="1">
+    <row r="122" ht="15.6" customHeight="1" spans="1:20">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4031,7 +4671,7 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
     </row>
-    <row r="123" spans="1:20" ht="15.6" customHeight="1">
+    <row r="123" ht="15.6" customHeight="1" spans="1:20">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4053,7 +4693,7 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="1:20" ht="15.6" customHeight="1">
+    <row r="124" ht="15.6" customHeight="1" spans="1:20">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4075,7 +4715,7 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="1:20" ht="15.6" customHeight="1">
+    <row r="125" ht="15.6" customHeight="1" spans="1:20">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4097,7 +4737,7 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="1:20" ht="15.6" customHeight="1">
+    <row r="126" ht="15.6" customHeight="1" spans="1:20">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4119,7 +4759,7 @@
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="1:20" ht="15.6" customHeight="1">
+    <row r="127" ht="15.6" customHeight="1" spans="1:20">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4141,7 +4781,7 @@
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="1:20" ht="15.6" customHeight="1">
+    <row r="128" ht="15.6" customHeight="1" spans="1:20">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4163,7 +4803,7 @@
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
     </row>
-    <row r="129" spans="1:20" ht="15.6" customHeight="1">
+    <row r="129" ht="15.6" customHeight="1" spans="1:20">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4185,7 +4825,7 @@
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
     </row>
-    <row r="130" spans="1:20" ht="15.6" customHeight="1">
+    <row r="130" ht="15.6" customHeight="1" spans="1:20">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4207,7 +4847,7 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="1:20" ht="15.6" customHeight="1">
+    <row r="131" ht="15.6" customHeight="1" spans="1:20">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4229,7 +4869,7 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="1:20" ht="15.6" customHeight="1">
+    <row r="132" ht="15.6" customHeight="1" spans="1:20">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4251,7 +4891,7 @@
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
     </row>
-    <row r="133" spans="1:20" ht="15.6" customHeight="1">
+    <row r="133" ht="15.6" customHeight="1" spans="1:20">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4273,7 +4913,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20" ht="15.6" customHeight="1">
+    <row r="134" ht="15.6" customHeight="1" spans="1:20">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4295,7 +4935,7 @@
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="1:20" ht="15.6" customHeight="1">
+    <row r="135" ht="15.6" customHeight="1" spans="1:20">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4317,7 +4957,7 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
     </row>
-    <row r="136" spans="1:20" ht="15.6" customHeight="1">
+    <row r="136" ht="15.6" customHeight="1" spans="1:20">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4339,7 +4979,7 @@
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="1:20" ht="15.6" customHeight="1">
+    <row r="137" ht="15.6" customHeight="1" spans="1:20">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4361,7 +5001,7 @@
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:20" ht="15.6" customHeight="1">
+    <row r="138" ht="15.6" customHeight="1" spans="1:20">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4383,7 +5023,7 @@
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:20" ht="15.6" customHeight="1">
+    <row r="139" ht="15.6" customHeight="1" spans="1:20">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4405,7 +5045,7 @@
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
     </row>
-    <row r="140" spans="1:20" ht="15.6" customHeight="1">
+    <row r="140" ht="15.6" customHeight="1" spans="1:20">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4427,7 +5067,7 @@
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
     </row>
-    <row r="141" spans="1:20" ht="15.6" customHeight="1">
+    <row r="141" ht="15.6" customHeight="1" spans="1:20">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4449,7 +5089,7 @@
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
     </row>
-    <row r="142" spans="1:20" ht="15.6" customHeight="1">
+    <row r="142" ht="15.6" customHeight="1" spans="1:20">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4471,7 +5111,7 @@
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
     </row>
-    <row r="143" spans="1:20" ht="15.6" customHeight="1">
+    <row r="143" ht="15.6" customHeight="1" spans="1:20">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4493,7 +5133,7 @@
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="1:20" ht="15.6" customHeight="1">
+    <row r="144" ht="15.6" customHeight="1" spans="1:20">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4515,7 +5155,7 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="1:20" ht="15.6" customHeight="1">
+    <row r="145" ht="15.6" customHeight="1" spans="1:20">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4537,7 +5177,7 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="1:20" ht="15.6" customHeight="1">
+    <row r="146" ht="15.6" customHeight="1" spans="1:20">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4559,7 +5199,7 @@
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="1:20" ht="15.6" customHeight="1">
+    <row r="147" ht="15.6" customHeight="1" spans="1:20">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4581,7 +5221,7 @@
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="1:20" ht="15.6" customHeight="1">
+    <row r="148" ht="15.6" customHeight="1" spans="1:20">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4603,7 +5243,7 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="1:20" ht="15.6" customHeight="1">
+    <row r="149" ht="15.6" customHeight="1" spans="1:20">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4625,7 +5265,7 @@
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="1:20" ht="15.6" customHeight="1">
+    <row r="150" ht="15.6" customHeight="1" spans="1:20">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4647,7 +5287,7 @@
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="1:20" ht="15.6" customHeight="1">
+    <row r="151" ht="15.6" customHeight="1" spans="1:20">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4669,7 +5309,7 @@
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="1:20" ht="15.6" customHeight="1">
+    <row r="152" ht="15.6" customHeight="1" spans="1:20">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4691,7 +5331,7 @@
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="1:20" ht="15.6" customHeight="1">
+    <row r="153" ht="15.6" customHeight="1" spans="1:20">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4713,7 +5353,7 @@
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="1:20" ht="15.6" customHeight="1">
+    <row r="154" ht="15.6" customHeight="1" spans="1:20">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4735,7 +5375,7 @@
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="1:20" ht="15.6" customHeight="1">
+    <row r="155" ht="15.6" customHeight="1" spans="1:20">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4757,7 +5397,7 @@
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="1:20" ht="15.6" customHeight="1">
+    <row r="156" ht="15.6" customHeight="1" spans="1:20">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4779,7 +5419,7 @@
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="1:20" ht="15.6" customHeight="1">
+    <row r="157" ht="15.6" customHeight="1" spans="1:20">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4801,7 +5441,7 @@
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="1:20" ht="15.6" customHeight="1">
+    <row r="158" ht="15.6" customHeight="1" spans="1:20">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4823,7 +5463,7 @@
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="1:20" ht="15.6" customHeight="1">
+    <row r="159" ht="15.6" customHeight="1" spans="1:20">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4845,7 +5485,7 @@
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
     </row>
-    <row r="160" spans="1:20" ht="15.6" customHeight="1">
+    <row r="160" ht="15.6" customHeight="1" spans="1:20">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4867,7 +5507,7 @@
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
     </row>
-    <row r="161" spans="1:20" ht="15.6" customHeight="1">
+    <row r="161" ht="15.6" customHeight="1" spans="1:20">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4889,7 +5529,7 @@
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
     </row>
-    <row r="162" spans="1:20" ht="15.6" customHeight="1">
+    <row r="162" ht="15.6" customHeight="1" spans="1:20">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4911,7 +5551,7 @@
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
     </row>
-    <row r="163" spans="1:20" ht="15.6" customHeight="1">
+    <row r="163" ht="15.6" customHeight="1" spans="1:20">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4933,7 +5573,7 @@
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
     </row>
-    <row r="164" spans="1:20" ht="15.6" customHeight="1">
+    <row r="164" ht="15.6" customHeight="1" spans="1:20">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4955,7 +5595,7 @@
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
     </row>
-    <row r="165" spans="1:20" ht="15.6" customHeight="1">
+    <row r="165" ht="15.6" customHeight="1" spans="1:20">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4977,7 +5617,7 @@
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
     </row>
-    <row r="166" spans="1:20" ht="15.6" customHeight="1">
+    <row r="166" ht="15.6" customHeight="1" spans="1:20">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4999,7 +5639,7 @@
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
     </row>
-    <row r="167" spans="1:20" ht="15.6" customHeight="1">
+    <row r="167" ht="15.6" customHeight="1" spans="1:20">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5021,7 +5661,7 @@
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="1:20" ht="15.6" customHeight="1">
+    <row r="168" ht="15.6" customHeight="1" spans="1:20">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5043,7 +5683,7 @@
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="1:20" ht="15.6" customHeight="1">
+    <row r="169" ht="15.6" customHeight="1" spans="1:20">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5065,7 +5705,7 @@
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="1:20" ht="15.6" customHeight="1">
+    <row r="170" ht="15.6" customHeight="1" spans="1:20">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5087,7 +5727,7 @@
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="1:20" ht="15.6" customHeight="1">
+    <row r="171" ht="15.6" customHeight="1" spans="1:20">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5109,7 +5749,7 @@
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="1:20" ht="15.6" customHeight="1">
+    <row r="172" ht="15.6" customHeight="1" spans="1:20">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5131,7 +5771,7 @@
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="1:20" ht="15.6" customHeight="1">
+    <row r="173" ht="15.6" customHeight="1" spans="1:20">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5153,7 +5793,7 @@
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="1:20" ht="15.6" customHeight="1">
+    <row r="174" ht="15.6" customHeight="1" spans="1:20">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5175,7 +5815,7 @@
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
     </row>
-    <row r="175" spans="1:20" ht="15.6" customHeight="1">
+    <row r="175" ht="15.6" customHeight="1" spans="1:20">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5197,7 +5837,7 @@
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
     </row>
-    <row r="176" spans="1:20" ht="15.6" customHeight="1">
+    <row r="176" ht="15.6" customHeight="1" spans="1:20">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5219,7 +5859,7 @@
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
     </row>
-    <row r="177" spans="1:20" ht="15.6" customHeight="1">
+    <row r="177" ht="15.6" customHeight="1" spans="1:20">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5241,7 +5881,7 @@
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
     </row>
-    <row r="178" spans="1:20" ht="15.6" customHeight="1">
+    <row r="178" ht="15.6" customHeight="1" spans="1:20">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5263,7 +5903,7 @@
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
     </row>
-    <row r="179" spans="1:20" ht="15.6" customHeight="1">
+    <row r="179" ht="15.6" customHeight="1" spans="1:20">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5285,7 +5925,7 @@
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
     </row>
-    <row r="180" spans="1:20" ht="15.6" customHeight="1">
+    <row r="180" ht="15.6" customHeight="1" spans="1:20">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5307,7 +5947,7 @@
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
     </row>
-    <row r="181" spans="1:20" ht="15.6" customHeight="1">
+    <row r="181" ht="15.6" customHeight="1" spans="1:20">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5329,7 +5969,7 @@
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
     </row>
-    <row r="182" spans="1:20" ht="15.6" customHeight="1">
+    <row r="182" ht="15.6" customHeight="1" spans="1:20">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5351,7 +5991,7 @@
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
     </row>
-    <row r="183" spans="1:20" ht="15.6" customHeight="1">
+    <row r="183" ht="15.6" customHeight="1" spans="1:20">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5373,7 +6013,7 @@
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
     </row>
-    <row r="184" spans="1:20" ht="15.6" customHeight="1">
+    <row r="184" ht="15.6" customHeight="1" spans="1:20">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5395,7 +6035,7 @@
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
     </row>
-    <row r="185" spans="1:20" ht="15.6" customHeight="1">
+    <row r="185" ht="15.6" customHeight="1" spans="1:20">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5417,7 +6057,7 @@
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
     </row>
-    <row r="186" spans="1:20" ht="15.6" customHeight="1">
+    <row r="186" ht="15.6" customHeight="1" spans="1:20">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5439,7 +6079,7 @@
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
     </row>
-    <row r="187" spans="1:20" ht="15.6" customHeight="1">
+    <row r="187" ht="15.6" customHeight="1" spans="1:20">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5461,7 +6101,7 @@
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
     </row>
-    <row r="188" spans="1:20" ht="15.6" customHeight="1">
+    <row r="188" ht="15.6" customHeight="1" spans="1:20">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5483,7 +6123,7 @@
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
     </row>
-    <row r="189" spans="1:20" ht="15.6" customHeight="1">
+    <row r="189" ht="15.6" customHeight="1" spans="1:20">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5505,7 +6145,7 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="1:20" ht="15.6" customHeight="1">
+    <row r="190" ht="15.6" customHeight="1" spans="1:20">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5527,7 +6167,7 @@
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
     </row>
-    <row r="191" spans="1:20" ht="15.6" customHeight="1">
+    <row r="191" ht="15.6" customHeight="1" spans="1:20">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5549,7 +6189,7 @@
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
     </row>
-    <row r="192" spans="1:20" ht="15.6" customHeight="1">
+    <row r="192" ht="15.6" customHeight="1" spans="1:20">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5571,7 +6211,7 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
     </row>
-    <row r="193" spans="1:20" ht="15.6" customHeight="1">
+    <row r="193" ht="15.6" customHeight="1" spans="1:20">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5593,7 +6233,7 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
     </row>
-    <row r="194" spans="1:20" ht="15.6" customHeight="1">
+    <row r="194" ht="15.6" customHeight="1" spans="1:20">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5615,7 +6255,7 @@
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
     </row>
-    <row r="195" spans="1:20" ht="15.6" customHeight="1">
+    <row r="195" ht="15.6" customHeight="1" spans="1:20">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5637,7 +6277,7 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
     </row>
-    <row r="196" spans="1:20" ht="15.6" customHeight="1">
+    <row r="196" ht="15.6" customHeight="1" spans="1:20">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5659,7 +6299,7 @@
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
     </row>
-    <row r="197" spans="1:20" ht="15.6" customHeight="1">
+    <row r="197" ht="15.6" customHeight="1" spans="1:20">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5681,7 +6321,7 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
     </row>
-    <row r="198" spans="1:20" ht="15.6" customHeight="1">
+    <row r="198" ht="15.6" customHeight="1" spans="1:20">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5703,7 +6343,7 @@
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
     </row>
-    <row r="199" spans="1:20" ht="15.6" customHeight="1">
+    <row r="199" ht="15.6" customHeight="1" spans="1:20">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5725,7 +6365,7 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:20" ht="15.6" customHeight="1">
+    <row r="200" ht="15.6" customHeight="1" spans="1:20">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5747,7 +6387,7 @@
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
     </row>
-    <row r="201" spans="1:20" ht="15.6" customHeight="1">
+    <row r="201" ht="15.6" customHeight="1" spans="1:20">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5769,7 +6409,7 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:20" ht="15.6" customHeight="1">
+    <row r="202" ht="15.6" customHeight="1" spans="1:20">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -5791,7 +6431,7 @@
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
     </row>
-    <row r="203" spans="1:20" ht="15.6" customHeight="1">
+    <row r="203" ht="15.6" customHeight="1" spans="1:20">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -5813,7 +6453,7 @@
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
     </row>
-    <row r="204" spans="1:20" ht="15.6" customHeight="1">
+    <row r="204" ht="15.6" customHeight="1" spans="1:20">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -5835,7 +6475,7 @@
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
     </row>
-    <row r="205" spans="1:20" ht="15.6" customHeight="1">
+    <row r="205" ht="15.6" customHeight="1" spans="1:20">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -5857,7 +6497,7 @@
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
     </row>
-    <row r="206" spans="1:20" ht="15.6" customHeight="1">
+    <row r="206" ht="15.6" customHeight="1" spans="1:20">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -5879,7 +6519,7 @@
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
     </row>
-    <row r="207" spans="1:20" ht="15.6" customHeight="1">
+    <row r="207" ht="15.6" customHeight="1" spans="1:20">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -5901,7 +6541,7 @@
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
     </row>
-    <row r="208" spans="1:20" ht="15.6" customHeight="1">
+    <row r="208" ht="15.6" customHeight="1" spans="1:20">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -5923,7 +6563,7 @@
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
     </row>
-    <row r="209" spans="1:20" ht="15.6" customHeight="1">
+    <row r="209" ht="15.6" customHeight="1" spans="1:20">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -5945,7 +6585,7 @@
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="1:20" ht="15.6" customHeight="1">
+    <row r="210" ht="15.6" customHeight="1" spans="1:20">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -5967,7 +6607,7 @@
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="1:20" ht="15.6" customHeight="1">
+    <row r="211" ht="15.6" customHeight="1" spans="1:20">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -5989,7 +6629,7 @@
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="1:20" ht="15.6" customHeight="1">
+    <row r="212" ht="15.6" customHeight="1" spans="1:20">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6011,7 +6651,7 @@
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="1:20" ht="15.6" customHeight="1">
+    <row r="213" ht="15.6" customHeight="1" spans="1:20">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6033,7 +6673,7 @@
       <c r="S213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="1:20" ht="15.6" customHeight="1">
+    <row r="214" ht="15.6" customHeight="1" spans="1:20">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6055,7 +6695,7 @@
       <c r="S214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="1:20" ht="15.6" customHeight="1">
+    <row r="215" ht="15.6" customHeight="1" spans="1:20">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6077,7 +6717,7 @@
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="1:20" ht="15.6" customHeight="1">
+    <row r="216" ht="15.6" customHeight="1" spans="1:20">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6099,7 +6739,7 @@
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="1:20" ht="15.6" customHeight="1">
+    <row r="217" ht="15.6" customHeight="1" spans="1:20">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6121,7 +6761,7 @@
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
     </row>
-    <row r="218" spans="1:20" ht="15.6" customHeight="1">
+    <row r="218" ht="15.6" customHeight="1" spans="1:20">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6143,7 +6783,7 @@
       <c r="S218" s="3"/>
       <c r="T218" s="3"/>
     </row>
-    <row r="219" spans="1:20" ht="15.6" customHeight="1">
+    <row r="219" ht="15.6" customHeight="1" spans="1:20">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6165,7 +6805,7 @@
       <c r="S219" s="3"/>
       <c r="T219" s="3"/>
     </row>
-    <row r="220" spans="1:20" ht="15.6" customHeight="1">
+    <row r="220" ht="15.6" customHeight="1" spans="1:20">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6187,7 +6827,7 @@
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
     </row>
-    <row r="221" spans="1:20" ht="15.6" customHeight="1">
+    <row r="221" ht="15.6" customHeight="1" spans="1:20">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6209,7 +6849,7 @@
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="1:20" ht="15.6" customHeight="1">
+    <row r="222" ht="15.6" customHeight="1" spans="1:20">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6231,7 +6871,7 @@
       <c r="S222" s="3"/>
       <c r="T222" s="3"/>
     </row>
-    <row r="223" spans="1:20" ht="15.6" customHeight="1">
+    <row r="223" ht="15.6" customHeight="1" spans="1:20">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6253,7 +6893,7 @@
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
     </row>
-    <row r="224" spans="1:20" ht="15.6" customHeight="1">
+    <row r="224" ht="15.6" customHeight="1" spans="1:20">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6275,7 +6915,7 @@
       <c r="S224" s="3"/>
       <c r="T224" s="3"/>
     </row>
-    <row r="225" spans="1:20" ht="15.6" customHeight="1">
+    <row r="225" ht="15.6" customHeight="1" spans="1:20">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6297,7 +6937,7 @@
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
     </row>
-    <row r="226" spans="1:20" ht="15.6" customHeight="1">
+    <row r="226" ht="15.6" customHeight="1" spans="1:20">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6319,7 +6959,7 @@
       <c r="S226" s="3"/>
       <c r="T226" s="3"/>
     </row>
-    <row r="227" spans="1:20" ht="15.6" customHeight="1">
+    <row r="227" ht="15.6" customHeight="1" spans="1:20">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6341,7 +6981,7 @@
       <c r="S227" s="3"/>
       <c r="T227" s="3"/>
     </row>
-    <row r="228" spans="1:20" ht="15.6" customHeight="1">
+    <row r="228" ht="15.6" customHeight="1" spans="1:20">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6363,7 +7003,7 @@
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
     </row>
-    <row r="229" spans="1:20" ht="15.6" customHeight="1">
+    <row r="229" ht="15.6" customHeight="1" spans="1:20">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6385,7 +7025,7 @@
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
     </row>
-    <row r="230" spans="1:20" ht="15.6" customHeight="1">
+    <row r="230" ht="15.6" customHeight="1" spans="1:20">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6407,7 +7047,7 @@
       <c r="S230" s="3"/>
       <c r="T230" s="3"/>
     </row>
-    <row r="231" spans="1:20" ht="15.6" customHeight="1">
+    <row r="231" ht="15.6" customHeight="1" spans="1:20">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6429,7 +7069,7 @@
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
     </row>
-    <row r="232" spans="1:20" ht="15.6" customHeight="1">
+    <row r="232" ht="15.6" customHeight="1" spans="1:20">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6451,7 +7091,7 @@
       <c r="S232" s="3"/>
       <c r="T232" s="3"/>
     </row>
-    <row r="233" spans="1:20" ht="15.6" customHeight="1">
+    <row r="233" ht="15.6" customHeight="1" spans="1:20">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6473,7 +7113,7 @@
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="1:20" ht="15.6" customHeight="1">
+    <row r="234" ht="15.6" customHeight="1" spans="1:20">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6495,7 +7135,7 @@
       <c r="S234" s="3"/>
       <c r="T234" s="3"/>
     </row>
-    <row r="235" spans="1:20" ht="15.6" customHeight="1">
+    <row r="235" ht="15.6" customHeight="1" spans="1:20">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6517,7 +7157,7 @@
       <c r="S235" s="3"/>
       <c r="T235" s="3"/>
     </row>
-    <row r="236" spans="1:20" ht="15.6" customHeight="1">
+    <row r="236" ht="15.6" customHeight="1" spans="1:20">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -6539,7 +7179,7 @@
       <c r="S236" s="3"/>
       <c r="T236" s="3"/>
     </row>
-    <row r="237" spans="1:20" ht="15.6" customHeight="1">
+    <row r="237" ht="15.6" customHeight="1" spans="1:20">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -6561,7 +7201,7 @@
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
     </row>
-    <row r="238" spans="1:20" ht="15.6" customHeight="1">
+    <row r="238" ht="15.6" customHeight="1" spans="1:20">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -6583,7 +7223,7 @@
       <c r="S238" s="3"/>
       <c r="T238" s="3"/>
     </row>
-    <row r="239" spans="1:20" ht="15.6" customHeight="1">
+    <row r="239" ht="15.6" customHeight="1" spans="1:20">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -6605,7 +7245,7 @@
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
     </row>
-    <row r="240" spans="1:20" ht="15.6" customHeight="1">
+    <row r="240" ht="15.6" customHeight="1" spans="1:20">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -6627,7 +7267,7 @@
       <c r="S240" s="3"/>
       <c r="T240" s="3"/>
     </row>
-    <row r="241" spans="1:20" ht="15.6" customHeight="1">
+    <row r="241" ht="15.6" customHeight="1" spans="1:20">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -6649,7 +7289,7 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="1:20" ht="15.6" customHeight="1">
+    <row r="242" ht="15.6" customHeight="1" spans="1:20">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -6671,7 +7311,7 @@
       <c r="S242" s="3"/>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="1:20" ht="15.6" customHeight="1">
+    <row r="243" ht="15.6" customHeight="1" spans="1:20">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -6693,7 +7333,7 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
     </row>
-    <row r="244" spans="1:20" ht="15.6" customHeight="1">
+    <row r="244" ht="15.6" customHeight="1" spans="1:20">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -6715,7 +7355,7 @@
       <c r="S244" s="3"/>
       <c r="T244" s="3"/>
     </row>
-    <row r="245" spans="1:20" ht="15.6" customHeight="1">
+    <row r="245" ht="15.6" customHeight="1" spans="1:20">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -6737,7 +7377,7 @@
       <c r="S245" s="3"/>
       <c r="T245" s="3"/>
     </row>
-    <row r="246" spans="1:20" ht="15.6" customHeight="1">
+    <row r="246" ht="15.6" customHeight="1" spans="1:20">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -6759,7 +7399,7 @@
       <c r="S246" s="3"/>
       <c r="T246" s="3"/>
     </row>
-    <row r="247" spans="1:20" ht="15.6" customHeight="1">
+    <row r="247" ht="15.6" customHeight="1" spans="1:20">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -6781,7 +7421,7 @@
       <c r="S247" s="3"/>
       <c r="T247" s="3"/>
     </row>
-    <row r="248" spans="1:20" ht="15.6" customHeight="1">
+    <row r="248" ht="15.6" customHeight="1" spans="1:20">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -6803,7 +7443,7 @@
       <c r="S248" s="3"/>
       <c r="T248" s="3"/>
     </row>
-    <row r="249" spans="1:20" ht="15.6" customHeight="1">
+    <row r="249" ht="15.6" customHeight="1" spans="1:20">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -6825,7 +7465,7 @@
       <c r="S249" s="3"/>
       <c r="T249" s="3"/>
     </row>
-    <row r="250" spans="1:20" ht="15.6" customHeight="1">
+    <row r="250" ht="15.6" customHeight="1" spans="1:20">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -6847,7 +7487,7 @@
       <c r="S250" s="3"/>
       <c r="T250" s="3"/>
     </row>
-    <row r="251" spans="1:20" ht="15.6" customHeight="1">
+    <row r="251" ht="15.6" customHeight="1" spans="1:20">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -6869,7 +7509,7 @@
       <c r="S251" s="3"/>
       <c r="T251" s="3"/>
     </row>
-    <row r="252" spans="1:20" ht="15.6" customHeight="1">
+    <row r="252" ht="15.6" customHeight="1" spans="1:20">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -6891,7 +7531,7 @@
       <c r="S252" s="3"/>
       <c r="T252" s="3"/>
     </row>
-    <row r="253" spans="1:20" ht="15.6" customHeight="1">
+    <row r="253" ht="15.6" customHeight="1" spans="1:20">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -6913,7 +7553,7 @@
       <c r="S253" s="3"/>
       <c r="T253" s="3"/>
     </row>
-    <row r="254" spans="1:20" ht="15.6" customHeight="1">
+    <row r="254" ht="15.6" customHeight="1" spans="1:20">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -6935,7 +7575,7 @@
       <c r="S254" s="3"/>
       <c r="T254" s="3"/>
     </row>
-    <row r="255" spans="1:20" ht="15.6" customHeight="1">
+    <row r="255" ht="15.6" customHeight="1" spans="1:20">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -6957,7 +7597,7 @@
       <c r="S255" s="3"/>
       <c r="T255" s="3"/>
     </row>
-    <row r="256" spans="1:20" ht="15.6" customHeight="1">
+    <row r="256" ht="15.6" customHeight="1" spans="1:20">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -6979,7 +7619,7 @@
       <c r="S256" s="3"/>
       <c r="T256" s="3"/>
     </row>
-    <row r="257" spans="1:20" ht="15.6" customHeight="1">
+    <row r="257" ht="15.6" customHeight="1" spans="1:20">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7001,7 +7641,7 @@
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
     </row>
-    <row r="258" spans="1:20" ht="15.6" customHeight="1">
+    <row r="258" ht="15.6" customHeight="1" spans="1:20">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7023,7 +7663,7 @@
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
     </row>
-    <row r="259" spans="1:20" ht="15.6" customHeight="1">
+    <row r="259" ht="15.6" customHeight="1" spans="1:20">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7045,7 +7685,7 @@
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
     </row>
-    <row r="260" spans="1:20" ht="15.6" customHeight="1">
+    <row r="260" ht="15.6" customHeight="1" spans="1:20">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7067,7 +7707,7 @@
       <c r="S260" s="3"/>
       <c r="T260" s="3"/>
     </row>
-    <row r="261" spans="1:20" ht="15.6" customHeight="1">
+    <row r="261" ht="15.6" customHeight="1" spans="1:20">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7089,7 +7729,7 @@
       <c r="S261" s="3"/>
       <c r="T261" s="3"/>
     </row>
-    <row r="262" spans="1:20" ht="15.6" customHeight="1">
+    <row r="262" ht="15.6" customHeight="1" spans="1:20">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7111,7 +7751,7 @@
       <c r="S262" s="3"/>
       <c r="T262" s="3"/>
     </row>
-    <row r="263" spans="1:20" ht="15.6" customHeight="1">
+    <row r="263" ht="15.6" customHeight="1" spans="1:20">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7133,7 +7773,7 @@
       <c r="S263" s="3"/>
       <c r="T263" s="3"/>
     </row>
-    <row r="264" spans="1:20" ht="15.6" customHeight="1">
+    <row r="264" ht="15.6" customHeight="1" spans="1:20">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7155,7 +7795,7 @@
       <c r="S264" s="3"/>
       <c r="T264" s="3"/>
     </row>
-    <row r="265" spans="1:20" ht="15.6" customHeight="1">
+    <row r="265" ht="15.6" customHeight="1" spans="1:20">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7177,7 +7817,7 @@
       <c r="S265" s="3"/>
       <c r="T265" s="3"/>
     </row>
-    <row r="266" spans="1:20" ht="15.6" customHeight="1">
+    <row r="266" ht="15.6" customHeight="1" spans="1:20">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7199,7 +7839,7 @@
       <c r="S266" s="3"/>
       <c r="T266" s="3"/>
     </row>
-    <row r="267" spans="1:20" ht="15.6" customHeight="1">
+    <row r="267" ht="15.6" customHeight="1" spans="1:20">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7221,7 +7861,7 @@
       <c r="S267" s="3"/>
       <c r="T267" s="3"/>
     </row>
-    <row r="268" spans="1:20" ht="15.6" customHeight="1">
+    <row r="268" ht="15.6" customHeight="1" spans="1:20">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7243,7 +7883,7 @@
       <c r="S268" s="3"/>
       <c r="T268" s="3"/>
     </row>
-    <row r="269" spans="1:20" ht="15.6" customHeight="1">
+    <row r="269" ht="15.6" customHeight="1" spans="1:20">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7265,7 +7905,7 @@
       <c r="S269" s="3"/>
       <c r="T269" s="3"/>
     </row>
-    <row r="270" spans="1:20" ht="15.6" customHeight="1">
+    <row r="270" ht="15.6" customHeight="1" spans="1:20">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7287,7 +7927,7 @@
       <c r="S270" s="3"/>
       <c r="T270" s="3"/>
     </row>
-    <row r="271" spans="1:20" ht="15.6" customHeight="1">
+    <row r="271" ht="15.6" customHeight="1" spans="1:20">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7309,7 +7949,7 @@
       <c r="S271" s="3"/>
       <c r="T271" s="3"/>
     </row>
-    <row r="272" spans="1:20" ht="15.6" customHeight="1">
+    <row r="272" ht="15.6" customHeight="1" spans="1:20">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -7331,7 +7971,7 @@
       <c r="S272" s="3"/>
       <c r="T272" s="3"/>
     </row>
-    <row r="273" spans="1:20" ht="15.6" customHeight="1">
+    <row r="273" ht="15.6" customHeight="1" spans="1:20">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -7353,7 +7993,7 @@
       <c r="S273" s="3"/>
       <c r="T273" s="3"/>
     </row>
-    <row r="274" spans="1:20" ht="15.6" customHeight="1">
+    <row r="274" ht="15.6" customHeight="1" spans="1:20">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -7375,7 +8015,7 @@
       <c r="S274" s="3"/>
       <c r="T274" s="3"/>
     </row>
-    <row r="275" spans="1:20" ht="15.6" customHeight="1">
+    <row r="275" ht="15.6" customHeight="1" spans="1:20">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -7397,7 +8037,7 @@
       <c r="S275" s="3"/>
       <c r="T275" s="3"/>
     </row>
-    <row r="276" spans="1:20" ht="15.6" customHeight="1">
+    <row r="276" ht="15.6" customHeight="1" spans="1:20">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -7419,7 +8059,7 @@
       <c r="S276" s="3"/>
       <c r="T276" s="3"/>
     </row>
-    <row r="277" spans="1:20" ht="15.6" customHeight="1">
+    <row r="277" ht="15.6" customHeight="1" spans="1:20">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -7441,7 +8081,7 @@
       <c r="S277" s="3"/>
       <c r="T277" s="3"/>
     </row>
-    <row r="278" spans="1:20" ht="15.6" customHeight="1">
+    <row r="278" ht="15.6" customHeight="1" spans="1:20">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -7463,7 +8103,7 @@
       <c r="S278" s="3"/>
       <c r="T278" s="3"/>
     </row>
-    <row r="279" spans="1:20" ht="15.6" customHeight="1">
+    <row r="279" ht="15.6" customHeight="1" spans="1:20">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -7485,7 +8125,7 @@
       <c r="S279" s="3"/>
       <c r="T279" s="3"/>
     </row>
-    <row r="280" spans="1:20" ht="15.6" customHeight="1">
+    <row r="280" ht="15.6" customHeight="1" spans="1:20">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -7507,7 +8147,7 @@
       <c r="S280" s="3"/>
       <c r="T280" s="3"/>
     </row>
-    <row r="281" spans="1:20" ht="15.6" customHeight="1">
+    <row r="281" ht="15.6" customHeight="1" spans="1:20">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -7529,7 +8169,7 @@
       <c r="S281" s="3"/>
       <c r="T281" s="3"/>
     </row>
-    <row r="282" spans="1:20" ht="15.6" customHeight="1">
+    <row r="282" ht="15.6" customHeight="1" spans="1:20">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -7551,7 +8191,7 @@
       <c r="S282" s="3"/>
       <c r="T282" s="3"/>
     </row>
-    <row r="283" spans="1:20" ht="15.6" customHeight="1">
+    <row r="283" ht="15.6" customHeight="1" spans="1:20">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -7573,7 +8213,7 @@
       <c r="S283" s="3"/>
       <c r="T283" s="3"/>
     </row>
-    <row r="284" spans="1:20" ht="15.6" customHeight="1">
+    <row r="284" ht="15.6" customHeight="1" spans="1:20">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -7595,7 +8235,7 @@
       <c r="S284" s="3"/>
       <c r="T284" s="3"/>
     </row>
-    <row r="285" spans="1:20" ht="15.6" customHeight="1">
+    <row r="285" ht="15.6" customHeight="1" spans="1:20">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -7617,7 +8257,7 @@
       <c r="S285" s="3"/>
       <c r="T285" s="3"/>
     </row>
-    <row r="286" spans="1:20" ht="15.6" customHeight="1">
+    <row r="286" ht="15.6" customHeight="1" spans="1:20">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -7639,7 +8279,7 @@
       <c r="S286" s="3"/>
       <c r="T286" s="3"/>
     </row>
-    <row r="287" spans="1:20" ht="15.6" customHeight="1">
+    <row r="287" ht="15.6" customHeight="1" spans="1:20">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -7661,7 +8301,7 @@
       <c r="S287" s="3"/>
       <c r="T287" s="3"/>
     </row>
-    <row r="288" spans="1:20" ht="15.6" customHeight="1">
+    <row r="288" ht="15.6" customHeight="1" spans="1:20">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -7683,7 +8323,7 @@
       <c r="S288" s="3"/>
       <c r="T288" s="3"/>
     </row>
-    <row r="289" spans="1:20" ht="15.6" customHeight="1">
+    <row r="289" ht="15.6" customHeight="1" spans="1:20">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -7705,7 +8345,7 @@
       <c r="S289" s="3"/>
       <c r="T289" s="3"/>
     </row>
-    <row r="290" spans="1:20" ht="15.6" customHeight="1">
+    <row r="290" ht="15.6" customHeight="1" spans="1:20">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -7727,7 +8367,7 @@
       <c r="S290" s="3"/>
       <c r="T290" s="3"/>
     </row>
-    <row r="291" spans="1:20" ht="15.6" customHeight="1">
+    <row r="291" ht="15.6" customHeight="1" spans="1:20">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -7749,7 +8389,7 @@
       <c r="S291" s="3"/>
       <c r="T291" s="3"/>
     </row>
-    <row r="292" spans="1:20" ht="15.6" customHeight="1">
+    <row r="292" ht="15.6" customHeight="1" spans="1:20">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -7771,7 +8411,7 @@
       <c r="S292" s="3"/>
       <c r="T292" s="3"/>
     </row>
-    <row r="293" spans="1:20" ht="15.6" customHeight="1">
+    <row r="293" ht="15.6" customHeight="1" spans="1:20">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -7793,7 +8433,7 @@
       <c r="S293" s="3"/>
       <c r="T293" s="3"/>
     </row>
-    <row r="294" spans="1:20" ht="15.6" customHeight="1">
+    <row r="294" ht="15.6" customHeight="1" spans="1:20">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -7815,7 +8455,7 @@
       <c r="S294" s="3"/>
       <c r="T294" s="3"/>
     </row>
-    <row r="295" spans="1:20" ht="15.6" customHeight="1">
+    <row r="295" ht="15.6" customHeight="1" spans="1:20">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -7837,7 +8477,7 @@
       <c r="S295" s="3"/>
       <c r="T295" s="3"/>
     </row>
-    <row r="296" spans="1:20" ht="15.6" customHeight="1">
+    <row r="296" ht="15.6" customHeight="1" spans="1:20">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -7859,7 +8499,7 @@
       <c r="S296" s="3"/>
       <c r="T296" s="3"/>
     </row>
-    <row r="297" spans="1:20" ht="15.6" customHeight="1">
+    <row r="297" ht="15.6" customHeight="1" spans="1:20">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -7881,7 +8521,7 @@
       <c r="S297" s="3"/>
       <c r="T297" s="3"/>
     </row>
-    <row r="298" spans="1:20" ht="15.6" customHeight="1">
+    <row r="298" ht="15.6" customHeight="1" spans="1:20">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -7903,7 +8543,7 @@
       <c r="S298" s="3"/>
       <c r="T298" s="3"/>
     </row>
-    <row r="299" spans="1:20" ht="15.6" customHeight="1">
+    <row r="299" ht="15.6" customHeight="1" spans="1:20">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -7925,7 +8565,7 @@
       <c r="S299" s="3"/>
       <c r="T299" s="3"/>
     </row>
-    <row r="300" spans="1:20" ht="15.6" customHeight="1">
+    <row r="300" ht="15.6" customHeight="1" spans="1:20">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -7947,7 +8587,7 @@
       <c r="S300" s="3"/>
       <c r="T300" s="3"/>
     </row>
-    <row r="301" spans="1:20" ht="15.6" customHeight="1">
+    <row r="301" ht="15.6" customHeight="1" spans="1:20">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -7969,7 +8609,7 @@
       <c r="S301" s="3"/>
       <c r="T301" s="3"/>
     </row>
-    <row r="302" spans="1:20" ht="15.6" customHeight="1">
+    <row r="302" ht="15.6" customHeight="1" spans="1:20">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -7991,7 +8631,7 @@
       <c r="S302" s="3"/>
       <c r="T302" s="3"/>
     </row>
-    <row r="303" spans="1:20" ht="15.6" customHeight="1">
+    <row r="303" ht="15.6" customHeight="1" spans="1:20">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -8013,7 +8653,7 @@
       <c r="S303" s="3"/>
       <c r="T303" s="3"/>
     </row>
-    <row r="304" spans="1:20" ht="15.6" customHeight="1">
+    <row r="304" ht="15.6" customHeight="1" spans="1:20">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -8035,7 +8675,7 @@
       <c r="S304" s="3"/>
       <c r="T304" s="3"/>
     </row>
-    <row r="305" spans="1:20" ht="15.6" customHeight="1">
+    <row r="305" ht="15.6" customHeight="1" spans="1:20">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -8057,7 +8697,7 @@
       <c r="S305" s="3"/>
       <c r="T305" s="3"/>
     </row>
-    <row r="306" spans="1:20" ht="15.6" customHeight="1">
+    <row r="306" ht="15.6" customHeight="1" spans="1:20">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -8079,7 +8719,7 @@
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
     </row>
-    <row r="307" spans="1:20" ht="15.6" customHeight="1">
+    <row r="307" ht="15.6" customHeight="1" spans="1:20">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -8101,7 +8741,7 @@
       <c r="S307" s="3"/>
       <c r="T307" s="3"/>
     </row>
-    <row r="308" spans="1:20" ht="15.6" customHeight="1">
+    <row r="308" ht="15.6" customHeight="1" spans="1:20">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -8123,7 +8763,7 @@
       <c r="S308" s="3"/>
       <c r="T308" s="3"/>
     </row>
-    <row r="309" spans="1:20" ht="15.6" customHeight="1">
+    <row r="309" ht="15.6" customHeight="1" spans="1:20">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -8145,7 +8785,7 @@
       <c r="S309" s="3"/>
       <c r="T309" s="3"/>
     </row>
-    <row r="310" spans="1:20" ht="15.6" customHeight="1">
+    <row r="310" ht="15.6" customHeight="1" spans="1:20">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -8167,7 +8807,7 @@
       <c r="S310" s="3"/>
       <c r="T310" s="3"/>
     </row>
-    <row r="311" spans="1:20" ht="15.6" customHeight="1">
+    <row r="311" ht="15.6" customHeight="1" spans="1:20">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -8189,7 +8829,7 @@
       <c r="S311" s="3"/>
       <c r="T311" s="3"/>
     </row>
-    <row r="312" spans="1:20" ht="15.6" customHeight="1">
+    <row r="312" ht="15.6" customHeight="1" spans="1:20">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -8211,7 +8851,7 @@
       <c r="S312" s="3"/>
       <c r="T312" s="3"/>
     </row>
-    <row r="313" spans="1:20" ht="15.6" customHeight="1">
+    <row r="313" ht="15.6" customHeight="1" spans="1:20">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -8233,7 +8873,7 @@
       <c r="S313" s="3"/>
       <c r="T313" s="3"/>
     </row>
-    <row r="314" spans="1:20" ht="15.6" customHeight="1">
+    <row r="314" ht="15.6" customHeight="1" spans="1:20">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -8255,7 +8895,7 @@
       <c r="S314" s="3"/>
       <c r="T314" s="3"/>
     </row>
-    <row r="315" spans="1:20" ht="15.6" customHeight="1">
+    <row r="315" ht="15.6" customHeight="1" spans="1:20">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -8277,7 +8917,7 @@
       <c r="S315" s="3"/>
       <c r="T315" s="3"/>
     </row>
-    <row r="316" spans="1:20" ht="15.6" customHeight="1">
+    <row r="316" ht="15.6" customHeight="1" spans="1:20">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -8299,7 +8939,7 @@
       <c r="S316" s="3"/>
       <c r="T316" s="3"/>
     </row>
-    <row r="317" spans="1:20" ht="15.6" customHeight="1">
+    <row r="317" ht="15.6" customHeight="1" spans="1:20">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -8321,7 +8961,7 @@
       <c r="S317" s="3"/>
       <c r="T317" s="3"/>
     </row>
-    <row r="318" spans="1:20" ht="15.6" customHeight="1">
+    <row r="318" ht="15.6" customHeight="1" spans="1:20">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -8343,7 +8983,7 @@
       <c r="S318" s="3"/>
       <c r="T318" s="3"/>
     </row>
-    <row r="319" spans="1:20" ht="15.6" customHeight="1">
+    <row r="319" ht="15.6" customHeight="1" spans="1:20">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -8365,7 +9005,7 @@
       <c r="S319" s="3"/>
       <c r="T319" s="3"/>
     </row>
-    <row r="320" spans="1:20" ht="15.6" customHeight="1">
+    <row r="320" ht="15.6" customHeight="1" spans="1:20">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -8387,7 +9027,7 @@
       <c r="S320" s="3"/>
       <c r="T320" s="3"/>
     </row>
-    <row r="321" spans="1:20" ht="15.6" customHeight="1">
+    <row r="321" ht="15.6" customHeight="1" spans="1:20">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -8409,7 +9049,7 @@
       <c r="S321" s="3"/>
       <c r="T321" s="3"/>
     </row>
-    <row r="322" spans="1:20" ht="15.6" customHeight="1">
+    <row r="322" ht="15.6" customHeight="1" spans="1:20">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -8431,7 +9071,7 @@
       <c r="S322" s="3"/>
       <c r="T322" s="3"/>
     </row>
-    <row r="323" spans="1:20" ht="15.6" customHeight="1">
+    <row r="323" ht="15.6" customHeight="1" spans="1:20">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -8453,7 +9093,7 @@
       <c r="S323" s="3"/>
       <c r="T323" s="3"/>
     </row>
-    <row r="324" spans="1:20" ht="15.6" customHeight="1">
+    <row r="324" ht="15.6" customHeight="1" spans="1:20">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -8475,7 +9115,7 @@
       <c r="S324" s="3"/>
       <c r="T324" s="3"/>
     </row>
-    <row r="325" spans="1:20" ht="15.6" customHeight="1">
+    <row r="325" ht="15.6" customHeight="1" spans="1:20">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -8497,7 +9137,7 @@
       <c r="S325" s="3"/>
       <c r="T325" s="3"/>
     </row>
-    <row r="326" spans="1:20" ht="15.6" customHeight="1">
+    <row r="326" ht="15.6" customHeight="1" spans="1:20">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -8519,7 +9159,7 @@
       <c r="S326" s="3"/>
       <c r="T326" s="3"/>
     </row>
-    <row r="327" spans="1:20" ht="15.6" customHeight="1">
+    <row r="327" ht="15.6" customHeight="1" spans="1:20">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -8541,7 +9181,7 @@
       <c r="S327" s="3"/>
       <c r="T327" s="3"/>
     </row>
-    <row r="328" spans="1:20" ht="15.6" customHeight="1">
+    <row r="328" ht="15.6" customHeight="1" spans="1:20">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -8563,7 +9203,7 @@
       <c r="S328" s="3"/>
       <c r="T328" s="3"/>
     </row>
-    <row r="329" spans="1:20" ht="15.6" customHeight="1">
+    <row r="329" ht="15.6" customHeight="1" spans="1:20">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -8585,7 +9225,7 @@
       <c r="S329" s="3"/>
       <c r="T329" s="3"/>
     </row>
-    <row r="330" spans="1:20" ht="15.6" customHeight="1">
+    <row r="330" ht="15.6" customHeight="1" spans="1:20">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -8607,7 +9247,7 @@
       <c r="S330" s="3"/>
       <c r="T330" s="3"/>
     </row>
-    <row r="331" spans="1:20" ht="15.6" customHeight="1">
+    <row r="331" ht="15.6" customHeight="1" spans="1:20">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -8629,7 +9269,7 @@
       <c r="S331" s="3"/>
       <c r="T331" s="3"/>
     </row>
-    <row r="332" spans="1:20" ht="15.6" customHeight="1">
+    <row r="332" ht="15.6" customHeight="1" spans="1:20">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -8651,7 +9291,7 @@
       <c r="S332" s="3"/>
       <c r="T332" s="3"/>
     </row>
-    <row r="333" spans="1:20" ht="15.6" customHeight="1">
+    <row r="333" ht="15.6" customHeight="1" spans="1:20">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -8673,7 +9313,7 @@
       <c r="S333" s="3"/>
       <c r="T333" s="3"/>
     </row>
-    <row r="334" spans="1:20" ht="15.6" customHeight="1">
+    <row r="334" ht="15.6" customHeight="1" spans="1:20">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -8695,7 +9335,7 @@
       <c r="S334" s="3"/>
       <c r="T334" s="3"/>
     </row>
-    <row r="335" spans="1:20" ht="15.6" customHeight="1">
+    <row r="335" ht="15.6" customHeight="1" spans="1:20">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -8717,7 +9357,7 @@
       <c r="S335" s="3"/>
       <c r="T335" s="3"/>
     </row>
-    <row r="336" spans="1:20" ht="15.6" customHeight="1">
+    <row r="336" ht="15.6" customHeight="1" spans="1:20">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -8739,7 +9379,7 @@
       <c r="S336" s="3"/>
       <c r="T336" s="3"/>
     </row>
-    <row r="337" spans="1:20" ht="15.6" customHeight="1">
+    <row r="337" ht="15.6" customHeight="1" spans="1:20">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -8761,7 +9401,7 @@
       <c r="S337" s="3"/>
       <c r="T337" s="3"/>
     </row>
-    <row r="338" spans="1:20" ht="15.6" customHeight="1">
+    <row r="338" ht="15.6" customHeight="1" spans="1:20">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -8783,7 +9423,7 @@
       <c r="S338" s="3"/>
       <c r="T338" s="3"/>
     </row>
-    <row r="339" spans="1:20" ht="15.6" customHeight="1">
+    <row r="339" ht="15.6" customHeight="1" spans="1:20">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -8805,7 +9445,7 @@
       <c r="S339" s="3"/>
       <c r="T339" s="3"/>
     </row>
-    <row r="340" spans="1:20" ht="15.6" customHeight="1">
+    <row r="340" ht="15.6" customHeight="1" spans="1:20">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -8827,7 +9467,7 @@
       <c r="S340" s="3"/>
       <c r="T340" s="3"/>
     </row>
-    <row r="341" spans="1:20" ht="15.6" customHeight="1">
+    <row r="341" ht="15.6" customHeight="1" spans="1:20">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -8849,7 +9489,7 @@
       <c r="S341" s="3"/>
       <c r="T341" s="3"/>
     </row>
-    <row r="342" spans="1:20" ht="15.6" customHeight="1">
+    <row r="342" ht="15.6" customHeight="1" spans="1:20">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -8871,7 +9511,7 @@
       <c r="S342" s="3"/>
       <c r="T342" s="3"/>
     </row>
-    <row r="343" spans="1:20" ht="15.6" customHeight="1">
+    <row r="343" ht="15.6" customHeight="1" spans="1:20">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -8893,7 +9533,7 @@
       <c r="S343" s="3"/>
       <c r="T343" s="3"/>
     </row>
-    <row r="344" spans="1:20" ht="15.6" customHeight="1">
+    <row r="344" ht="15.6" customHeight="1" spans="1:20">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -8915,7 +9555,7 @@
       <c r="S344" s="3"/>
       <c r="T344" s="3"/>
     </row>
-    <row r="345" spans="1:20" ht="15.6" customHeight="1">
+    <row r="345" ht="15.6" customHeight="1" spans="1:20">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -8937,7 +9577,7 @@
       <c r="S345" s="3"/>
       <c r="T345" s="3"/>
     </row>
-    <row r="346" spans="1:20" ht="15.6" customHeight="1">
+    <row r="346" ht="15.6" customHeight="1" spans="1:20">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -8959,7 +9599,7 @@
       <c r="S346" s="3"/>
       <c r="T346" s="3"/>
     </row>
-    <row r="347" spans="1:20" ht="15.6" customHeight="1">
+    <row r="347" ht="15.6" customHeight="1" spans="1:20">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -8981,7 +9621,7 @@
       <c r="S347" s="3"/>
       <c r="T347" s="3"/>
     </row>
-    <row r="348" spans="1:20" ht="15.6" customHeight="1">
+    <row r="348" ht="15.6" customHeight="1" spans="1:20">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -9003,7 +9643,7 @@
       <c r="S348" s="3"/>
       <c r="T348" s="3"/>
     </row>
-    <row r="349" spans="1:20" ht="15.6" customHeight="1">
+    <row r="349" ht="15.6" customHeight="1" spans="1:20">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -9025,7 +9665,7 @@
       <c r="S349" s="3"/>
       <c r="T349" s="3"/>
     </row>
-    <row r="350" spans="1:20" ht="15.6" customHeight="1">
+    <row r="350" ht="15.6" customHeight="1" spans="1:20">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -9047,7 +9687,7 @@
       <c r="S350" s="3"/>
       <c r="T350" s="3"/>
     </row>
-    <row r="351" spans="1:20" ht="15.6" customHeight="1">
+    <row r="351" ht="15.6" customHeight="1" spans="1:20">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -9069,7 +9709,7 @@
       <c r="S351" s="3"/>
       <c r="T351" s="3"/>
     </row>
-    <row r="352" spans="1:20" ht="15.6" customHeight="1">
+    <row r="352" ht="15.6" customHeight="1" spans="1:20">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -9091,7 +9731,7 @@
       <c r="S352" s="3"/>
       <c r="T352" s="3"/>
     </row>
-    <row r="353" spans="1:20" ht="15.6" customHeight="1">
+    <row r="353" ht="15.6" customHeight="1" spans="1:20">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -9113,7 +9753,7 @@
       <c r="S353" s="3"/>
       <c r="T353" s="3"/>
     </row>
-    <row r="354" spans="1:20" ht="15.6" customHeight="1">
+    <row r="354" ht="15.6" customHeight="1" spans="1:20">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -9135,7 +9775,7 @@
       <c r="S354" s="3"/>
       <c r="T354" s="3"/>
     </row>
-    <row r="355" spans="1:20" ht="15.6" customHeight="1">
+    <row r="355" ht="15.6" customHeight="1" spans="1:20">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -9157,7 +9797,7 @@
       <c r="S355" s="3"/>
       <c r="T355" s="3"/>
     </row>
-    <row r="356" spans="1:20" ht="15.6" customHeight="1">
+    <row r="356" ht="15.6" customHeight="1" spans="1:20">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -9179,7 +9819,7 @@
       <c r="S356" s="3"/>
       <c r="T356" s="3"/>
     </row>
-    <row r="357" spans="1:20" ht="15.6" customHeight="1">
+    <row r="357" ht="15.6" customHeight="1" spans="1:20">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -9201,7 +9841,7 @@
       <c r="S357" s="3"/>
       <c r="T357" s="3"/>
     </row>
-    <row r="358" spans="1:20" ht="15.6" customHeight="1">
+    <row r="358" ht="15.6" customHeight="1" spans="1:20">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -9223,7 +9863,7 @@
       <c r="S358" s="3"/>
       <c r="T358" s="3"/>
     </row>
-    <row r="359" spans="1:20" ht="15.6" customHeight="1">
+    <row r="359" ht="15.6" customHeight="1" spans="1:20">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -9245,7 +9885,7 @@
       <c r="S359" s="3"/>
       <c r="T359" s="3"/>
     </row>
-    <row r="360" spans="1:20" ht="15.6" customHeight="1">
+    <row r="360" ht="15.6" customHeight="1" spans="1:20">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -9267,7 +9907,7 @@
       <c r="S360" s="3"/>
       <c r="T360" s="3"/>
     </row>
-    <row r="361" spans="1:20" ht="15.6" customHeight="1">
+    <row r="361" ht="15.6" customHeight="1" spans="1:20">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -9289,7 +9929,7 @@
       <c r="S361" s="3"/>
       <c r="T361" s="3"/>
     </row>
-    <row r="362" spans="1:20" ht="15.6" customHeight="1">
+    <row r="362" ht="15.6" customHeight="1" spans="1:20">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -9311,7 +9951,7 @@
       <c r="S362" s="3"/>
       <c r="T362" s="3"/>
     </row>
-    <row r="363" spans="1:20" ht="15.6" customHeight="1">
+    <row r="363" ht="15.6" customHeight="1" spans="1:20">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -9333,7 +9973,7 @@
       <c r="S363" s="3"/>
       <c r="T363" s="3"/>
     </row>
-    <row r="364" spans="1:20" ht="15.6" customHeight="1">
+    <row r="364" ht="15.6" customHeight="1" spans="1:20">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -9355,7 +9995,7 @@
       <c r="S364" s="3"/>
       <c r="T364" s="3"/>
     </row>
-    <row r="365" spans="1:20" ht="15.6" customHeight="1">
+    <row r="365" ht="15.6" customHeight="1" spans="1:20">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -9377,7 +10017,7 @@
       <c r="S365" s="3"/>
       <c r="T365" s="3"/>
     </row>
-    <row r="366" spans="1:20" ht="15.6" customHeight="1">
+    <row r="366" ht="15.6" customHeight="1" spans="1:20">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -9399,7 +10039,7 @@
       <c r="S366" s="3"/>
       <c r="T366" s="3"/>
     </row>
-    <row r="367" spans="1:20" ht="15.6" customHeight="1">
+    <row r="367" ht="15.6" customHeight="1" spans="1:20">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -9421,7 +10061,7 @@
       <c r="S367" s="3"/>
       <c r="T367" s="3"/>
     </row>
-    <row r="368" spans="1:20" ht="15.6" customHeight="1">
+    <row r="368" ht="15.6" customHeight="1" spans="1:20">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -9443,7 +10083,7 @@
       <c r="S368" s="3"/>
       <c r="T368" s="3"/>
     </row>
-    <row r="369" spans="1:20" ht="15.6" customHeight="1">
+    <row r="369" ht="15.6" customHeight="1" spans="1:20">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -9465,7 +10105,7 @@
       <c r="S369" s="3"/>
       <c r="T369" s="3"/>
     </row>
-    <row r="370" spans="1:20" ht="15.6" customHeight="1">
+    <row r="370" ht="15.6" customHeight="1" spans="1:20">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -9487,7 +10127,7 @@
       <c r="S370" s="3"/>
       <c r="T370" s="3"/>
     </row>
-    <row r="371" spans="1:20" ht="15.6" customHeight="1">
+    <row r="371" ht="15.6" customHeight="1" spans="1:20">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -9509,7 +10149,7 @@
       <c r="S371" s="3"/>
       <c r="T371" s="3"/>
     </row>
-    <row r="372" spans="1:20" ht="15.6" customHeight="1">
+    <row r="372" ht="15.6" customHeight="1" spans="1:20">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -9531,7 +10171,7 @@
       <c r="S372" s="3"/>
       <c r="T372" s="3"/>
     </row>
-    <row r="373" spans="1:20" ht="15.6" customHeight="1">
+    <row r="373" ht="15.6" customHeight="1" spans="1:20">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -9553,7 +10193,7 @@
       <c r="S373" s="3"/>
       <c r="T373" s="3"/>
     </row>
-    <row r="374" spans="1:20" ht="15.6" customHeight="1">
+    <row r="374" ht="15.6" customHeight="1" spans="1:20">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -9575,7 +10215,7 @@
       <c r="S374" s="3"/>
       <c r="T374" s="3"/>
     </row>
-    <row r="375" spans="1:20" ht="15.6" customHeight="1">
+    <row r="375" ht="15.6" customHeight="1" spans="1:20">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -9597,7 +10237,7 @@
       <c r="S375" s="3"/>
       <c r="T375" s="3"/>
     </row>
-    <row r="376" spans="1:20" ht="15.6" customHeight="1">
+    <row r="376" ht="15.6" customHeight="1" spans="1:20">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -9619,7 +10259,7 @@
       <c r="S376" s="3"/>
       <c r="T376" s="3"/>
     </row>
-    <row r="377" spans="1:20" ht="15.6" customHeight="1">
+    <row r="377" ht="15.6" customHeight="1" spans="1:20">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -9641,7 +10281,7 @@
       <c r="S377" s="3"/>
       <c r="T377" s="3"/>
     </row>
-    <row r="378" spans="1:20" ht="15.6" customHeight="1">
+    <row r="378" ht="15.6" customHeight="1" spans="1:20">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -9663,7 +10303,7 @@
       <c r="S378" s="3"/>
       <c r="T378" s="3"/>
     </row>
-    <row r="379" spans="1:20" ht="15.6" customHeight="1">
+    <row r="379" ht="15.6" customHeight="1" spans="1:20">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -9685,7 +10325,7 @@
       <c r="S379" s="3"/>
       <c r="T379" s="3"/>
     </row>
-    <row r="380" spans="1:20" ht="15.6" customHeight="1">
+    <row r="380" ht="15.6" customHeight="1" spans="1:20">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -9707,7 +10347,7 @@
       <c r="S380" s="3"/>
       <c r="T380" s="3"/>
     </row>
-    <row r="381" spans="1:20" ht="15.6" customHeight="1">
+    <row r="381" ht="15.6" customHeight="1" spans="1:20">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -9729,7 +10369,7 @@
       <c r="S381" s="3"/>
       <c r="T381" s="3"/>
     </row>
-    <row r="382" spans="1:20" ht="15.6" customHeight="1">
+    <row r="382" ht="15.6" customHeight="1" spans="1:20">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -9751,7 +10391,7 @@
       <c r="S382" s="3"/>
       <c r="T382" s="3"/>
     </row>
-    <row r="383" spans="1:20" ht="15.6" customHeight="1">
+    <row r="383" ht="15.6" customHeight="1" spans="1:20">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -9773,7 +10413,7 @@
       <c r="S383" s="3"/>
       <c r="T383" s="3"/>
     </row>
-    <row r="384" spans="1:20" ht="15.6" customHeight="1">
+    <row r="384" ht="15.6" customHeight="1" spans="1:20">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -9795,7 +10435,7 @@
       <c r="S384" s="3"/>
       <c r="T384" s="3"/>
     </row>
-    <row r="385" spans="1:20" ht="15.6" customHeight="1">
+    <row r="385" ht="15.6" customHeight="1" spans="1:20">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -9817,7 +10457,7 @@
       <c r="S385" s="3"/>
       <c r="T385" s="3"/>
     </row>
-    <row r="386" spans="1:20" ht="15.6" customHeight="1">
+    <row r="386" ht="15.6" customHeight="1" spans="1:20">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -9839,7 +10479,7 @@
       <c r="S386" s="3"/>
       <c r="T386" s="3"/>
     </row>
-    <row r="387" spans="1:20" ht="15.6" customHeight="1">
+    <row r="387" ht="15.6" customHeight="1" spans="1:20">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -9861,7 +10501,7 @@
       <c r="S387" s="3"/>
       <c r="T387" s="3"/>
     </row>
-    <row r="388" spans="1:20" ht="15.6" customHeight="1">
+    <row r="388" ht="15.6" customHeight="1" spans="1:20">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -9883,7 +10523,7 @@
       <c r="S388" s="3"/>
       <c r="T388" s="3"/>
     </row>
-    <row r="389" spans="1:20" ht="15.6" customHeight="1">
+    <row r="389" ht="15.6" customHeight="1" spans="1:20">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -9905,7 +10545,7 @@
       <c r="S389" s="3"/>
       <c r="T389" s="3"/>
     </row>
-    <row r="390" spans="1:20" ht="15.6" customHeight="1">
+    <row r="390" ht="15.6" customHeight="1" spans="1:20">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -9927,7 +10567,7 @@
       <c r="S390" s="3"/>
       <c r="T390" s="3"/>
     </row>
-    <row r="391" spans="1:20" ht="15.6" customHeight="1">
+    <row r="391" ht="15.6" customHeight="1" spans="1:20">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -9949,7 +10589,7 @@
       <c r="S391" s="3"/>
       <c r="T391" s="3"/>
     </row>
-    <row r="392" spans="1:20" ht="15.6" customHeight="1">
+    <row r="392" ht="15.6" customHeight="1" spans="1:20">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -9971,7 +10611,7 @@
       <c r="S392" s="3"/>
       <c r="T392" s="3"/>
     </row>
-    <row r="393" spans="1:20" ht="15.6" customHeight="1">
+    <row r="393" ht="15.6" customHeight="1" spans="1:20">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -9993,7 +10633,7 @@
       <c r="S393" s="3"/>
       <c r="T393" s="3"/>
     </row>
-    <row r="394" spans="1:20" ht="15.6" customHeight="1">
+    <row r="394" ht="15.6" customHeight="1" spans="1:20">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -10015,7 +10655,7 @@
       <c r="S394" s="3"/>
       <c r="T394" s="3"/>
     </row>
-    <row r="395" spans="1:20" ht="15.6" customHeight="1">
+    <row r="395" ht="15.6" customHeight="1" spans="1:20">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -10037,7 +10677,7 @@
       <c r="S395" s="3"/>
       <c r="T395" s="3"/>
     </row>
-    <row r="396" spans="1:20" ht="15.6" customHeight="1">
+    <row r="396" ht="15.6" customHeight="1" spans="1:20">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -10059,7 +10699,7 @@
       <c r="S396" s="3"/>
       <c r="T396" s="3"/>
     </row>
-    <row r="397" spans="1:20" ht="15.6" customHeight="1">
+    <row r="397" ht="15.6" customHeight="1" spans="1:20">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -10081,7 +10721,7 @@
       <c r="S397" s="3"/>
       <c r="T397" s="3"/>
     </row>
-    <row r="398" spans="1:20" ht="15.6" customHeight="1">
+    <row r="398" ht="15.6" customHeight="1" spans="1:20">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -10103,7 +10743,7 @@
       <c r="S398" s="3"/>
       <c r="T398" s="3"/>
     </row>
-    <row r="399" spans="1:20" ht="15.6" customHeight="1">
+    <row r="399" ht="15.6" customHeight="1" spans="1:20">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -10125,7 +10765,7 @@
       <c r="S399" s="3"/>
       <c r="T399" s="3"/>
     </row>
-    <row r="400" spans="1:20" ht="15.6" customHeight="1">
+    <row r="400" ht="15.6" customHeight="1" spans="1:20">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -10147,7 +10787,7 @@
       <c r="S400" s="3"/>
       <c r="T400" s="3"/>
     </row>
-    <row r="401" spans="1:20" ht="15.6" customHeight="1">
+    <row r="401" ht="15.6" customHeight="1" spans="1:20">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -10169,7 +10809,7 @@
       <c r="S401" s="3"/>
       <c r="T401" s="3"/>
     </row>
-    <row r="402" spans="1:20" ht="15.6" customHeight="1">
+    <row r="402" ht="15.6" customHeight="1" spans="1:20">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -10191,7 +10831,7 @@
       <c r="S402" s="3"/>
       <c r="T402" s="3"/>
     </row>
-    <row r="403" spans="1:20" ht="15.6" customHeight="1">
+    <row r="403" ht="15.6" customHeight="1" spans="1:20">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -10213,7 +10853,7 @@
       <c r="S403" s="3"/>
       <c r="T403" s="3"/>
     </row>
-    <row r="404" spans="1:20" ht="15.6" customHeight="1">
+    <row r="404" ht="15.6" customHeight="1" spans="1:20">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -10235,7 +10875,7 @@
       <c r="S404" s="3"/>
       <c r="T404" s="3"/>
     </row>
-    <row r="405" spans="1:20" ht="15.6" customHeight="1">
+    <row r="405" ht="15.6" customHeight="1" spans="1:20">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -10257,7 +10897,7 @@
       <c r="S405" s="3"/>
       <c r="T405" s="3"/>
     </row>
-    <row r="406" spans="1:20" ht="15.6" customHeight="1">
+    <row r="406" ht="15.6" customHeight="1" spans="1:20">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -10279,7 +10919,7 @@
       <c r="S406" s="3"/>
       <c r="T406" s="3"/>
     </row>
-    <row r="407" spans="1:20" ht="15.6" customHeight="1">
+    <row r="407" ht="15.6" customHeight="1" spans="1:20">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -10301,7 +10941,7 @@
       <c r="S407" s="3"/>
       <c r="T407" s="3"/>
     </row>
-    <row r="408" spans="1:20" ht="15.6" customHeight="1">
+    <row r="408" ht="15.6" customHeight="1" spans="1:20">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -10323,7 +10963,7 @@
       <c r="S408" s="3"/>
       <c r="T408" s="3"/>
     </row>
-    <row r="409" spans="1:20" ht="15.6" customHeight="1">
+    <row r="409" ht="15.6" customHeight="1" spans="1:20">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -10345,7 +10985,7 @@
       <c r="S409" s="3"/>
       <c r="T409" s="3"/>
     </row>
-    <row r="410" spans="1:20" ht="15.6" customHeight="1">
+    <row r="410" ht="15.6" customHeight="1" spans="1:20">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -10367,7 +11007,7 @@
       <c r="S410" s="3"/>
       <c r="T410" s="3"/>
     </row>
-    <row r="411" spans="1:20" ht="15.6" customHeight="1">
+    <row r="411" ht="15.6" customHeight="1" spans="1:20">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -10389,7 +11029,7 @@
       <c r="S411" s="3"/>
       <c r="T411" s="3"/>
     </row>
-    <row r="412" spans="1:20" ht="15.6" customHeight="1">
+    <row r="412" ht="15.6" customHeight="1" spans="1:20">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -10411,7 +11051,7 @@
       <c r="S412" s="3"/>
       <c r="T412" s="3"/>
     </row>
-    <row r="413" spans="1:20" ht="15.6" customHeight="1">
+    <row r="413" ht="15.6" customHeight="1" spans="1:20">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -10433,7 +11073,7 @@
       <c r="S413" s="3"/>
       <c r="T413" s="3"/>
     </row>
-    <row r="414" spans="1:20" ht="15.6" customHeight="1">
+    <row r="414" ht="15.6" customHeight="1" spans="1:20">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -10455,7 +11095,7 @@
       <c r="S414" s="3"/>
       <c r="T414" s="3"/>
     </row>
-    <row r="415" spans="1:20" ht="15.6" customHeight="1">
+    <row r="415" ht="15.6" customHeight="1" spans="1:20">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -10477,7 +11117,7 @@
       <c r="S415" s="3"/>
       <c r="T415" s="3"/>
     </row>
-    <row r="416" spans="1:20" ht="15.6" customHeight="1">
+    <row r="416" ht="15.6" customHeight="1" spans="1:20">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -10499,7 +11139,7 @@
       <c r="S416" s="3"/>
       <c r="T416" s="3"/>
     </row>
-    <row r="417" spans="1:20" ht="15.6" customHeight="1">
+    <row r="417" ht="15.6" customHeight="1" spans="1:20">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -10521,7 +11161,7 @@
       <c r="S417" s="3"/>
       <c r="T417" s="3"/>
     </row>
-    <row r="418" spans="1:20" ht="15.6" customHeight="1">
+    <row r="418" ht="15.6" customHeight="1" spans="1:20">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -10543,7 +11183,7 @@
       <c r="S418" s="3"/>
       <c r="T418" s="3"/>
     </row>
-    <row r="419" spans="1:20" ht="15.6" customHeight="1">
+    <row r="419" ht="15.6" customHeight="1" spans="1:20">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -10565,7 +11205,7 @@
       <c r="S419" s="3"/>
       <c r="T419" s="3"/>
     </row>
-    <row r="420" spans="1:20" ht="15.6" customHeight="1">
+    <row r="420" ht="15.6" customHeight="1" spans="1:20">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -10587,7 +11227,7 @@
       <c r="S420" s="3"/>
       <c r="T420" s="3"/>
     </row>
-    <row r="421" spans="1:20" ht="15.6" customHeight="1">
+    <row r="421" ht="15.6" customHeight="1" spans="1:20">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -10609,7 +11249,7 @@
       <c r="S421" s="3"/>
       <c r="T421" s="3"/>
     </row>
-    <row r="422" spans="1:20" ht="15.6" customHeight="1">
+    <row r="422" ht="15.6" customHeight="1" spans="1:20">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -10631,7 +11271,7 @@
       <c r="S422" s="3"/>
       <c r="T422" s="3"/>
     </row>
-    <row r="423" spans="1:20" ht="15.6" customHeight="1">
+    <row r="423" ht="15.6" customHeight="1" spans="1:20">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -10653,7 +11293,7 @@
       <c r="S423" s="3"/>
       <c r="T423" s="3"/>
     </row>
-    <row r="424" spans="1:20" ht="15.6" customHeight="1">
+    <row r="424" ht="15.6" customHeight="1" spans="1:20">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -10675,7 +11315,7 @@
       <c r="S424" s="3"/>
       <c r="T424" s="3"/>
     </row>
-    <row r="425" spans="1:20" ht="15.6" customHeight="1">
+    <row r="425" ht="15.6" customHeight="1" spans="1:20">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -10697,7 +11337,7 @@
       <c r="S425" s="3"/>
       <c r="T425" s="3"/>
     </row>
-    <row r="426" spans="1:20" ht="15.6" customHeight="1">
+    <row r="426" ht="15.6" customHeight="1" spans="1:20">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -10719,7 +11359,7 @@
       <c r="S426" s="3"/>
       <c r="T426" s="3"/>
     </row>
-    <row r="427" spans="1:20" ht="15.6" customHeight="1">
+    <row r="427" ht="15.6" customHeight="1" spans="1:20">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -10741,7 +11381,7 @@
       <c r="S427" s="3"/>
       <c r="T427" s="3"/>
     </row>
-    <row r="428" spans="1:20" ht="15.6" customHeight="1">
+    <row r="428" ht="15.6" customHeight="1" spans="1:20">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -10763,7 +11403,7 @@
       <c r="S428" s="3"/>
       <c r="T428" s="3"/>
     </row>
-    <row r="429" spans="1:20" ht="15.6" customHeight="1">
+    <row r="429" ht="15.6" customHeight="1" spans="1:20">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -10785,7 +11425,7 @@
       <c r="S429" s="3"/>
       <c r="T429" s="3"/>
     </row>
-    <row r="430" spans="1:20" ht="15.6" customHeight="1">
+    <row r="430" ht="15.6" customHeight="1" spans="1:20">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -10807,7 +11447,7 @@
       <c r="S430" s="3"/>
       <c r="T430" s="3"/>
     </row>
-    <row r="431" spans="1:20" ht="15.6" customHeight="1">
+    <row r="431" ht="15.6" customHeight="1" spans="1:20">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -10829,7 +11469,7 @@
       <c r="S431" s="3"/>
       <c r="T431" s="3"/>
     </row>
-    <row r="432" spans="1:20" ht="15.6" customHeight="1">
+    <row r="432" ht="15.6" customHeight="1" spans="1:20">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -10851,7 +11491,7 @@
       <c r="S432" s="3"/>
       <c r="T432" s="3"/>
     </row>
-    <row r="433" spans="1:20" ht="15.6" customHeight="1">
+    <row r="433" ht="15.6" customHeight="1" spans="1:20">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -10873,7 +11513,7 @@
       <c r="S433" s="3"/>
       <c r="T433" s="3"/>
     </row>
-    <row r="434" spans="1:20" ht="15.6" customHeight="1">
+    <row r="434" ht="15.6" customHeight="1" spans="1:20">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -10895,7 +11535,7 @@
       <c r="S434" s="3"/>
       <c r="T434" s="3"/>
     </row>
-    <row r="435" spans="1:20" ht="15.6" customHeight="1">
+    <row r="435" ht="15.6" customHeight="1" spans="1:20">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -10917,7 +11557,7 @@
       <c r="S435" s="3"/>
       <c r="T435" s="3"/>
     </row>
-    <row r="436" spans="1:20" ht="15.6" customHeight="1">
+    <row r="436" ht="15.6" customHeight="1" spans="1:20">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -10939,7 +11579,7 @@
       <c r="S436" s="3"/>
       <c r="T436" s="3"/>
     </row>
-    <row r="437" spans="1:20" ht="15.6" customHeight="1">
+    <row r="437" ht="15.6" customHeight="1" spans="1:20">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -10961,7 +11601,7 @@
       <c r="S437" s="3"/>
       <c r="T437" s="3"/>
     </row>
-    <row r="438" spans="1:20" ht="15.6" customHeight="1">
+    <row r="438" ht="15.6" customHeight="1" spans="1:20">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -10983,7 +11623,7 @@
       <c r="S438" s="3"/>
       <c r="T438" s="3"/>
     </row>
-    <row r="439" spans="1:20" ht="15.6" customHeight="1">
+    <row r="439" ht="15.6" customHeight="1" spans="1:20">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -11005,7 +11645,7 @@
       <c r="S439" s="3"/>
       <c r="T439" s="3"/>
     </row>
-    <row r="440" spans="1:20" ht="15.6" customHeight="1">
+    <row r="440" ht="15.6" customHeight="1" spans="1:20">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -11027,7 +11667,7 @@
       <c r="S440" s="3"/>
       <c r="T440" s="3"/>
     </row>
-    <row r="441" spans="1:20" ht="15.6" customHeight="1">
+    <row r="441" ht="15.6" customHeight="1" spans="1:20">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -11049,7 +11689,7 @@
       <c r="S441" s="3"/>
       <c r="T441" s="3"/>
     </row>
-    <row r="442" spans="1:20" ht="15.6" customHeight="1">
+    <row r="442" ht="15.6" customHeight="1" spans="1:20">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -11071,7 +11711,7 @@
       <c r="S442" s="3"/>
       <c r="T442" s="3"/>
     </row>
-    <row r="443" spans="1:20" ht="15.6" customHeight="1">
+    <row r="443" ht="15.6" customHeight="1" spans="1:20">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -11093,7 +11733,7 @@
       <c r="S443" s="3"/>
       <c r="T443" s="3"/>
     </row>
-    <row r="444" spans="1:20" ht="15.6" customHeight="1">
+    <row r="444" ht="15.6" customHeight="1" spans="1:20">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -11115,7 +11755,7 @@
       <c r="S444" s="3"/>
       <c r="T444" s="3"/>
     </row>
-    <row r="445" spans="1:20" ht="15.6" customHeight="1">
+    <row r="445" ht="15.6" customHeight="1" spans="1:20">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -11137,7 +11777,7 @@
       <c r="S445" s="3"/>
       <c r="T445" s="3"/>
     </row>
-    <row r="446" spans="1:20" ht="15.6" customHeight="1">
+    <row r="446" ht="15.6" customHeight="1" spans="1:20">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -11159,7 +11799,7 @@
       <c r="S446" s="3"/>
       <c r="T446" s="3"/>
     </row>
-    <row r="447" spans="1:20" ht="15.6" customHeight="1">
+    <row r="447" ht="15.6" customHeight="1" spans="1:20">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -11181,7 +11821,7 @@
       <c r="S447" s="3"/>
       <c r="T447" s="3"/>
     </row>
-    <row r="448" spans="1:20" ht="15.6" customHeight="1">
+    <row r="448" ht="15.6" customHeight="1" spans="1:20">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -11203,7 +11843,7 @@
       <c r="S448" s="3"/>
       <c r="T448" s="3"/>
     </row>
-    <row r="449" spans="1:20" ht="15.6" customHeight="1">
+    <row r="449" ht="15.6" customHeight="1" spans="1:20">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -11225,7 +11865,7 @@
       <c r="S449" s="3"/>
       <c r="T449" s="3"/>
     </row>
-    <row r="450" spans="1:20" ht="15.6" customHeight="1">
+    <row r="450" ht="15.6" customHeight="1" spans="1:20">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -11247,7 +11887,7 @@
       <c r="S450" s="3"/>
       <c r="T450" s="3"/>
     </row>
-    <row r="451" spans="1:20" ht="15.6" customHeight="1">
+    <row r="451" ht="15.6" customHeight="1" spans="1:20">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -11269,7 +11909,7 @@
       <c r="S451" s="3"/>
       <c r="T451" s="3"/>
     </row>
-    <row r="452" spans="1:20" ht="15.6" customHeight="1">
+    <row r="452" ht="15.6" customHeight="1" spans="1:20">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -11291,7 +11931,7 @@
       <c r="S452" s="3"/>
       <c r="T452" s="3"/>
     </row>
-    <row r="453" spans="1:20" ht="15.6" customHeight="1">
+    <row r="453" ht="15.6" customHeight="1" spans="1:20">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -11313,7 +11953,7 @@
       <c r="S453" s="3"/>
       <c r="T453" s="3"/>
     </row>
-    <row r="454" spans="1:20" ht="15.6" customHeight="1">
+    <row r="454" ht="15.6" customHeight="1" spans="1:20">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -11335,7 +11975,7 @@
       <c r="S454" s="3"/>
       <c r="T454" s="3"/>
     </row>
-    <row r="455" spans="1:20" ht="15.6" customHeight="1">
+    <row r="455" ht="15.6" customHeight="1" spans="1:20">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -11357,7 +11997,7 @@
       <c r="S455" s="3"/>
       <c r="T455" s="3"/>
     </row>
-    <row r="456" spans="1:20" ht="15.6" customHeight="1">
+    <row r="456" ht="15.6" customHeight="1" spans="1:20">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -11379,7 +12019,7 @@
       <c r="S456" s="3"/>
       <c r="T456" s="3"/>
     </row>
-    <row r="457" spans="1:20" ht="15.6" customHeight="1">
+    <row r="457" ht="15.6" customHeight="1" spans="1:20">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -11401,7 +12041,7 @@
       <c r="S457" s="3"/>
       <c r="T457" s="3"/>
     </row>
-    <row r="458" spans="1:20" ht="15.6" customHeight="1">
+    <row r="458" ht="15.6" customHeight="1" spans="1:20">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -11423,7 +12063,7 @@
       <c r="S458" s="3"/>
       <c r="T458" s="3"/>
     </row>
-    <row r="459" spans="1:20" ht="15.6" customHeight="1">
+    <row r="459" ht="15.6" customHeight="1" spans="1:20">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -11445,7 +12085,7 @@
       <c r="S459" s="3"/>
       <c r="T459" s="3"/>
     </row>
-    <row r="460" spans="1:20" ht="15.6" customHeight="1">
+    <row r="460" ht="15.6" customHeight="1" spans="1:20">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -11467,7 +12107,7 @@
       <c r="S460" s="3"/>
       <c r="T460" s="3"/>
     </row>
-    <row r="461" spans="1:20" ht="15.6" customHeight="1">
+    <row r="461" ht="15.6" customHeight="1" spans="1:20">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -11489,7 +12129,7 @@
       <c r="S461" s="3"/>
       <c r="T461" s="3"/>
     </row>
-    <row r="462" spans="1:20" ht="15.6" customHeight="1">
+    <row r="462" ht="15.6" customHeight="1" spans="1:20">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -11511,7 +12151,7 @@
       <c r="S462" s="3"/>
       <c r="T462" s="3"/>
     </row>
-    <row r="463" spans="1:20" ht="15.6" customHeight="1">
+    <row r="463" ht="15.6" customHeight="1" spans="1:20">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -11533,7 +12173,7 @@
       <c r="S463" s="3"/>
       <c r="T463" s="3"/>
     </row>
-    <row r="464" spans="1:20" ht="15.6" customHeight="1">
+    <row r="464" ht="15.6" customHeight="1" spans="1:20">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -11555,7 +12195,7 @@
       <c r="S464" s="3"/>
       <c r="T464" s="3"/>
     </row>
-    <row r="465" spans="1:20" ht="15.6" customHeight="1">
+    <row r="465" ht="15.6" customHeight="1" spans="1:20">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -11577,7 +12217,7 @@
       <c r="S465" s="3"/>
       <c r="T465" s="3"/>
     </row>
-    <row r="466" spans="1:20" ht="15.6" customHeight="1">
+    <row r="466" ht="15.6" customHeight="1" spans="1:20">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -11599,7 +12239,7 @@
       <c r="S466" s="3"/>
       <c r="T466" s="3"/>
     </row>
-    <row r="467" spans="1:20" ht="15.6" customHeight="1">
+    <row r="467" ht="15.6" customHeight="1" spans="1:20">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -11621,7 +12261,7 @@
       <c r="S467" s="3"/>
       <c r="T467" s="3"/>
     </row>
-    <row r="468" spans="1:20" ht="15.6" customHeight="1">
+    <row r="468" ht="15.6" customHeight="1" spans="1:20">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -11643,7 +12283,7 @@
       <c r="S468" s="3"/>
       <c r="T468" s="3"/>
     </row>
-    <row r="469" spans="1:20" ht="15.6" customHeight="1">
+    <row r="469" ht="15.6" customHeight="1" spans="1:20">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -11665,7 +12305,7 @@
       <c r="S469" s="3"/>
       <c r="T469" s="3"/>
     </row>
-    <row r="470" spans="1:20" ht="15.6" customHeight="1">
+    <row r="470" ht="15.6" customHeight="1" spans="1:20">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -11687,7 +12327,7 @@
       <c r="S470" s="3"/>
       <c r="T470" s="3"/>
     </row>
-    <row r="471" spans="1:20" ht="15.6" customHeight="1">
+    <row r="471" ht="15.6" customHeight="1" spans="1:20">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -11709,7 +12349,7 @@
       <c r="S471" s="3"/>
       <c r="T471" s="3"/>
     </row>
-    <row r="472" spans="1:20" ht="15.6" customHeight="1">
+    <row r="472" ht="15.6" customHeight="1" spans="1:20">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -11731,7 +12371,7 @@
       <c r="S472" s="3"/>
       <c r="T472" s="3"/>
     </row>
-    <row r="473" spans="1:20" ht="15.6" customHeight="1">
+    <row r="473" ht="15.6" customHeight="1" spans="1:20">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -11753,7 +12393,7 @@
       <c r="S473" s="3"/>
       <c r="T473" s="3"/>
     </row>
-    <row r="474" spans="1:20" ht="15.6" customHeight="1">
+    <row r="474" ht="15.6" customHeight="1" spans="1:20">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -11775,7 +12415,7 @@
       <c r="S474" s="3"/>
       <c r="T474" s="3"/>
     </row>
-    <row r="475" spans="1:20" ht="15.6" customHeight="1">
+    <row r="475" ht="15.6" customHeight="1" spans="1:20">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -11797,7 +12437,7 @@
       <c r="S475" s="3"/>
       <c r="T475" s="3"/>
     </row>
-    <row r="476" spans="1:20" ht="15.6" customHeight="1">
+    <row r="476" ht="15.6" customHeight="1" spans="1:20">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -11819,7 +12459,7 @@
       <c r="S476" s="3"/>
       <c r="T476" s="3"/>
     </row>
-    <row r="477" spans="1:20" ht="15.6" customHeight="1">
+    <row r="477" ht="15.6" customHeight="1" spans="1:20">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -11841,7 +12481,7 @@
       <c r="S477" s="3"/>
       <c r="T477" s="3"/>
     </row>
-    <row r="478" spans="1:20" ht="15.6" customHeight="1">
+    <row r="478" ht="15.6" customHeight="1" spans="1:20">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -11863,7 +12503,7 @@
       <c r="S478" s="3"/>
       <c r="T478" s="3"/>
     </row>
-    <row r="479" spans="1:20" ht="15.6" customHeight="1">
+    <row r="479" ht="15.6" customHeight="1" spans="1:20">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -11885,7 +12525,7 @@
       <c r="S479" s="3"/>
       <c r="T479" s="3"/>
     </row>
-    <row r="480" spans="1:20" ht="15.6" customHeight="1">
+    <row r="480" ht="15.6" customHeight="1" spans="1:20">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -11907,7 +12547,7 @@
       <c r="S480" s="3"/>
       <c r="T480" s="3"/>
     </row>
-    <row r="481" spans="1:20" ht="15.6" customHeight="1">
+    <row r="481" ht="15.6" customHeight="1" spans="1:20">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -11929,7 +12569,7 @@
       <c r="S481" s="3"/>
       <c r="T481" s="3"/>
     </row>
-    <row r="482" spans="1:20" ht="15.6" customHeight="1">
+    <row r="482" ht="15.6" customHeight="1" spans="1:20">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -11951,7 +12591,7 @@
       <c r="S482" s="3"/>
       <c r="T482" s="3"/>
     </row>
-    <row r="483" spans="1:20" ht="15.6" customHeight="1">
+    <row r="483" ht="15.6" customHeight="1" spans="1:20">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -11973,7 +12613,7 @@
       <c r="S483" s="3"/>
       <c r="T483" s="3"/>
     </row>
-    <row r="484" spans="1:20" ht="15.6" customHeight="1">
+    <row r="484" ht="15.6" customHeight="1" spans="1:20">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -11995,7 +12635,7 @@
       <c r="S484" s="3"/>
       <c r="T484" s="3"/>
     </row>
-    <row r="485" spans="1:20" ht="15.6" customHeight="1">
+    <row r="485" ht="15.6" customHeight="1" spans="1:20">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -12017,7 +12657,7 @@
       <c r="S485" s="3"/>
       <c r="T485" s="3"/>
     </row>
-    <row r="486" spans="1:20" ht="15.6" customHeight="1">
+    <row r="486" ht="15.6" customHeight="1" spans="1:20">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -12039,7 +12679,7 @@
       <c r="S486" s="3"/>
       <c r="T486" s="3"/>
     </row>
-    <row r="487" spans="1:20" ht="15.6" customHeight="1">
+    <row r="487" ht="15.6" customHeight="1" spans="1:20">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -12061,7 +12701,7 @@
       <c r="S487" s="3"/>
       <c r="T487" s="3"/>
     </row>
-    <row r="488" spans="1:20" ht="15.6" customHeight="1">
+    <row r="488" ht="15.6" customHeight="1" spans="1:20">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -12083,7 +12723,7 @@
       <c r="S488" s="3"/>
       <c r="T488" s="3"/>
     </row>
-    <row r="489" spans="1:20" ht="15.6" customHeight="1">
+    <row r="489" ht="15.6" customHeight="1" spans="1:20">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -12105,7 +12745,7 @@
       <c r="S489" s="3"/>
       <c r="T489" s="3"/>
     </row>
-    <row r="490" spans="1:20" ht="15.6" customHeight="1">
+    <row r="490" ht="15.6" customHeight="1" spans="1:20">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -12127,7 +12767,7 @@
       <c r="S490" s="3"/>
       <c r="T490" s="3"/>
     </row>
-    <row r="491" spans="1:20" ht="15.6" customHeight="1">
+    <row r="491" ht="15.6" customHeight="1" spans="1:20">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -12149,7 +12789,7 @@
       <c r="S491" s="3"/>
       <c r="T491" s="3"/>
     </row>
-    <row r="492" spans="1:20" ht="15.6" customHeight="1">
+    <row r="492" ht="15.6" customHeight="1" spans="1:20">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -12171,7 +12811,7 @@
       <c r="S492" s="3"/>
       <c r="T492" s="3"/>
     </row>
-    <row r="493" spans="1:20" ht="15.6" customHeight="1">
+    <row r="493" ht="15.6" customHeight="1" spans="1:20">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -12193,7 +12833,7 @@
       <c r="S493" s="3"/>
       <c r="T493" s="3"/>
     </row>
-    <row r="494" spans="1:20" ht="15.6" customHeight="1">
+    <row r="494" ht="15.6" customHeight="1" spans="1:20">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -12215,7 +12855,7 @@
       <c r="S494" s="3"/>
       <c r="T494" s="3"/>
     </row>
-    <row r="495" spans="1:20" ht="15.6" customHeight="1">
+    <row r="495" ht="15.6" customHeight="1" spans="1:20">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -12237,7 +12877,7 @@
       <c r="S495" s="3"/>
       <c r="T495" s="3"/>
     </row>
-    <row r="496" spans="1:20" ht="15.6" customHeight="1">
+    <row r="496" ht="15.6" customHeight="1" spans="1:20">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -12259,7 +12899,7 @@
       <c r="S496" s="3"/>
       <c r="T496" s="3"/>
     </row>
-    <row r="497" spans="1:20" ht="15.6" customHeight="1">
+    <row r="497" ht="15.6" customHeight="1" spans="1:20">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -12281,7 +12921,7 @@
       <c r="S497" s="3"/>
       <c r="T497" s="3"/>
     </row>
-    <row r="498" spans="1:20" ht="15.6" customHeight="1">
+    <row r="498" ht="15.6" customHeight="1" spans="1:20">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -12303,7 +12943,7 @@
       <c r="S498" s="3"/>
       <c r="T498" s="3"/>
     </row>
-    <row r="499" spans="1:20" ht="15.6" customHeight="1">
+    <row r="499" ht="15.6" customHeight="1" spans="1:20">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -12325,7 +12965,7 @@
       <c r="S499" s="3"/>
       <c r="T499" s="3"/>
     </row>
-    <row r="500" spans="1:20" ht="15.6" customHeight="1">
+    <row r="500" ht="15.6" customHeight="1" spans="1:20">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -12347,7 +12987,7 @@
       <c r="S500" s="3"/>
       <c r="T500" s="3"/>
     </row>
-    <row r="501" spans="1:20" ht="15.6" customHeight="1">
+    <row r="501" ht="15.6" customHeight="1" spans="1:20">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -12369,7 +13009,7 @@
       <c r="S501" s="3"/>
       <c r="T501" s="3"/>
     </row>
-    <row r="502" spans="1:20" ht="15.6" customHeight="1">
+    <row r="502" ht="15.6" customHeight="1" spans="1:20">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -12391,7 +13031,7 @@
       <c r="S502" s="3"/>
       <c r="T502" s="3"/>
     </row>
-    <row r="503" spans="1:20" ht="15.6" customHeight="1">
+    <row r="503" ht="15.6" customHeight="1" spans="1:20">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -12413,7 +13053,7 @@
       <c r="S503" s="3"/>
       <c r="T503" s="3"/>
     </row>
-    <row r="504" spans="1:20" ht="15.6" customHeight="1">
+    <row r="504" ht="15.6" customHeight="1" spans="1:20">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -12435,7 +13075,7 @@
       <c r="S504" s="3"/>
       <c r="T504" s="3"/>
     </row>
-    <row r="505" spans="1:20" ht="15.6" customHeight="1">
+    <row r="505" ht="15.6" customHeight="1" spans="1:20">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -12457,7 +13097,7 @@
       <c r="S505" s="3"/>
       <c r="T505" s="3"/>
     </row>
-    <row r="506" spans="1:20" ht="15.6" customHeight="1">
+    <row r="506" ht="15.6" customHeight="1" spans="1:20">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -12479,7 +13119,7 @@
       <c r="S506" s="3"/>
       <c r="T506" s="3"/>
     </row>
-    <row r="507" spans="1:20" ht="15.6" customHeight="1">
+    <row r="507" ht="15.6" customHeight="1" spans="1:20">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -12501,7 +13141,7 @@
       <c r="S507" s="3"/>
       <c r="T507" s="3"/>
     </row>
-    <row r="508" spans="1:20" ht="15.6" customHeight="1">
+    <row r="508" ht="15.6" customHeight="1" spans="1:20">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -12523,7 +13163,7 @@
       <c r="S508" s="3"/>
       <c r="T508" s="3"/>
     </row>
-    <row r="509" spans="1:20" ht="15.6" customHeight="1">
+    <row r="509" ht="15.6" customHeight="1" spans="1:20">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -12545,7 +13185,7 @@
       <c r="S509" s="3"/>
       <c r="T509" s="3"/>
     </row>
-    <row r="510" spans="1:20" ht="15.6" customHeight="1">
+    <row r="510" ht="15.6" customHeight="1" spans="1:20">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -12567,7 +13207,7 @@
       <c r="S510" s="3"/>
       <c r="T510" s="3"/>
     </row>
-    <row r="511" spans="1:20" ht="15.6" customHeight="1">
+    <row r="511" ht="15.6" customHeight="1" spans="1:20">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -12589,7 +13229,7 @@
       <c r="S511" s="3"/>
       <c r="T511" s="3"/>
     </row>
-    <row r="512" spans="1:20" ht="15.6" customHeight="1">
+    <row r="512" ht="15.6" customHeight="1" spans="1:20">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -12611,7 +13251,7 @@
       <c r="S512" s="3"/>
       <c r="T512" s="3"/>
     </row>
-    <row r="513" spans="1:20" ht="15.6" customHeight="1">
+    <row r="513" ht="15.6" customHeight="1" spans="1:20">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -12633,7 +13273,7 @@
       <c r="S513" s="3"/>
       <c r="T513" s="3"/>
     </row>
-    <row r="514" spans="1:20" ht="15.6" customHeight="1">
+    <row r="514" ht="15.6" customHeight="1" spans="1:20">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -12655,7 +13295,7 @@
       <c r="S514" s="3"/>
       <c r="T514" s="3"/>
     </row>
-    <row r="515" spans="1:20" ht="15.6" customHeight="1">
+    <row r="515" ht="15.6" customHeight="1" spans="1:20">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -12677,7 +13317,7 @@
       <c r="S515" s="3"/>
       <c r="T515" s="3"/>
     </row>
-    <row r="516" spans="1:20" ht="15.6" customHeight="1">
+    <row r="516" ht="15.6" customHeight="1" spans="1:20">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -12699,7 +13339,7 @@
       <c r="S516" s="3"/>
       <c r="T516" s="3"/>
     </row>
-    <row r="517" spans="1:20" ht="15.6" customHeight="1">
+    <row r="517" ht="15.6" customHeight="1" spans="1:20">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -12721,7 +13361,7 @@
       <c r="S517" s="3"/>
       <c r="T517" s="3"/>
     </row>
-    <row r="518" spans="1:20" ht="15.6" customHeight="1">
+    <row r="518" ht="15.6" customHeight="1" spans="1:20">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -12743,7 +13383,7 @@
       <c r="S518" s="3"/>
       <c r="T518" s="3"/>
     </row>
-    <row r="519" spans="1:20" ht="15.6" customHeight="1">
+    <row r="519" ht="15.6" customHeight="1" spans="1:20">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -12765,7 +13405,7 @@
       <c r="S519" s="3"/>
       <c r="T519" s="3"/>
     </row>
-    <row r="520" spans="1:20" ht="15.6" customHeight="1">
+    <row r="520" ht="15.6" customHeight="1" spans="1:20">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -12787,7 +13427,7 @@
       <c r="S520" s="3"/>
       <c r="T520" s="3"/>
     </row>
-    <row r="521" spans="1:20" ht="15.6" customHeight="1">
+    <row r="521" ht="15.6" customHeight="1" spans="1:20">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -12809,7 +13449,7 @@
       <c r="S521" s="3"/>
       <c r="T521" s="3"/>
     </row>
-    <row r="522" spans="1:20" ht="15.6" customHeight="1">
+    <row r="522" ht="15.6" customHeight="1" spans="1:20">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -12831,7 +13471,7 @@
       <c r="S522" s="3"/>
       <c r="T522" s="3"/>
     </row>
-    <row r="523" spans="1:20" ht="15.6" customHeight="1">
+    <row r="523" ht="15.6" customHeight="1" spans="1:20">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -12853,7 +13493,7 @@
       <c r="S523" s="3"/>
       <c r="T523" s="3"/>
     </row>
-    <row r="524" spans="1:20" ht="15.6" customHeight="1">
+    <row r="524" ht="15.6" customHeight="1" spans="1:20">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -12875,7 +13515,7 @@
       <c r="S524" s="3"/>
       <c r="T524" s="3"/>
     </row>
-    <row r="525" spans="1:20" ht="15.6" customHeight="1">
+    <row r="525" ht="15.6" customHeight="1" spans="1:20">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -12897,7 +13537,7 @@
       <c r="S525" s="3"/>
       <c r="T525" s="3"/>
     </row>
-    <row r="526" spans="1:20" ht="15.6" customHeight="1">
+    <row r="526" ht="15.6" customHeight="1" spans="1:20">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -12919,7 +13559,7 @@
       <c r="S526" s="3"/>
       <c r="T526" s="3"/>
     </row>
-    <row r="527" spans="1:20" ht="15.6" customHeight="1">
+    <row r="527" ht="15.6" customHeight="1" spans="1:20">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -12941,7 +13581,7 @@
       <c r="S527" s="3"/>
       <c r="T527" s="3"/>
     </row>
-    <row r="528" spans="1:20" ht="15.6" customHeight="1">
+    <row r="528" ht="15.6" customHeight="1" spans="1:20">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -12963,7 +13603,7 @@
       <c r="S528" s="3"/>
       <c r="T528" s="3"/>
     </row>
-    <row r="529" spans="1:20" ht="15.6" customHeight="1">
+    <row r="529" ht="15.6" customHeight="1" spans="1:20">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -12985,7 +13625,7 @@
       <c r="S529" s="3"/>
       <c r="T529" s="3"/>
     </row>
-    <row r="530" spans="1:20" ht="15.6" customHeight="1">
+    <row r="530" ht="15.6" customHeight="1" spans="1:20">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -13007,7 +13647,7 @@
       <c r="S530" s="3"/>
       <c r="T530" s="3"/>
     </row>
-    <row r="531" spans="1:20" ht="15.6" customHeight="1">
+    <row r="531" ht="15.6" customHeight="1" spans="1:20">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -13029,7 +13669,7 @@
       <c r="S531" s="3"/>
       <c r="T531" s="3"/>
     </row>
-    <row r="532" spans="1:20" ht="15.6" customHeight="1">
+    <row r="532" ht="15.6" customHeight="1" spans="1:20">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -13051,7 +13691,7 @@
       <c r="S532" s="3"/>
       <c r="T532" s="3"/>
     </row>
-    <row r="533" spans="1:20" ht="15.6" customHeight="1">
+    <row r="533" ht="15.6" customHeight="1" spans="1:20">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -13073,7 +13713,7 @@
       <c r="S533" s="3"/>
       <c r="T533" s="3"/>
     </row>
-    <row r="534" spans="1:20" ht="15.6" customHeight="1">
+    <row r="534" ht="15.6" customHeight="1" spans="1:20">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -13095,7 +13735,7 @@
       <c r="S534" s="3"/>
       <c r="T534" s="3"/>
     </row>
-    <row r="535" spans="1:20" ht="15.6" customHeight="1">
+    <row r="535" ht="15.6" customHeight="1" spans="1:20">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -13117,7 +13757,7 @@
       <c r="S535" s="3"/>
       <c r="T535" s="3"/>
     </row>
-    <row r="536" spans="1:20" ht="15.6" customHeight="1">
+    <row r="536" ht="15.6" customHeight="1" spans="1:20">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -13139,7 +13779,7 @@
       <c r="S536" s="3"/>
       <c r="T536" s="3"/>
     </row>
-    <row r="537" spans="1:20" ht="15.6" customHeight="1">
+    <row r="537" ht="15.6" customHeight="1" spans="1:20">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -13161,7 +13801,7 @@
       <c r="S537" s="3"/>
       <c r="T537" s="3"/>
     </row>
-    <row r="538" spans="1:20" ht="15.6" customHeight="1">
+    <row r="538" ht="15.6" customHeight="1" spans="1:20">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -13183,7 +13823,7 @@
       <c r="S538" s="3"/>
       <c r="T538" s="3"/>
     </row>
-    <row r="539" spans="1:20" ht="15.6" customHeight="1">
+    <row r="539" ht="15.6" customHeight="1" spans="1:20">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -13205,7 +13845,7 @@
       <c r="S539" s="3"/>
       <c r="T539" s="3"/>
     </row>
-    <row r="540" spans="1:20" ht="15.6" customHeight="1">
+    <row r="540" ht="15.6" customHeight="1" spans="1:20">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -13227,7 +13867,7 @@
       <c r="S540" s="3"/>
       <c r="T540" s="3"/>
     </row>
-    <row r="541" spans="1:20" ht="15.6" customHeight="1">
+    <row r="541" ht="15.6" customHeight="1" spans="1:20">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -13249,7 +13889,7 @@
       <c r="S541" s="3"/>
       <c r="T541" s="3"/>
     </row>
-    <row r="542" spans="1:20" ht="15.6" customHeight="1">
+    <row r="542" ht="15.6" customHeight="1" spans="1:20">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -13271,7 +13911,7 @@
       <c r="S542" s="3"/>
       <c r="T542" s="3"/>
     </row>
-    <row r="543" spans="1:20" ht="15.6" customHeight="1">
+    <row r="543" ht="15.6" customHeight="1" spans="1:20">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -13293,7 +13933,7 @@
       <c r="S543" s="3"/>
       <c r="T543" s="3"/>
     </row>
-    <row r="544" spans="1:20" ht="15.6" customHeight="1">
+    <row r="544" ht="15.6" customHeight="1" spans="1:20">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -13315,7 +13955,7 @@
       <c r="S544" s="3"/>
       <c r="T544" s="3"/>
     </row>
-    <row r="545" spans="1:20" ht="15.6" customHeight="1">
+    <row r="545" ht="15.6" customHeight="1" spans="1:20">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -13337,7 +13977,7 @@
       <c r="S545" s="3"/>
       <c r="T545" s="3"/>
     </row>
-    <row r="546" spans="1:20" ht="15.6" customHeight="1">
+    <row r="546" ht="15.6" customHeight="1" spans="1:20">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -13359,7 +13999,7 @@
       <c r="S546" s="3"/>
       <c r="T546" s="3"/>
     </row>
-    <row r="547" spans="1:20" ht="15.6" customHeight="1">
+    <row r="547" ht="15.6" customHeight="1" spans="1:20">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -13381,7 +14021,7 @@
       <c r="S547" s="3"/>
       <c r="T547" s="3"/>
     </row>
-    <row r="548" spans="1:20" ht="15.6" customHeight="1">
+    <row r="548" ht="15.6" customHeight="1" spans="1:20">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -13403,7 +14043,7 @@
       <c r="S548" s="3"/>
       <c r="T548" s="3"/>
     </row>
-    <row r="549" spans="1:20" ht="15.6" customHeight="1">
+    <row r="549" ht="15.6" customHeight="1" spans="1:20">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -13425,7 +14065,7 @@
       <c r="S549" s="3"/>
       <c r="T549" s="3"/>
     </row>
-    <row r="550" spans="1:20" ht="15.6" customHeight="1">
+    <row r="550" ht="15.6" customHeight="1" spans="1:20">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -13447,7 +14087,7 @@
       <c r="S550" s="3"/>
       <c r="T550" s="3"/>
     </row>
-    <row r="551" spans="1:20" ht="15.6" customHeight="1">
+    <row r="551" ht="15.6" customHeight="1" spans="1:20">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -13469,7 +14109,7 @@
       <c r="S551" s="3"/>
       <c r="T551" s="3"/>
     </row>
-    <row r="552" spans="1:20" ht="15.6" customHeight="1">
+    <row r="552" ht="15.6" customHeight="1" spans="1:20">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -13491,7 +14131,7 @@
       <c r="S552" s="3"/>
       <c r="T552" s="3"/>
     </row>
-    <row r="553" spans="1:20" ht="15.6" customHeight="1">
+    <row r="553" ht="15.6" customHeight="1" spans="1:20">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -13513,7 +14153,7 @@
       <c r="S553" s="3"/>
       <c r="T553" s="3"/>
     </row>
-    <row r="554" spans="1:20" ht="15.6" customHeight="1">
+    <row r="554" ht="15.6" customHeight="1" spans="1:20">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -13535,7 +14175,7 @@
       <c r="S554" s="3"/>
       <c r="T554" s="3"/>
     </row>
-    <row r="555" spans="1:20" ht="15.6" customHeight="1">
+    <row r="555" ht="15.6" customHeight="1" spans="1:20">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -13557,7 +14197,7 @@
       <c r="S555" s="3"/>
       <c r="T555" s="3"/>
     </row>
-    <row r="556" spans="1:20" ht="15.6" customHeight="1">
+    <row r="556" ht="15.6" customHeight="1" spans="1:20">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -13579,7 +14219,7 @@
       <c r="S556" s="3"/>
       <c r="T556" s="3"/>
     </row>
-    <row r="557" spans="1:20" ht="15.6" customHeight="1">
+    <row r="557" ht="15.6" customHeight="1" spans="1:20">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -13601,7 +14241,7 @@
       <c r="S557" s="3"/>
       <c r="T557" s="3"/>
     </row>
-    <row r="558" spans="1:20" ht="15.6" customHeight="1">
+    <row r="558" ht="15.6" customHeight="1" spans="1:20">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -13623,7 +14263,7 @@
       <c r="S558" s="3"/>
       <c r="T558" s="3"/>
     </row>
-    <row r="559" spans="1:20" ht="15.6" customHeight="1">
+    <row r="559" ht="15.6" customHeight="1" spans="1:20">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -13645,7 +14285,7 @@
       <c r="S559" s="3"/>
       <c r="T559" s="3"/>
     </row>
-    <row r="560" spans="1:20" ht="15.6" customHeight="1">
+    <row r="560" ht="15.6" customHeight="1" spans="1:20">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -13667,7 +14307,7 @@
       <c r="S560" s="3"/>
       <c r="T560" s="3"/>
     </row>
-    <row r="561" spans="1:20" ht="15.6" customHeight="1">
+    <row r="561" ht="15.6" customHeight="1" spans="1:20">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -13689,7 +14329,7 @@
       <c r="S561" s="3"/>
       <c r="T561" s="3"/>
     </row>
-    <row r="562" spans="1:20" ht="15.6" customHeight="1">
+    <row r="562" ht="15.6" customHeight="1" spans="1:20">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -13711,7 +14351,7 @@
       <c r="S562" s="3"/>
       <c r="T562" s="3"/>
     </row>
-    <row r="563" spans="1:20" ht="15.6" customHeight="1">
+    <row r="563" ht="15.6" customHeight="1" spans="1:20">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -13733,7 +14373,7 @@
       <c r="S563" s="3"/>
       <c r="T563" s="3"/>
     </row>
-    <row r="564" spans="1:20" ht="15.6" customHeight="1">
+    <row r="564" ht="15.6" customHeight="1" spans="1:20">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -13755,7 +14395,7 @@
       <c r="S564" s="3"/>
       <c r="T564" s="3"/>
     </row>
-    <row r="565" spans="1:20" ht="15.6" customHeight="1">
+    <row r="565" ht="15.6" customHeight="1" spans="1:20">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -13777,7 +14417,7 @@
       <c r="S565" s="3"/>
       <c r="T565" s="3"/>
     </row>
-    <row r="566" spans="1:20" ht="15.6" customHeight="1">
+    <row r="566" ht="15.6" customHeight="1" spans="1:20">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -13799,7 +14439,7 @@
       <c r="S566" s="3"/>
       <c r="T566" s="3"/>
     </row>
-    <row r="567" spans="1:20" ht="15.6" customHeight="1">
+    <row r="567" ht="15.6" customHeight="1" spans="1:20">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -13821,7 +14461,7 @@
       <c r="S567" s="3"/>
       <c r="T567" s="3"/>
     </row>
-    <row r="568" spans="1:20" ht="15.6" customHeight="1">
+    <row r="568" ht="15.6" customHeight="1" spans="1:20">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -13843,7 +14483,7 @@
       <c r="S568" s="3"/>
       <c r="T568" s="3"/>
     </row>
-    <row r="569" spans="1:20" ht="15.6" customHeight="1">
+    <row r="569" ht="15.6" customHeight="1" spans="1:20">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -13865,7 +14505,7 @@
       <c r="S569" s="3"/>
       <c r="T569" s="3"/>
     </row>
-    <row r="570" spans="1:20" ht="15.6" customHeight="1">
+    <row r="570" ht="15.6" customHeight="1" spans="1:20">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -13887,7 +14527,7 @@
       <c r="S570" s="3"/>
       <c r="T570" s="3"/>
     </row>
-    <row r="571" spans="1:20" ht="15.6" customHeight="1">
+    <row r="571" ht="15.6" customHeight="1" spans="1:20">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -13909,7 +14549,7 @@
       <c r="S571" s="3"/>
       <c r="T571" s="3"/>
     </row>
-    <row r="572" spans="1:20" ht="15.6" customHeight="1">
+    <row r="572" ht="15.6" customHeight="1" spans="1:20">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -13931,7 +14571,7 @@
       <c r="S572" s="3"/>
       <c r="T572" s="3"/>
     </row>
-    <row r="573" spans="1:20" ht="15.6" customHeight="1">
+    <row r="573" ht="15.6" customHeight="1" spans="1:20">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -13953,7 +14593,7 @@
       <c r="S573" s="3"/>
       <c r="T573" s="3"/>
     </row>
-    <row r="574" spans="1:20" ht="15.6" customHeight="1">
+    <row r="574" ht="15.6" customHeight="1" spans="1:20">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -13975,7 +14615,7 @@
       <c r="S574" s="3"/>
       <c r="T574" s="3"/>
     </row>
-    <row r="575" spans="1:20" ht="15.6" customHeight="1">
+    <row r="575" ht="15.6" customHeight="1" spans="1:20">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -13997,7 +14637,7 @@
       <c r="S575" s="3"/>
       <c r="T575" s="3"/>
     </row>
-    <row r="576" spans="1:20" ht="15.6" customHeight="1">
+    <row r="576" ht="15.6" customHeight="1" spans="1:20">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -14019,7 +14659,7 @@
       <c r="S576" s="3"/>
       <c r="T576" s="3"/>
     </row>
-    <row r="577" spans="1:20" ht="15.6" customHeight="1">
+    <row r="577" ht="15.6" customHeight="1" spans="1:20">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -14041,7 +14681,7 @@
       <c r="S577" s="3"/>
       <c r="T577" s="3"/>
     </row>
-    <row r="578" spans="1:20" ht="15.6" customHeight="1">
+    <row r="578" ht="15.6" customHeight="1" spans="1:20">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -14063,7 +14703,7 @@
       <c r="S578" s="3"/>
       <c r="T578" s="3"/>
     </row>
-    <row r="579" spans="1:20" ht="15.6" customHeight="1">
+    <row r="579" ht="15.6" customHeight="1" spans="1:20">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -14085,7 +14725,7 @@
       <c r="S579" s="3"/>
       <c r="T579" s="3"/>
     </row>
-    <row r="580" spans="1:20" ht="15.6" customHeight="1">
+    <row r="580" ht="15.6" customHeight="1" spans="1:20">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -14107,7 +14747,7 @@
       <c r="S580" s="3"/>
       <c r="T580" s="3"/>
     </row>
-    <row r="581" spans="1:20" ht="15.6" customHeight="1">
+    <row r="581" ht="15.6" customHeight="1" spans="1:20">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -14129,7 +14769,7 @@
       <c r="S581" s="3"/>
       <c r="T581" s="3"/>
     </row>
-    <row r="582" spans="1:20" ht="15.6" customHeight="1">
+    <row r="582" ht="15.6" customHeight="1" spans="1:20">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -14151,7 +14791,7 @@
       <c r="S582" s="3"/>
       <c r="T582" s="3"/>
     </row>
-    <row r="583" spans="1:20" ht="15.6" customHeight="1">
+    <row r="583" ht="15.6" customHeight="1" spans="1:20">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -14173,7 +14813,7 @@
       <c r="S583" s="3"/>
       <c r="T583" s="3"/>
     </row>
-    <row r="584" spans="1:20" ht="15.6" customHeight="1">
+    <row r="584" ht="15.6" customHeight="1" spans="1:20">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -14195,7 +14835,7 @@
       <c r="S584" s="3"/>
       <c r="T584" s="3"/>
     </row>
-    <row r="585" spans="1:20" ht="15.6" customHeight="1">
+    <row r="585" ht="15.6" customHeight="1" spans="1:20">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -14217,7 +14857,7 @@
       <c r="S585" s="3"/>
       <c r="T585" s="3"/>
     </row>
-    <row r="586" spans="1:20" ht="15.6" customHeight="1">
+    <row r="586" ht="15.6" customHeight="1" spans="1:20">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -14239,7 +14879,7 @@
       <c r="S586" s="3"/>
       <c r="T586" s="3"/>
     </row>
-    <row r="587" spans="1:20" ht="15.6" customHeight="1">
+    <row r="587" ht="15.6" customHeight="1" spans="1:20">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -14261,7 +14901,7 @@
       <c r="S587" s="3"/>
       <c r="T587" s="3"/>
     </row>
-    <row r="588" spans="1:20" ht="15.6" customHeight="1">
+    <row r="588" ht="15.6" customHeight="1" spans="1:20">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -14283,7 +14923,7 @@
       <c r="S588" s="3"/>
       <c r="T588" s="3"/>
     </row>
-    <row r="589" spans="1:20" ht="15.6" customHeight="1">
+    <row r="589" ht="15.6" customHeight="1" spans="1:20">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -14305,7 +14945,7 @@
       <c r="S589" s="3"/>
       <c r="T589" s="3"/>
     </row>
-    <row r="590" spans="1:20" ht="15.6" customHeight="1">
+    <row r="590" ht="15.6" customHeight="1" spans="1:20">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -14327,7 +14967,7 @@
       <c r="S590" s="3"/>
       <c r="T590" s="3"/>
     </row>
-    <row r="591" spans="1:20" ht="15.6" customHeight="1">
+    <row r="591" ht="15.6" customHeight="1" spans="1:20">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -14349,7 +14989,7 @@
       <c r="S591" s="3"/>
       <c r="T591" s="3"/>
     </row>
-    <row r="592" spans="1:20" ht="15.6" customHeight="1">
+    <row r="592" ht="15.6" customHeight="1" spans="1:20">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -14371,7 +15011,7 @@
       <c r="S592" s="3"/>
       <c r="T592" s="3"/>
     </row>
-    <row r="593" spans="1:20" ht="15.6" customHeight="1">
+    <row r="593" ht="15.6" customHeight="1" spans="1:20">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -14393,7 +15033,7 @@
       <c r="S593" s="3"/>
       <c r="T593" s="3"/>
     </row>
-    <row r="594" spans="1:20" ht="15.6" customHeight="1">
+    <row r="594" ht="15.6" customHeight="1" spans="1:20">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -14415,7 +15055,7 @@
       <c r="S594" s="3"/>
       <c r="T594" s="3"/>
     </row>
-    <row r="595" spans="1:20" ht="15.6" customHeight="1">
+    <row r="595" ht="15.6" customHeight="1" spans="1:20">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -14437,7 +15077,7 @@
       <c r="S595" s="3"/>
       <c r="T595" s="3"/>
     </row>
-    <row r="596" spans="1:20" ht="15.6" customHeight="1">
+    <row r="596" ht="15.6" customHeight="1" spans="1:20">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -14459,7 +15099,7 @@
       <c r="S596" s="3"/>
       <c r="T596" s="3"/>
     </row>
-    <row r="597" spans="1:20" ht="15.6" customHeight="1">
+    <row r="597" ht="15.6" customHeight="1" spans="1:20">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -14481,7 +15121,7 @@
       <c r="S597" s="3"/>
       <c r="T597" s="3"/>
     </row>
-    <row r="598" spans="1:20" ht="15.6" customHeight="1">
+    <row r="598" ht="15.6" customHeight="1" spans="1:20">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -14503,7 +15143,7 @@
       <c r="S598" s="3"/>
       <c r="T598" s="3"/>
     </row>
-    <row r="599" spans="1:20" ht="15.6" customHeight="1">
+    <row r="599" ht="15.6" customHeight="1" spans="1:20">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -14525,7 +15165,7 @@
       <c r="S599" s="3"/>
       <c r="T599" s="3"/>
     </row>
-    <row r="600" spans="1:20" ht="15.6" customHeight="1">
+    <row r="600" ht="15.6" customHeight="1" spans="1:20">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -14547,7 +15187,7 @@
       <c r="S600" s="3"/>
       <c r="T600" s="3"/>
     </row>
-    <row r="601" spans="1:20" ht="15.6" customHeight="1">
+    <row r="601" ht="15.6" customHeight="1" spans="1:20">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -14569,7 +15209,7 @@
       <c r="S601" s="3"/>
       <c r="T601" s="3"/>
     </row>
-    <row r="602" spans="1:20" ht="15.6" customHeight="1">
+    <row r="602" ht="15.6" customHeight="1" spans="1:20">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -14591,7 +15231,7 @@
       <c r="S602" s="3"/>
       <c r="T602" s="3"/>
     </row>
-    <row r="603" spans="1:20" ht="15.6" customHeight="1">
+    <row r="603" ht="15.6" customHeight="1" spans="1:20">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -14613,7 +15253,7 @@
       <c r="S603" s="3"/>
       <c r="T603" s="3"/>
     </row>
-    <row r="604" spans="1:20" ht="15.6" customHeight="1">
+    <row r="604" ht="15.6" customHeight="1" spans="1:20">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -14635,7 +15275,7 @@
       <c r="S604" s="3"/>
       <c r="T604" s="3"/>
     </row>
-    <row r="605" spans="1:20" ht="15.6" customHeight="1">
+    <row r="605" ht="15.6" customHeight="1" spans="1:20">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -14657,7 +15297,7 @@
       <c r="S605" s="3"/>
       <c r="T605" s="3"/>
     </row>
-    <row r="606" spans="1:20" ht="15.6" customHeight="1">
+    <row r="606" ht="15.6" customHeight="1" spans="1:20">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -14679,7 +15319,7 @@
       <c r="S606" s="3"/>
       <c r="T606" s="3"/>
     </row>
-    <row r="607" spans="1:20" ht="15.6" customHeight="1">
+    <row r="607" ht="15.6" customHeight="1" spans="1:20">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -14701,7 +15341,7 @@
       <c r="S607" s="3"/>
       <c r="T607" s="3"/>
     </row>
-    <row r="608" spans="1:20" ht="15.6" customHeight="1">
+    <row r="608" ht="15.6" customHeight="1" spans="1:20">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -14723,7 +15363,7 @@
       <c r="S608" s="3"/>
       <c r="T608" s="3"/>
     </row>
-    <row r="609" spans="1:20" ht="15.6" customHeight="1">
+    <row r="609" ht="15.6" customHeight="1" spans="1:20">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -14745,7 +15385,7 @@
       <c r="S609" s="3"/>
       <c r="T609" s="3"/>
     </row>
-    <row r="610" spans="1:20" ht="15.6" customHeight="1">
+    <row r="610" ht="15.6" customHeight="1" spans="1:20">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -14767,7 +15407,7 @@
       <c r="S610" s="3"/>
       <c r="T610" s="3"/>
     </row>
-    <row r="611" spans="1:20" ht="15.6" customHeight="1">
+    <row r="611" ht="15.6" customHeight="1" spans="1:20">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -14789,7 +15429,7 @@
       <c r="S611" s="3"/>
       <c r="T611" s="3"/>
     </row>
-    <row r="612" spans="1:20" ht="15.6" customHeight="1">
+    <row r="612" ht="15.6" customHeight="1" spans="1:20">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -14811,7 +15451,7 @@
       <c r="S612" s="3"/>
       <c r="T612" s="3"/>
     </row>
-    <row r="613" spans="1:20" ht="15.6" customHeight="1">
+    <row r="613" ht="15.6" customHeight="1" spans="1:20">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -14833,7 +15473,7 @@
       <c r="S613" s="3"/>
       <c r="T613" s="3"/>
     </row>
-    <row r="614" spans="1:20" ht="15.6" customHeight="1">
+    <row r="614" ht="15.6" customHeight="1" spans="1:20">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -14855,7 +15495,7 @@
       <c r="S614" s="3"/>
       <c r="T614" s="3"/>
     </row>
-    <row r="615" spans="1:20" ht="15.6" customHeight="1">
+    <row r="615" ht="15.6" customHeight="1" spans="1:20">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -14877,7 +15517,7 @@
       <c r="S615" s="3"/>
       <c r="T615" s="3"/>
     </row>
-    <row r="616" spans="1:20" ht="15.6" customHeight="1">
+    <row r="616" ht="15.6" customHeight="1" spans="1:20">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -14899,7 +15539,7 @@
       <c r="S616" s="3"/>
       <c r="T616" s="3"/>
     </row>
-    <row r="617" spans="1:20" ht="15.6" customHeight="1">
+    <row r="617" ht="15.6" customHeight="1" spans="1:20">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -14921,7 +15561,7 @@
       <c r="S617" s="3"/>
       <c r="T617" s="3"/>
     </row>
-    <row r="618" spans="1:20" ht="15.6" customHeight="1">
+    <row r="618" ht="15.6" customHeight="1" spans="1:20">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -14943,7 +15583,7 @@
       <c r="S618" s="3"/>
       <c r="T618" s="3"/>
     </row>
-    <row r="619" spans="1:20" ht="15.6" customHeight="1">
+    <row r="619" ht="15.6" customHeight="1" spans="1:20">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -14965,7 +15605,7 @@
       <c r="S619" s="3"/>
       <c r="T619" s="3"/>
     </row>
-    <row r="620" spans="1:20" ht="15.6" customHeight="1">
+    <row r="620" ht="15.6" customHeight="1" spans="1:20">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -14987,7 +15627,7 @@
       <c r="S620" s="3"/>
       <c r="T620" s="3"/>
     </row>
-    <row r="621" spans="1:20" ht="15.6" customHeight="1">
+    <row r="621" ht="15.6" customHeight="1" spans="1:20">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -15009,7 +15649,7 @@
       <c r="S621" s="3"/>
       <c r="T621" s="3"/>
     </row>
-    <row r="622" spans="1:20" ht="15.6" customHeight="1">
+    <row r="622" ht="15.6" customHeight="1" spans="1:20">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -15031,7 +15671,7 @@
       <c r="S622" s="3"/>
       <c r="T622" s="3"/>
     </row>
-    <row r="623" spans="1:20" ht="15.6" customHeight="1">
+    <row r="623" ht="15.6" customHeight="1" spans="1:20">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -15053,7 +15693,7 @@
       <c r="S623" s="3"/>
       <c r="T623" s="3"/>
     </row>
-    <row r="624" spans="1:20" ht="15.6" customHeight="1">
+    <row r="624" ht="15.6" customHeight="1" spans="1:20">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -15075,7 +15715,7 @@
       <c r="S624" s="3"/>
       <c r="T624" s="3"/>
     </row>
-    <row r="625" spans="1:20" ht="15.6" customHeight="1">
+    <row r="625" ht="15.6" customHeight="1" spans="1:20">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -15097,7 +15737,7 @@
       <c r="S625" s="3"/>
       <c r="T625" s="3"/>
     </row>
-    <row r="626" spans="1:20" ht="15.6" customHeight="1">
+    <row r="626" ht="15.6" customHeight="1" spans="1:20">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -15119,7 +15759,7 @@
       <c r="S626" s="3"/>
       <c r="T626" s="3"/>
     </row>
-    <row r="627" spans="1:20" ht="15.6" customHeight="1">
+    <row r="627" ht="15.6" customHeight="1" spans="1:20">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -15141,7 +15781,7 @@
       <c r="S627" s="3"/>
       <c r="T627" s="3"/>
     </row>
-    <row r="628" spans="1:20" ht="15.6" customHeight="1">
+    <row r="628" ht="15.6" customHeight="1" spans="1:20">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -15163,7 +15803,7 @@
       <c r="S628" s="3"/>
       <c r="T628" s="3"/>
     </row>
-    <row r="629" spans="1:20" ht="15.6" customHeight="1">
+    <row r="629" ht="15.6" customHeight="1" spans="1:20">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -15185,7 +15825,7 @@
       <c r="S629" s="3"/>
       <c r="T629" s="3"/>
     </row>
-    <row r="630" spans="1:20" ht="15.6" customHeight="1">
+    <row r="630" ht="15.6" customHeight="1" spans="1:20">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -15207,7 +15847,7 @@
       <c r="S630" s="3"/>
       <c r="T630" s="3"/>
     </row>
-    <row r="631" spans="1:20" ht="15.6" customHeight="1">
+    <row r="631" ht="15.6" customHeight="1" spans="1:20">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -15229,7 +15869,7 @@
       <c r="S631" s="3"/>
       <c r="T631" s="3"/>
     </row>
-    <row r="632" spans="1:20" ht="15.6" customHeight="1">
+    <row r="632" ht="15.6" customHeight="1" spans="1:20">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -15251,7 +15891,7 @@
       <c r="S632" s="3"/>
       <c r="T632" s="3"/>
     </row>
-    <row r="633" spans="1:20" ht="15.6" customHeight="1">
+    <row r="633" ht="15.6" customHeight="1" spans="1:20">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -15273,7 +15913,7 @@
       <c r="S633" s="3"/>
       <c r="T633" s="3"/>
     </row>
-    <row r="634" spans="1:20" ht="15.6" customHeight="1">
+    <row r="634" ht="15.6" customHeight="1" spans="1:20">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -15295,7 +15935,7 @@
       <c r="S634" s="3"/>
       <c r="T634" s="3"/>
     </row>
-    <row r="635" spans="1:20" ht="15.6" customHeight="1">
+    <row r="635" ht="15.6" customHeight="1" spans="1:20">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -15317,7 +15957,7 @@
       <c r="S635" s="3"/>
       <c r="T635" s="3"/>
     </row>
-    <row r="636" spans="1:20" ht="15.6" customHeight="1">
+    <row r="636" ht="15.6" customHeight="1" spans="1:20">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -15339,7 +15979,7 @@
       <c r="S636" s="3"/>
       <c r="T636" s="3"/>
     </row>
-    <row r="637" spans="1:20" ht="15.6" customHeight="1">
+    <row r="637" ht="15.6" customHeight="1" spans="1:20">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -15361,7 +16001,7 @@
       <c r="S637" s="3"/>
       <c r="T637" s="3"/>
     </row>
-    <row r="638" spans="1:20" ht="15.6" customHeight="1">
+    <row r="638" ht="15.6" customHeight="1" spans="1:20">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -15383,7 +16023,7 @@
       <c r="S638" s="3"/>
       <c r="T638" s="3"/>
     </row>
-    <row r="639" spans="1:20" ht="15.6" customHeight="1">
+    <row r="639" ht="15.6" customHeight="1" spans="1:20">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -15405,7 +16045,7 @@
       <c r="S639" s="3"/>
       <c r="T639" s="3"/>
     </row>
-    <row r="640" spans="1:20" ht="15.6" customHeight="1">
+    <row r="640" ht="15.6" customHeight="1" spans="1:20">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -15427,7 +16067,7 @@
       <c r="S640" s="3"/>
       <c r="T640" s="3"/>
     </row>
-    <row r="641" spans="1:20" ht="15.6" customHeight="1">
+    <row r="641" ht="15.6" customHeight="1" spans="1:20">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -15449,7 +16089,7 @@
       <c r="S641" s="3"/>
       <c r="T641" s="3"/>
     </row>
-    <row r="642" spans="1:20" ht="15.6" customHeight="1">
+    <row r="642" ht="15.6" customHeight="1" spans="1:20">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -15471,7 +16111,7 @@
       <c r="S642" s="3"/>
       <c r="T642" s="3"/>
     </row>
-    <row r="643" spans="1:20" ht="15.6" customHeight="1">
+    <row r="643" ht="15.6" customHeight="1" spans="1:20">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -15493,7 +16133,7 @@
       <c r="S643" s="3"/>
       <c r="T643" s="3"/>
     </row>
-    <row r="644" spans="1:20" ht="15.6" customHeight="1">
+    <row r="644" ht="15.6" customHeight="1" spans="1:20">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -15515,7 +16155,7 @@
       <c r="S644" s="3"/>
       <c r="T644" s="3"/>
     </row>
-    <row r="645" spans="1:20" ht="15.6" customHeight="1">
+    <row r="645" ht="15.6" customHeight="1" spans="1:20">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -15537,7 +16177,7 @@
       <c r="S645" s="3"/>
       <c r="T645" s="3"/>
     </row>
-    <row r="646" spans="1:20" ht="15.6" customHeight="1">
+    <row r="646" ht="15.6" customHeight="1" spans="1:20">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -15559,7 +16199,7 @@
       <c r="S646" s="3"/>
       <c r="T646" s="3"/>
     </row>
-    <row r="647" spans="1:20" ht="15.6" customHeight="1">
+    <row r="647" ht="15.6" customHeight="1" spans="1:20">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -15581,7 +16221,7 @@
       <c r="S647" s="3"/>
       <c r="T647" s="3"/>
     </row>
-    <row r="648" spans="1:20" ht="15.6" customHeight="1">
+    <row r="648" ht="15.6" customHeight="1" spans="1:20">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -15603,7 +16243,7 @@
       <c r="S648" s="3"/>
       <c r="T648" s="3"/>
     </row>
-    <row r="649" spans="1:20" ht="15.6" customHeight="1">
+    <row r="649" ht="15.6" customHeight="1" spans="1:20">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -15625,7 +16265,7 @@
       <c r="S649" s="3"/>
       <c r="T649" s="3"/>
     </row>
-    <row r="650" spans="1:20" ht="15.6" customHeight="1">
+    <row r="650" ht="15.6" customHeight="1" spans="1:20">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -15647,7 +16287,7 @@
       <c r="S650" s="3"/>
       <c r="T650" s="3"/>
     </row>
-    <row r="651" spans="1:20" ht="15.6" customHeight="1">
+    <row r="651" ht="15.6" customHeight="1" spans="1:20">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -15669,7 +16309,7 @@
       <c r="S651" s="3"/>
       <c r="T651" s="3"/>
     </row>
-    <row r="652" spans="1:20" ht="15.6" customHeight="1">
+    <row r="652" ht="15.6" customHeight="1" spans="1:20">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -15691,7 +16331,7 @@
       <c r="S652" s="3"/>
       <c r="T652" s="3"/>
     </row>
-    <row r="653" spans="1:20" ht="15.6" customHeight="1">
+    <row r="653" ht="15.6" customHeight="1" spans="1:20">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -15713,7 +16353,7 @@
       <c r="S653" s="3"/>
       <c r="T653" s="3"/>
     </row>
-    <row r="654" spans="1:20" ht="15.6" customHeight="1">
+    <row r="654" ht="15.6" customHeight="1" spans="1:20">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -15735,7 +16375,7 @@
       <c r="S654" s="3"/>
       <c r="T654" s="3"/>
     </row>
-    <row r="655" spans="1:20" ht="15.6" customHeight="1">
+    <row r="655" ht="15.6" customHeight="1" spans="1:20">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -15757,7 +16397,7 @@
       <c r="S655" s="3"/>
       <c r="T655" s="3"/>
     </row>
-    <row r="656" spans="1:20" ht="15.6" customHeight="1">
+    <row r="656" ht="15.6" customHeight="1" spans="1:20">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -15779,7 +16419,7 @@
       <c r="S656" s="3"/>
       <c r="T656" s="3"/>
     </row>
-    <row r="657" spans="1:20" ht="15.6" customHeight="1">
+    <row r="657" ht="15.6" customHeight="1" spans="1:20">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -15801,7 +16441,7 @@
       <c r="S657" s="3"/>
       <c r="T657" s="3"/>
     </row>
-    <row r="658" spans="1:20" ht="15.6" customHeight="1">
+    <row r="658" ht="15.6" customHeight="1" spans="1:20">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -15823,7 +16463,7 @@
       <c r="S658" s="3"/>
       <c r="T658" s="3"/>
     </row>
-    <row r="659" spans="1:20" ht="15.6" customHeight="1">
+    <row r="659" ht="15.6" customHeight="1" spans="1:20">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -15845,7 +16485,7 @@
       <c r="S659" s="3"/>
       <c r="T659" s="3"/>
     </row>
-    <row r="660" spans="1:20" ht="15.6" customHeight="1">
+    <row r="660" ht="15.6" customHeight="1" spans="1:20">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -15867,7 +16507,7 @@
       <c r="S660" s="3"/>
       <c r="T660" s="3"/>
     </row>
-    <row r="661" spans="1:20" ht="15.6" customHeight="1">
+    <row r="661" ht="15.6" customHeight="1" spans="1:20">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -15889,7 +16529,7 @@
       <c r="S661" s="3"/>
       <c r="T661" s="3"/>
     </row>
-    <row r="662" spans="1:20" ht="15.6" customHeight="1">
+    <row r="662" ht="15.6" customHeight="1" spans="1:20">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -15911,7 +16551,7 @@
       <c r="S662" s="3"/>
       <c r="T662" s="3"/>
     </row>
-    <row r="663" spans="1:20" ht="15.6" customHeight="1">
+    <row r="663" ht="15.6" customHeight="1" spans="1:20">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -15933,7 +16573,7 @@
       <c r="S663" s="3"/>
       <c r="T663" s="3"/>
     </row>
-    <row r="664" spans="1:20" ht="15.6" customHeight="1">
+    <row r="664" ht="15.6" customHeight="1" spans="1:20">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -15955,7 +16595,7 @@
       <c r="S664" s="3"/>
       <c r="T664" s="3"/>
     </row>
-    <row r="665" spans="1:20" ht="15.6" customHeight="1">
+    <row r="665" ht="15.6" customHeight="1" spans="1:20">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -15977,7 +16617,7 @@
       <c r="S665" s="3"/>
       <c r="T665" s="3"/>
     </row>
-    <row r="666" spans="1:20" ht="15.6" customHeight="1">
+    <row r="666" ht="15.6" customHeight="1" spans="1:20">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -15999,7 +16639,7 @@
       <c r="S666" s="3"/>
       <c r="T666" s="3"/>
     </row>
-    <row r="667" spans="1:20" ht="15.6" customHeight="1">
+    <row r="667" ht="15.6" customHeight="1" spans="1:20">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -16021,7 +16661,7 @@
       <c r="S667" s="3"/>
       <c r="T667" s="3"/>
     </row>
-    <row r="668" spans="1:20" ht="15.6" customHeight="1">
+    <row r="668" ht="15.6" customHeight="1" spans="1:20">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -16043,7 +16683,7 @@
       <c r="S668" s="3"/>
       <c r="T668" s="3"/>
     </row>
-    <row r="669" spans="1:20" ht="15.6" customHeight="1">
+    <row r="669" ht="15.6" customHeight="1" spans="1:20">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -16065,7 +16705,7 @@
       <c r="S669" s="3"/>
       <c r="T669" s="3"/>
     </row>
-    <row r="670" spans="1:20" ht="15.6" customHeight="1">
+    <row r="670" ht="15.6" customHeight="1" spans="1:20">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -16087,7 +16727,7 @@
       <c r="S670" s="3"/>
       <c r="T670" s="3"/>
     </row>
-    <row r="671" spans="1:20" ht="15.6" customHeight="1">
+    <row r="671" ht="15.6" customHeight="1" spans="1:20">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -16109,7 +16749,7 @@
       <c r="S671" s="3"/>
       <c r="T671" s="3"/>
     </row>
-    <row r="672" spans="1:20" ht="15.6" customHeight="1">
+    <row r="672" ht="15.6" customHeight="1" spans="1:20">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -16131,7 +16771,7 @@
       <c r="S672" s="3"/>
       <c r="T672" s="3"/>
     </row>
-    <row r="673" spans="1:20" ht="15.6" customHeight="1">
+    <row r="673" ht="15.6" customHeight="1" spans="1:20">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -16153,7 +16793,7 @@
       <c r="S673" s="3"/>
       <c r="T673" s="3"/>
     </row>
-    <row r="674" spans="1:20" ht="15.6" customHeight="1">
+    <row r="674" ht="15.6" customHeight="1" spans="1:20">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -16175,7 +16815,7 @@
       <c r="S674" s="3"/>
       <c r="T674" s="3"/>
     </row>
-    <row r="675" spans="1:20" ht="15.6" customHeight="1">
+    <row r="675" ht="15.6" customHeight="1" spans="1:20">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -16197,7 +16837,7 @@
       <c r="S675" s="3"/>
       <c r="T675" s="3"/>
     </row>
-    <row r="676" spans="1:20" ht="15.6" customHeight="1">
+    <row r="676" ht="15.6" customHeight="1" spans="1:20">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -16219,7 +16859,7 @@
       <c r="S676" s="3"/>
       <c r="T676" s="3"/>
     </row>
-    <row r="677" spans="1:20" ht="15.6" customHeight="1">
+    <row r="677" ht="15.6" customHeight="1" spans="1:20">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -16241,7 +16881,7 @@
       <c r="S677" s="3"/>
       <c r="T677" s="3"/>
     </row>
-    <row r="678" spans="1:20" ht="15.6" customHeight="1">
+    <row r="678" ht="15.6" customHeight="1" spans="1:20">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -16263,7 +16903,7 @@
       <c r="S678" s="3"/>
       <c r="T678" s="3"/>
     </row>
-    <row r="679" spans="1:20" ht="15.6" customHeight="1">
+    <row r="679" ht="15.6" customHeight="1" spans="1:20">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -16285,7 +16925,7 @@
       <c r="S679" s="3"/>
       <c r="T679" s="3"/>
     </row>
-    <row r="680" spans="1:20" ht="15.6" customHeight="1">
+    <row r="680" ht="15.6" customHeight="1" spans="1:20">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -16307,7 +16947,7 @@
       <c r="S680" s="3"/>
       <c r="T680" s="3"/>
     </row>
-    <row r="681" spans="1:20" ht="15.6" customHeight="1">
+    <row r="681" ht="15.6" customHeight="1" spans="1:20">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -16329,7 +16969,7 @@
       <c r="S681" s="3"/>
       <c r="T681" s="3"/>
     </row>
-    <row r="682" spans="1:20" ht="15.6" customHeight="1">
+    <row r="682" ht="15.6" customHeight="1" spans="1:20">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -16351,7 +16991,7 @@
       <c r="S682" s="3"/>
       <c r="T682" s="3"/>
     </row>
-    <row r="683" spans="1:20" ht="15.6" customHeight="1">
+    <row r="683" ht="15.6" customHeight="1" spans="1:20">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -16373,7 +17013,7 @@
       <c r="S683" s="3"/>
       <c r="T683" s="3"/>
     </row>
-    <row r="684" spans="1:20" ht="15.6" customHeight="1">
+    <row r="684" ht="15.6" customHeight="1" spans="1:20">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -16395,7 +17035,7 @@
       <c r="S684" s="3"/>
       <c r="T684" s="3"/>
     </row>
-    <row r="685" spans="1:20" ht="15.6" customHeight="1">
+    <row r="685" ht="15.6" customHeight="1" spans="1:20">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -16417,7 +17057,7 @@
       <c r="S685" s="3"/>
       <c r="T685" s="3"/>
     </row>
-    <row r="686" spans="1:20" ht="15.6" customHeight="1">
+    <row r="686" ht="15.6" customHeight="1" spans="1:20">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -16439,7 +17079,7 @@
       <c r="S686" s="3"/>
       <c r="T686" s="3"/>
     </row>
-    <row r="687" spans="1:20" ht="15.6" customHeight="1">
+    <row r="687" ht="15.6" customHeight="1" spans="1:20">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -16461,7 +17101,7 @@
       <c r="S687" s="3"/>
       <c r="T687" s="3"/>
     </row>
-    <row r="688" spans="1:20" ht="15.6" customHeight="1">
+    <row r="688" ht="15.6" customHeight="1" spans="1:20">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -16483,7 +17123,7 @@
       <c r="S688" s="3"/>
       <c r="T688" s="3"/>
     </row>
-    <row r="689" spans="1:20" ht="15.6" customHeight="1">
+    <row r="689" ht="15.6" customHeight="1" spans="1:20">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -16505,7 +17145,7 @@
       <c r="S689" s="3"/>
       <c r="T689" s="3"/>
     </row>
-    <row r="690" spans="1:20" ht="15.6" customHeight="1">
+    <row r="690" ht="15.6" customHeight="1" spans="1:20">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -16527,7 +17167,7 @@
       <c r="S690" s="3"/>
       <c r="T690" s="3"/>
     </row>
-    <row r="691" spans="1:20" ht="15.6" customHeight="1">
+    <row r="691" ht="15.6" customHeight="1" spans="1:20">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -16549,7 +17189,7 @@
       <c r="S691" s="3"/>
       <c r="T691" s="3"/>
     </row>
-    <row r="692" spans="1:20" ht="15.6" customHeight="1">
+    <row r="692" ht="15.6" customHeight="1" spans="1:20">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -16571,7 +17211,7 @@
       <c r="S692" s="3"/>
       <c r="T692" s="3"/>
     </row>
-    <row r="693" spans="1:20" ht="15.6" customHeight="1">
+    <row r="693" ht="15.6" customHeight="1" spans="1:20">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -16593,7 +17233,7 @@
       <c r="S693" s="3"/>
       <c r="T693" s="3"/>
     </row>
-    <row r="694" spans="1:20" ht="15.6" customHeight="1">
+    <row r="694" ht="15.6" customHeight="1" spans="1:20">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -16615,7 +17255,7 @@
       <c r="S694" s="3"/>
       <c r="T694" s="3"/>
     </row>
-    <row r="695" spans="1:20" ht="15.6" customHeight="1">
+    <row r="695" ht="15.6" customHeight="1" spans="1:20">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -16637,7 +17277,7 @@
       <c r="S695" s="3"/>
       <c r="T695" s="3"/>
     </row>
-    <row r="696" spans="1:20" ht="15.6" customHeight="1">
+    <row r="696" ht="15.6" customHeight="1" spans="1:20">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -16659,7 +17299,7 @@
       <c r="S696" s="3"/>
       <c r="T696" s="3"/>
     </row>
-    <row r="697" spans="1:20" ht="15.6" customHeight="1">
+    <row r="697" ht="15.6" customHeight="1" spans="1:20">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -16681,7 +17321,7 @@
       <c r="S697" s="3"/>
       <c r="T697" s="3"/>
     </row>
-    <row r="698" spans="1:20" ht="15.6" customHeight="1">
+    <row r="698" ht="15.6" customHeight="1" spans="1:20">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -16703,7 +17343,7 @@
       <c r="S698" s="3"/>
       <c r="T698" s="3"/>
     </row>
-    <row r="699" spans="1:20" ht="15.6" customHeight="1">
+    <row r="699" ht="15.6" customHeight="1" spans="1:20">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -16725,7 +17365,7 @@
       <c r="S699" s="3"/>
       <c r="T699" s="3"/>
     </row>
-    <row r="700" spans="1:20" ht="15.6" customHeight="1">
+    <row r="700" ht="15.6" customHeight="1" spans="1:20">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -16747,7 +17387,7 @@
       <c r="S700" s="3"/>
       <c r="T700" s="3"/>
     </row>
-    <row r="701" spans="1:20" ht="15.6" customHeight="1">
+    <row r="701" ht="15.6" customHeight="1" spans="1:20">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -16769,7 +17409,7 @@
       <c r="S701" s="3"/>
       <c r="T701" s="3"/>
     </row>
-    <row r="702" spans="1:20" ht="15.6" customHeight="1">
+    <row r="702" ht="15.6" customHeight="1" spans="1:20">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -16791,7 +17431,7 @@
       <c r="S702" s="3"/>
       <c r="T702" s="3"/>
     </row>
-    <row r="703" spans="1:20" ht="15.6" customHeight="1">
+    <row r="703" ht="15.6" customHeight="1" spans="1:20">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -16813,7 +17453,7 @@
       <c r="S703" s="3"/>
       <c r="T703" s="3"/>
     </row>
-    <row r="704" spans="1:20" ht="15.6" customHeight="1">
+    <row r="704" ht="15.6" customHeight="1" spans="1:20">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -16835,7 +17475,7 @@
       <c r="S704" s="3"/>
       <c r="T704" s="3"/>
     </row>
-    <row r="705" spans="1:20" ht="15.6" customHeight="1">
+    <row r="705" ht="15.6" customHeight="1" spans="1:20">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -16857,7 +17497,7 @@
       <c r="S705" s="3"/>
       <c r="T705" s="3"/>
     </row>
-    <row r="706" spans="1:20" ht="15.6" customHeight="1">
+    <row r="706" ht="15.6" customHeight="1" spans="1:20">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -16879,7 +17519,7 @@
       <c r="S706" s="3"/>
       <c r="T706" s="3"/>
     </row>
-    <row r="707" spans="1:20" ht="15.6" customHeight="1">
+    <row r="707" ht="15.6" customHeight="1" spans="1:20">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -16901,7 +17541,7 @@
       <c r="S707" s="3"/>
       <c r="T707" s="3"/>
     </row>
-    <row r="708" spans="1:20" ht="15.6" customHeight="1">
+    <row r="708" ht="15.6" customHeight="1" spans="1:20">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -16923,7 +17563,7 @@
       <c r="S708" s="3"/>
       <c r="T708" s="3"/>
     </row>
-    <row r="709" spans="1:20" ht="15.6" customHeight="1">
+    <row r="709" ht="15.6" customHeight="1" spans="1:20">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -16945,7 +17585,7 @@
       <c r="S709" s="3"/>
       <c r="T709" s="3"/>
     </row>
-    <row r="710" spans="1:20" ht="15.6" customHeight="1">
+    <row r="710" ht="15.6" customHeight="1" spans="1:20">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -16967,7 +17607,7 @@
       <c r="S710" s="3"/>
       <c r="T710" s="3"/>
     </row>
-    <row r="711" spans="1:20" ht="15.6" customHeight="1">
+    <row r="711" ht="15.6" customHeight="1" spans="1:20">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -16989,7 +17629,7 @@
       <c r="S711" s="3"/>
       <c r="T711" s="3"/>
     </row>
-    <row r="712" spans="1:20" ht="15.6" customHeight="1">
+    <row r="712" ht="15.6" customHeight="1" spans="1:20">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -17011,7 +17651,7 @@
       <c r="S712" s="3"/>
       <c r="T712" s="3"/>
     </row>
-    <row r="713" spans="1:20" ht="15.6" customHeight="1">
+    <row r="713" ht="15.6" customHeight="1" spans="1:20">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -17033,7 +17673,7 @@
       <c r="S713" s="3"/>
       <c r="T713" s="3"/>
     </row>
-    <row r="714" spans="1:20" ht="15.6" customHeight="1">
+    <row r="714" ht="15.6" customHeight="1" spans="1:20">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -17055,7 +17695,7 @@
       <c r="S714" s="3"/>
       <c r="T714" s="3"/>
     </row>
-    <row r="715" spans="1:20" ht="15.6" customHeight="1">
+    <row r="715" ht="15.6" customHeight="1" spans="1:20">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -17077,7 +17717,7 @@
       <c r="S715" s="3"/>
       <c r="T715" s="3"/>
     </row>
-    <row r="716" spans="1:20" ht="15.6" customHeight="1">
+    <row r="716" ht="15.6" customHeight="1" spans="1:20">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -17099,7 +17739,7 @@
       <c r="S716" s="3"/>
       <c r="T716" s="3"/>
     </row>
-    <row r="717" spans="1:20" ht="15.6" customHeight="1">
+    <row r="717" ht="15.6" customHeight="1" spans="1:20">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -17121,7 +17761,7 @@
       <c r="S717" s="3"/>
       <c r="T717" s="3"/>
     </row>
-    <row r="718" spans="1:20" ht="15.6" customHeight="1">
+    <row r="718" ht="15.6" customHeight="1" spans="1:20">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -17143,7 +17783,7 @@
       <c r="S718" s="3"/>
       <c r="T718" s="3"/>
     </row>
-    <row r="719" spans="1:20" ht="15.6" customHeight="1">
+    <row r="719" ht="15.6" customHeight="1" spans="1:20">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -17165,7 +17805,7 @@
       <c r="S719" s="3"/>
       <c r="T719" s="3"/>
     </row>
-    <row r="720" spans="1:20" ht="15.6" customHeight="1">
+    <row r="720" ht="15.6" customHeight="1" spans="1:20">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -17187,7 +17827,7 @@
       <c r="S720" s="3"/>
       <c r="T720" s="3"/>
     </row>
-    <row r="721" spans="1:20" ht="15.6" customHeight="1">
+    <row r="721" ht="15.6" customHeight="1" spans="1:20">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -17209,7 +17849,7 @@
       <c r="S721" s="3"/>
       <c r="T721" s="3"/>
     </row>
-    <row r="722" spans="1:20" ht="15.6" customHeight="1">
+    <row r="722" ht="15.6" customHeight="1" spans="1:20">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -17231,7 +17871,7 @@
       <c r="S722" s="3"/>
       <c r="T722" s="3"/>
     </row>
-    <row r="723" spans="1:20" ht="15.6" customHeight="1">
+    <row r="723" ht="15.6" customHeight="1" spans="1:20">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -17253,7 +17893,7 @@
       <c r="S723" s="3"/>
       <c r="T723" s="3"/>
     </row>
-    <row r="724" spans="1:20" ht="15.6" customHeight="1">
+    <row r="724" ht="15.6" customHeight="1" spans="1:20">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -17275,7 +17915,7 @@
       <c r="S724" s="3"/>
       <c r="T724" s="3"/>
     </row>
-    <row r="725" spans="1:20" ht="15.6" customHeight="1">
+    <row r="725" ht="15.6" customHeight="1" spans="1:20">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -17297,7 +17937,7 @@
       <c r="S725" s="3"/>
       <c r="T725" s="3"/>
     </row>
-    <row r="726" spans="1:20" ht="15.6" customHeight="1">
+    <row r="726" ht="15.6" customHeight="1" spans="1:20">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -17319,7 +17959,7 @@
       <c r="S726" s="3"/>
       <c r="T726" s="3"/>
     </row>
-    <row r="727" spans="1:20" ht="15.6" customHeight="1">
+    <row r="727" ht="15.6" customHeight="1" spans="1:20">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -17341,7 +17981,7 @@
       <c r="S727" s="3"/>
       <c r="T727" s="3"/>
     </row>
-    <row r="728" spans="1:20" ht="15.6" customHeight="1">
+    <row r="728" ht="15.6" customHeight="1" spans="1:20">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -17363,7 +18003,7 @@
       <c r="S728" s="3"/>
       <c r="T728" s="3"/>
     </row>
-    <row r="729" spans="1:20" ht="15.6" customHeight="1">
+    <row r="729" ht="15.6" customHeight="1" spans="1:20">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -17385,7 +18025,7 @@
       <c r="S729" s="3"/>
       <c r="T729" s="3"/>
     </row>
-    <row r="730" spans="1:20" ht="15.6" customHeight="1">
+    <row r="730" ht="15.6" customHeight="1" spans="1:20">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -17407,7 +18047,7 @@
       <c r="S730" s="3"/>
       <c r="T730" s="3"/>
     </row>
-    <row r="731" spans="1:20" ht="15.6" customHeight="1">
+    <row r="731" ht="15.6" customHeight="1" spans="1:20">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -17429,7 +18069,7 @@
       <c r="S731" s="3"/>
       <c r="T731" s="3"/>
     </row>
-    <row r="732" spans="1:20" ht="15.6" customHeight="1">
+    <row r="732" ht="15.6" customHeight="1" spans="1:20">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -17451,7 +18091,7 @@
       <c r="S732" s="3"/>
       <c r="T732" s="3"/>
     </row>
-    <row r="733" spans="1:20" ht="15.6" customHeight="1">
+    <row r="733" ht="15.6" customHeight="1" spans="1:20">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -17473,7 +18113,7 @@
       <c r="S733" s="3"/>
       <c r="T733" s="3"/>
     </row>
-    <row r="734" spans="1:20" ht="15.6" customHeight="1">
+    <row r="734" ht="15.6" customHeight="1" spans="1:20">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -17495,7 +18135,7 @@
       <c r="S734" s="3"/>
       <c r="T734" s="3"/>
     </row>
-    <row r="735" spans="1:20" ht="15.6" customHeight="1">
+    <row r="735" ht="15.6" customHeight="1" spans="1:20">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -17517,7 +18157,7 @@
       <c r="S735" s="3"/>
       <c r="T735" s="3"/>
     </row>
-    <row r="736" spans="1:20" ht="15.6" customHeight="1">
+    <row r="736" ht="15.6" customHeight="1" spans="1:20">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -17539,7 +18179,7 @@
       <c r="S736" s="3"/>
       <c r="T736" s="3"/>
     </row>
-    <row r="737" spans="1:20" ht="15.6" customHeight="1">
+    <row r="737" ht="15.6" customHeight="1" spans="1:20">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -17561,7 +18201,7 @@
       <c r="S737" s="3"/>
       <c r="T737" s="3"/>
     </row>
-    <row r="738" spans="1:20" ht="15.6" customHeight="1">
+    <row r="738" ht="15.6" customHeight="1" spans="1:20">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -17583,7 +18223,7 @@
       <c r="S738" s="3"/>
       <c r="T738" s="3"/>
     </row>
-    <row r="739" spans="1:20" ht="15.6" customHeight="1">
+    <row r="739" ht="15.6" customHeight="1" spans="1:20">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -17605,7 +18245,7 @@
       <c r="S739" s="3"/>
       <c r="T739" s="3"/>
     </row>
-    <row r="740" spans="1:20" ht="15.6" customHeight="1">
+    <row r="740" ht="15.6" customHeight="1" spans="1:20">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -17627,7 +18267,7 @@
       <c r="S740" s="3"/>
       <c r="T740" s="3"/>
     </row>
-    <row r="741" spans="1:20" ht="15.6" customHeight="1">
+    <row r="741" ht="15.6" customHeight="1" spans="1:20">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -17649,7 +18289,7 @@
       <c r="S741" s="3"/>
       <c r="T741" s="3"/>
     </row>
-    <row r="742" spans="1:20" ht="15.6" customHeight="1">
+    <row r="742" ht="15.6" customHeight="1" spans="1:20">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -17671,7 +18311,7 @@
       <c r="S742" s="3"/>
       <c r="T742" s="3"/>
     </row>
-    <row r="743" spans="1:20" ht="15.6" customHeight="1">
+    <row r="743" ht="15.6" customHeight="1" spans="1:20">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -17693,7 +18333,7 @@
       <c r="S743" s="3"/>
       <c r="T743" s="3"/>
     </row>
-    <row r="744" spans="1:20" ht="15.6" customHeight="1">
+    <row r="744" ht="15.6" customHeight="1" spans="1:20">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -17715,7 +18355,7 @@
       <c r="S744" s="3"/>
       <c r="T744" s="3"/>
     </row>
-    <row r="745" spans="1:20" ht="15.6" customHeight="1">
+    <row r="745" ht="15.6" customHeight="1" spans="1:20">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -17737,7 +18377,7 @@
       <c r="S745" s="3"/>
       <c r="T745" s="3"/>
     </row>
-    <row r="746" spans="1:20" ht="15.6" customHeight="1">
+    <row r="746" ht="15.6" customHeight="1" spans="1:20">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -17759,7 +18399,7 @@
       <c r="S746" s="3"/>
       <c r="T746" s="3"/>
     </row>
-    <row r="747" spans="1:20" ht="15.6" customHeight="1">
+    <row r="747" ht="15.6" customHeight="1" spans="1:20">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -17781,7 +18421,7 @@
       <c r="S747" s="3"/>
       <c r="T747" s="3"/>
     </row>
-    <row r="748" spans="1:20" ht="15.6" customHeight="1">
+    <row r="748" ht="15.6" customHeight="1" spans="1:20">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -17803,7 +18443,7 @@
       <c r="S748" s="3"/>
       <c r="T748" s="3"/>
     </row>
-    <row r="749" spans="1:20" ht="15.6" customHeight="1">
+    <row r="749" ht="15.6" customHeight="1" spans="1:20">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -17825,7 +18465,7 @@
       <c r="S749" s="3"/>
       <c r="T749" s="3"/>
     </row>
-    <row r="750" spans="1:20" ht="15.6" customHeight="1">
+    <row r="750" ht="15.6" customHeight="1" spans="1:20">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -17847,7 +18487,7 @@
       <c r="S750" s="3"/>
       <c r="T750" s="3"/>
     </row>
-    <row r="751" spans="1:20" ht="15.6" customHeight="1">
+    <row r="751" ht="15.6" customHeight="1" spans="1:20">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -17869,7 +18509,7 @@
       <c r="S751" s="3"/>
       <c r="T751" s="3"/>
     </row>
-    <row r="752" spans="1:20" ht="15.6" customHeight="1">
+    <row r="752" ht="15.6" customHeight="1" spans="1:20">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -17891,7 +18531,7 @@
       <c r="S752" s="3"/>
       <c r="T752" s="3"/>
     </row>
-    <row r="753" spans="1:20" ht="15.6" customHeight="1">
+    <row r="753" ht="15.6" customHeight="1" spans="1:20">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -17913,7 +18553,7 @@
       <c r="S753" s="3"/>
       <c r="T753" s="3"/>
     </row>
-    <row r="754" spans="1:20" ht="15.6" customHeight="1">
+    <row r="754" ht="15.6" customHeight="1" spans="1:20">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -17935,7 +18575,7 @@
       <c r="S754" s="3"/>
       <c r="T754" s="3"/>
     </row>
-    <row r="755" spans="1:20" ht="15.6" customHeight="1">
+    <row r="755" ht="15.6" customHeight="1" spans="1:20">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -17957,7 +18597,7 @@
       <c r="S755" s="3"/>
       <c r="T755" s="3"/>
     </row>
-    <row r="756" spans="1:20" ht="15.6" customHeight="1">
+    <row r="756" ht="15.6" customHeight="1" spans="1:20">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -17979,7 +18619,7 @@
       <c r="S756" s="3"/>
       <c r="T756" s="3"/>
     </row>
-    <row r="757" spans="1:20" ht="15.6" customHeight="1">
+    <row r="757" ht="15.6" customHeight="1" spans="1:20">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -18001,7 +18641,7 @@
       <c r="S757" s="3"/>
       <c r="T757" s="3"/>
     </row>
-    <row r="758" spans="1:20" ht="15.6" customHeight="1">
+    <row r="758" ht="15.6" customHeight="1" spans="1:20">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -18023,7 +18663,7 @@
       <c r="S758" s="3"/>
       <c r="T758" s="3"/>
     </row>
-    <row r="759" spans="1:20" ht="15.6" customHeight="1">
+    <row r="759" ht="15.6" customHeight="1" spans="1:20">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -18045,7 +18685,7 @@
       <c r="S759" s="3"/>
       <c r="T759" s="3"/>
     </row>
-    <row r="760" spans="1:20" ht="15.6" customHeight="1">
+    <row r="760" ht="15.6" customHeight="1" spans="1:20">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -18067,7 +18707,7 @@
       <c r="S760" s="3"/>
       <c r="T760" s="3"/>
     </row>
-    <row r="761" spans="1:20" ht="15.6" customHeight="1">
+    <row r="761" ht="15.6" customHeight="1" spans="1:20">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -18089,7 +18729,7 @@
       <c r="S761" s="3"/>
       <c r="T761" s="3"/>
     </row>
-    <row r="762" spans="1:20" ht="15.6" customHeight="1">
+    <row r="762" ht="15.6" customHeight="1" spans="1:20">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -18111,7 +18751,7 @@
       <c r="S762" s="3"/>
       <c r="T762" s="3"/>
     </row>
-    <row r="763" spans="1:20" ht="15.6" customHeight="1">
+    <row r="763" ht="15.6" customHeight="1" spans="1:20">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -18133,7 +18773,7 @@
       <c r="S763" s="3"/>
       <c r="T763" s="3"/>
     </row>
-    <row r="764" spans="1:20" ht="15.6" customHeight="1">
+    <row r="764" ht="15.6" customHeight="1" spans="1:20">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -18155,7 +18795,7 @@
       <c r="S764" s="3"/>
       <c r="T764" s="3"/>
     </row>
-    <row r="765" spans="1:20" ht="15.6" customHeight="1">
+    <row r="765" ht="15.6" customHeight="1" spans="1:20">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -18177,7 +18817,7 @@
       <c r="S765" s="3"/>
       <c r="T765" s="3"/>
     </row>
-    <row r="766" spans="1:20" ht="15.6" customHeight="1">
+    <row r="766" ht="15.6" customHeight="1" spans="1:20">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -18199,7 +18839,7 @@
       <c r="S766" s="3"/>
       <c r="T766" s="3"/>
     </row>
-    <row r="767" spans="1:20" ht="15.6" customHeight="1">
+    <row r="767" ht="15.6" customHeight="1" spans="1:20">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -18221,7 +18861,7 @@
       <c r="S767" s="3"/>
       <c r="T767" s="3"/>
     </row>
-    <row r="768" spans="1:20" ht="15.6" customHeight="1">
+    <row r="768" ht="15.6" customHeight="1" spans="1:20">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -18243,7 +18883,7 @@
       <c r="S768" s="3"/>
       <c r="T768" s="3"/>
     </row>
-    <row r="769" spans="1:20" ht="15.6" customHeight="1">
+    <row r="769" ht="15.6" customHeight="1" spans="1:20">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -18265,7 +18905,7 @@
       <c r="S769" s="3"/>
       <c r="T769" s="3"/>
     </row>
-    <row r="770" spans="1:20" ht="15.6" customHeight="1">
+    <row r="770" ht="15.6" customHeight="1" spans="1:20">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -18287,7 +18927,7 @@
       <c r="S770" s="3"/>
       <c r="T770" s="3"/>
     </row>
-    <row r="771" spans="1:20" ht="15.6" customHeight="1">
+    <row r="771" ht="15.6" customHeight="1" spans="1:20">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -18309,7 +18949,7 @@
       <c r="S771" s="3"/>
       <c r="T771" s="3"/>
     </row>
-    <row r="772" spans="1:20" ht="15.6" customHeight="1">
+    <row r="772" ht="15.6" customHeight="1" spans="1:20">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -18331,7 +18971,7 @@
       <c r="S772" s="3"/>
       <c r="T772" s="3"/>
     </row>
-    <row r="773" spans="1:20" ht="15.6" customHeight="1">
+    <row r="773" ht="15.6" customHeight="1" spans="1:20">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -18353,7 +18993,7 @@
       <c r="S773" s="3"/>
       <c r="T773" s="3"/>
     </row>
-    <row r="774" spans="1:20" ht="15.6" customHeight="1">
+    <row r="774" ht="15.6" customHeight="1" spans="1:20">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -18375,7 +19015,7 @@
       <c r="S774" s="3"/>
       <c r="T774" s="3"/>
     </row>
-    <row r="775" spans="1:20" ht="15.6" customHeight="1">
+    <row r="775" ht="15.6" customHeight="1" spans="1:20">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -18397,7 +19037,7 @@
       <c r="S775" s="3"/>
       <c r="T775" s="3"/>
     </row>
-    <row r="776" spans="1:20" ht="15.6" customHeight="1">
+    <row r="776" ht="15.6" customHeight="1" spans="1:20">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -18419,7 +19059,7 @@
       <c r="S776" s="3"/>
       <c r="T776" s="3"/>
     </row>
-    <row r="777" spans="1:20" ht="15.6" customHeight="1">
+    <row r="777" ht="15.6" customHeight="1" spans="1:20">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -18441,7 +19081,7 @@
       <c r="S777" s="3"/>
       <c r="T777" s="3"/>
     </row>
-    <row r="778" spans="1:20" ht="15.6" customHeight="1">
+    <row r="778" ht="15.6" customHeight="1" spans="1:20">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -18463,7 +19103,7 @@
       <c r="S778" s="3"/>
       <c r="T778" s="3"/>
     </row>
-    <row r="779" spans="1:20" ht="15.6" customHeight="1">
+    <row r="779" ht="15.6" customHeight="1" spans="1:20">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -18485,7 +19125,7 @@
       <c r="S779" s="3"/>
       <c r="T779" s="3"/>
     </row>
-    <row r="780" spans="1:20" ht="15.6" customHeight="1">
+    <row r="780" ht="15.6" customHeight="1" spans="1:20">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -18507,7 +19147,7 @@
       <c r="S780" s="3"/>
       <c r="T780" s="3"/>
     </row>
-    <row r="781" spans="1:20" ht="15.6" customHeight="1">
+    <row r="781" ht="15.6" customHeight="1" spans="1:20">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -18529,7 +19169,7 @@
       <c r="S781" s="3"/>
       <c r="T781" s="3"/>
     </row>
-    <row r="782" spans="1:20" ht="15.6" customHeight="1">
+    <row r="782" ht="15.6" customHeight="1" spans="1:20">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -18551,7 +19191,7 @@
       <c r="S782" s="3"/>
       <c r="T782" s="3"/>
     </row>
-    <row r="783" spans="1:20" ht="15.6" customHeight="1">
+    <row r="783" ht="15.6" customHeight="1" spans="1:20">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -18573,7 +19213,7 @@
       <c r="S783" s="3"/>
       <c r="T783" s="3"/>
     </row>
-    <row r="784" spans="1:20" ht="15.6" customHeight="1">
+    <row r="784" ht="15.6" customHeight="1" spans="1:20">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -18595,7 +19235,7 @@
       <c r="S784" s="3"/>
       <c r="T784" s="3"/>
     </row>
-    <row r="785" spans="1:20" ht="15.6" customHeight="1">
+    <row r="785" ht="15.6" customHeight="1" spans="1:20">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -18617,7 +19257,7 @@
       <c r="S785" s="3"/>
       <c r="T785" s="3"/>
     </row>
-    <row r="786" spans="1:20" ht="15.6" customHeight="1">
+    <row r="786" ht="15.6" customHeight="1" spans="1:20">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -18639,7 +19279,7 @@
       <c r="S786" s="3"/>
       <c r="T786" s="3"/>
     </row>
-    <row r="787" spans="1:20" ht="15.6" customHeight="1">
+    <row r="787" ht="15.6" customHeight="1" spans="1:20">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -18661,7 +19301,7 @@
       <c r="S787" s="3"/>
       <c r="T787" s="3"/>
     </row>
-    <row r="788" spans="1:20" ht="15.6" customHeight="1">
+    <row r="788" ht="15.6" customHeight="1" spans="1:20">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -18683,7 +19323,7 @@
       <c r="S788" s="3"/>
       <c r="T788" s="3"/>
     </row>
-    <row r="789" spans="1:20" ht="15.6" customHeight="1">
+    <row r="789" ht="15.6" customHeight="1" spans="1:20">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -18705,7 +19345,7 @@
       <c r="S789" s="3"/>
       <c r="T789" s="3"/>
     </row>
-    <row r="790" spans="1:20" ht="15.6" customHeight="1">
+    <row r="790" ht="15.6" customHeight="1" spans="1:20">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -18727,7 +19367,7 @@
       <c r="S790" s="3"/>
       <c r="T790" s="3"/>
     </row>
-    <row r="791" spans="1:20" ht="15.6" customHeight="1">
+    <row r="791" ht="15.6" customHeight="1" spans="1:20">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -18749,7 +19389,7 @@
       <c r="S791" s="3"/>
       <c r="T791" s="3"/>
     </row>
-    <row r="792" spans="1:20" ht="15.6" customHeight="1">
+    <row r="792" ht="15.6" customHeight="1" spans="1:20">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -18771,7 +19411,7 @@
       <c r="S792" s="3"/>
       <c r="T792" s="3"/>
     </row>
-    <row r="793" spans="1:20" ht="15.6" customHeight="1">
+    <row r="793" ht="15.6" customHeight="1" spans="1:20">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -18793,7 +19433,7 @@
       <c r="S793" s="3"/>
       <c r="T793" s="3"/>
     </row>
-    <row r="794" spans="1:20" ht="15.6" customHeight="1">
+    <row r="794" ht="15.6" customHeight="1" spans="1:20">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -18815,7 +19455,7 @@
       <c r="S794" s="3"/>
       <c r="T794" s="3"/>
     </row>
-    <row r="795" spans="1:20" ht="15.6" customHeight="1">
+    <row r="795" ht="15.6" customHeight="1" spans="1:20">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -18837,7 +19477,7 @@
       <c r="S795" s="3"/>
       <c r="T795" s="3"/>
     </row>
-    <row r="796" spans="1:20" ht="15.6" customHeight="1">
+    <row r="796" ht="15.6" customHeight="1" spans="1:20">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -18859,7 +19499,7 @@
       <c r="S796" s="3"/>
       <c r="T796" s="3"/>
     </row>
-    <row r="797" spans="1:20" ht="15.6" customHeight="1">
+    <row r="797" ht="15.6" customHeight="1" spans="1:20">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -18881,7 +19521,7 @@
       <c r="S797" s="3"/>
       <c r="T797" s="3"/>
     </row>
-    <row r="798" spans="1:20" ht="15.6" customHeight="1">
+    <row r="798" ht="15.6" customHeight="1" spans="1:20">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -18903,7 +19543,7 @@
       <c r="S798" s="3"/>
       <c r="T798" s="3"/>
     </row>
-    <row r="799" spans="1:20" ht="15.6" customHeight="1">
+    <row r="799" ht="15.6" customHeight="1" spans="1:20">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -18925,7 +19565,7 @@
       <c r="S799" s="3"/>
       <c r="T799" s="3"/>
     </row>
-    <row r="800" spans="1:20" ht="15.6" customHeight="1">
+    <row r="800" ht="15.6" customHeight="1" spans="1:20">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -18947,7 +19587,7 @@
       <c r="S800" s="3"/>
       <c r="T800" s="3"/>
     </row>
-    <row r="801" spans="1:20" ht="15.6" customHeight="1">
+    <row r="801" ht="15.6" customHeight="1" spans="1:20">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -18969,7 +19609,7 @@
       <c r="S801" s="3"/>
       <c r="T801" s="3"/>
     </row>
-    <row r="802" spans="1:20" ht="15.6" customHeight="1">
+    <row r="802" ht="15.6" customHeight="1" spans="1:20">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -18991,7 +19631,7 @@
       <c r="S802" s="3"/>
       <c r="T802" s="3"/>
     </row>
-    <row r="803" spans="1:20" ht="15.6" customHeight="1">
+    <row r="803" ht="15.6" customHeight="1" spans="1:20">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -19013,7 +19653,7 @@
       <c r="S803" s="3"/>
       <c r="T803" s="3"/>
     </row>
-    <row r="804" spans="1:20" ht="15.6" customHeight="1">
+    <row r="804" ht="15.6" customHeight="1" spans="1:20">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -19035,7 +19675,7 @@
       <c r="S804" s="3"/>
       <c r="T804" s="3"/>
     </row>
-    <row r="805" spans="1:20" ht="15.6" customHeight="1">
+    <row r="805" ht="15.6" customHeight="1" spans="1:20">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -19057,7 +19697,7 @@
       <c r="S805" s="3"/>
       <c r="T805" s="3"/>
     </row>
-    <row r="806" spans="1:20" ht="15.6" customHeight="1">
+    <row r="806" ht="15.6" customHeight="1" spans="1:20">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -19079,7 +19719,7 @@
       <c r="S806" s="3"/>
       <c r="T806" s="3"/>
     </row>
-    <row r="807" spans="1:20" ht="15.6" customHeight="1">
+    <row r="807" ht="15.6" customHeight="1" spans="1:20">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -19101,7 +19741,7 @@
       <c r="S807" s="3"/>
       <c r="T807" s="3"/>
     </row>
-    <row r="808" spans="1:20" ht="15.6" customHeight="1">
+    <row r="808" ht="15.6" customHeight="1" spans="1:20">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -19123,7 +19763,7 @@
       <c r="S808" s="3"/>
       <c r="T808" s="3"/>
     </row>
-    <row r="809" spans="1:20" ht="15.6" customHeight="1">
+    <row r="809" ht="15.6" customHeight="1" spans="1:20">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -19145,7 +19785,7 @@
       <c r="S809" s="3"/>
       <c r="T809" s="3"/>
     </row>
-    <row r="810" spans="1:20" ht="15.6" customHeight="1">
+    <row r="810" ht="15.6" customHeight="1" spans="1:20">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -19167,7 +19807,7 @@
       <c r="S810" s="3"/>
       <c r="T810" s="3"/>
     </row>
-    <row r="811" spans="1:20" ht="15.6" customHeight="1">
+    <row r="811" ht="15.6" customHeight="1" spans="1:20">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -19189,7 +19829,7 @@
       <c r="S811" s="3"/>
       <c r="T811" s="3"/>
     </row>
-    <row r="812" spans="1:20" ht="15.6" customHeight="1">
+    <row r="812" ht="15.6" customHeight="1" spans="1:20">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -19211,7 +19851,7 @@
       <c r="S812" s="3"/>
       <c r="T812" s="3"/>
     </row>
-    <row r="813" spans="1:20" ht="15.6" customHeight="1">
+    <row r="813" ht="15.6" customHeight="1" spans="1:20">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -19233,7 +19873,7 @@
       <c r="S813" s="3"/>
       <c r="T813" s="3"/>
     </row>
-    <row r="814" spans="1:20" ht="15.6" customHeight="1">
+    <row r="814" ht="15.6" customHeight="1" spans="1:20">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -19255,7 +19895,7 @@
       <c r="S814" s="3"/>
       <c r="T814" s="3"/>
     </row>
-    <row r="815" spans="1:20" ht="15.6" customHeight="1">
+    <row r="815" ht="15.6" customHeight="1" spans="1:20">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -19277,7 +19917,7 @@
       <c r="S815" s="3"/>
       <c r="T815" s="3"/>
     </row>
-    <row r="816" spans="1:20" ht="15.6" customHeight="1">
+    <row r="816" ht="15.6" customHeight="1" spans="1:20">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -19299,7 +19939,7 @@
       <c r="S816" s="3"/>
       <c r="T816" s="3"/>
     </row>
-    <row r="817" spans="1:20" ht="15.6" customHeight="1">
+    <row r="817" ht="15.6" customHeight="1" spans="1:20">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -19321,7 +19961,7 @@
       <c r="S817" s="3"/>
       <c r="T817" s="3"/>
     </row>
-    <row r="818" spans="1:20" ht="15.6" customHeight="1">
+    <row r="818" ht="15.6" customHeight="1" spans="1:20">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -19343,7 +19983,7 @@
       <c r="S818" s="3"/>
       <c r="T818" s="3"/>
     </row>
-    <row r="819" spans="1:20" ht="15.6" customHeight="1">
+    <row r="819" ht="15.6" customHeight="1" spans="1:20">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -19365,7 +20005,7 @@
       <c r="S819" s="3"/>
       <c r="T819" s="3"/>
     </row>
-    <row r="820" spans="1:20" ht="15.6" customHeight="1">
+    <row r="820" ht="15.6" customHeight="1" spans="1:20">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -19387,7 +20027,7 @@
       <c r="S820" s="3"/>
       <c r="T820" s="3"/>
     </row>
-    <row r="821" spans="1:20" ht="15.6" customHeight="1">
+    <row r="821" ht="15.6" customHeight="1" spans="1:20">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -19409,7 +20049,7 @@
       <c r="S821" s="3"/>
       <c r="T821" s="3"/>
     </row>
-    <row r="822" spans="1:20" ht="15.6" customHeight="1">
+    <row r="822" ht="15.6" customHeight="1" spans="1:20">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -19431,7 +20071,7 @@
       <c r="S822" s="3"/>
       <c r="T822" s="3"/>
     </row>
-    <row r="823" spans="1:20" ht="15.6" customHeight="1">
+    <row r="823" ht="15.6" customHeight="1" spans="1:20">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -19453,7 +20093,7 @@
       <c r="S823" s="3"/>
       <c r="T823" s="3"/>
     </row>
-    <row r="824" spans="1:20" ht="15.6" customHeight="1">
+    <row r="824" ht="15.6" customHeight="1" spans="1:20">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -19475,7 +20115,7 @@
       <c r="S824" s="3"/>
       <c r="T824" s="3"/>
     </row>
-    <row r="825" spans="1:20" ht="15.6" customHeight="1">
+    <row r="825" ht="15.6" customHeight="1" spans="1:20">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -19497,7 +20137,7 @@
       <c r="S825" s="3"/>
       <c r="T825" s="3"/>
     </row>
-    <row r="826" spans="1:20" ht="15.6" customHeight="1">
+    <row r="826" ht="15.6" customHeight="1" spans="1:20">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -19519,7 +20159,7 @@
       <c r="S826" s="3"/>
       <c r="T826" s="3"/>
     </row>
-    <row r="827" spans="1:20" ht="15.6" customHeight="1">
+    <row r="827" ht="15.6" customHeight="1" spans="1:20">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -19541,7 +20181,7 @@
       <c r="S827" s="3"/>
       <c r="T827" s="3"/>
     </row>
-    <row r="828" spans="1:20" ht="15.6" customHeight="1">
+    <row r="828" ht="15.6" customHeight="1" spans="1:20">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -19563,7 +20203,7 @@
       <c r="S828" s="3"/>
       <c r="T828" s="3"/>
     </row>
-    <row r="829" spans="1:20" ht="15.6" customHeight="1">
+    <row r="829" ht="15.6" customHeight="1" spans="1:20">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -19585,7 +20225,7 @@
       <c r="S829" s="3"/>
       <c r="T829" s="3"/>
     </row>
-    <row r="830" spans="1:20" ht="15.6" customHeight="1">
+    <row r="830" ht="15.6" customHeight="1" spans="1:20">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -19607,7 +20247,7 @@
       <c r="S830" s="3"/>
       <c r="T830" s="3"/>
     </row>
-    <row r="831" spans="1:20" ht="15.6" customHeight="1">
+    <row r="831" ht="15.6" customHeight="1" spans="1:20">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -19629,7 +20269,7 @@
       <c r="S831" s="3"/>
       <c r="T831" s="3"/>
     </row>
-    <row r="832" spans="1:20" ht="15.6" customHeight="1">
+    <row r="832" ht="15.6" customHeight="1" spans="1:20">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -19651,7 +20291,7 @@
       <c r="S832" s="3"/>
       <c r="T832" s="3"/>
     </row>
-    <row r="833" spans="1:20" ht="15.6" customHeight="1">
+    <row r="833" ht="15.6" customHeight="1" spans="1:20">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -19673,7 +20313,7 @@
       <c r="S833" s="3"/>
       <c r="T833" s="3"/>
     </row>
-    <row r="834" spans="1:20" ht="15.6" customHeight="1">
+    <row r="834" ht="15.6" customHeight="1" spans="1:20">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -19695,7 +20335,7 @@
       <c r="S834" s="3"/>
       <c r="T834" s="3"/>
     </row>
-    <row r="835" spans="1:20" ht="15.6" customHeight="1">
+    <row r="835" ht="15.6" customHeight="1" spans="1:20">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -19717,7 +20357,7 @@
       <c r="S835" s="3"/>
       <c r="T835" s="3"/>
     </row>
-    <row r="836" spans="1:20" ht="15.6" customHeight="1">
+    <row r="836" ht="15.6" customHeight="1" spans="1:20">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -19739,7 +20379,7 @@
       <c r="S836" s="3"/>
       <c r="T836" s="3"/>
     </row>
-    <row r="837" spans="1:20" ht="15.6" customHeight="1">
+    <row r="837" ht="15.6" customHeight="1" spans="1:20">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -19761,7 +20401,7 @@
       <c r="S837" s="3"/>
       <c r="T837" s="3"/>
     </row>
-    <row r="838" spans="1:20" ht="15.6" customHeight="1">
+    <row r="838" ht="15.6" customHeight="1" spans="1:20">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -19783,7 +20423,7 @@
       <c r="S838" s="3"/>
       <c r="T838" s="3"/>
     </row>
-    <row r="839" spans="1:20" ht="15.6" customHeight="1">
+    <row r="839" ht="15.6" customHeight="1" spans="1:20">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -19805,7 +20445,7 @@
       <c r="S839" s="3"/>
       <c r="T839" s="3"/>
     </row>
-    <row r="840" spans="1:20" ht="15.6" customHeight="1">
+    <row r="840" ht="15.6" customHeight="1" spans="1:20">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -19827,7 +20467,7 @@
       <c r="S840" s="3"/>
       <c r="T840" s="3"/>
     </row>
-    <row r="841" spans="1:20" ht="15.6" customHeight="1">
+    <row r="841" ht="15.6" customHeight="1" spans="1:20">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -19849,7 +20489,7 @@
       <c r="S841" s="3"/>
       <c r="T841" s="3"/>
     </row>
-    <row r="842" spans="1:20" ht="15.6" customHeight="1">
+    <row r="842" ht="15.6" customHeight="1" spans="1:20">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -19871,7 +20511,7 @@
       <c r="S842" s="3"/>
       <c r="T842" s="3"/>
     </row>
-    <row r="843" spans="1:20" ht="15.6" customHeight="1">
+    <row r="843" ht="15.6" customHeight="1" spans="1:20">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -19893,7 +20533,7 @@
       <c r="S843" s="3"/>
       <c r="T843" s="3"/>
     </row>
-    <row r="844" spans="1:20" ht="15.6" customHeight="1">
+    <row r="844" ht="15.6" customHeight="1" spans="1:20">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -19915,7 +20555,7 @@
       <c r="S844" s="3"/>
       <c r="T844" s="3"/>
     </row>
-    <row r="845" spans="1:20" ht="15.6" customHeight="1">
+    <row r="845" ht="15.6" customHeight="1" spans="1:20">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -19937,7 +20577,7 @@
       <c r="S845" s="3"/>
       <c r="T845" s="3"/>
     </row>
-    <row r="846" spans="1:20" ht="15.6" customHeight="1">
+    <row r="846" ht="15.6" customHeight="1" spans="1:20">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -19959,7 +20599,7 @@
       <c r="S846" s="3"/>
       <c r="T846" s="3"/>
     </row>
-    <row r="847" spans="1:20" ht="15.6" customHeight="1">
+    <row r="847" ht="15.6" customHeight="1" spans="1:20">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -19981,7 +20621,7 @@
       <c r="S847" s="3"/>
       <c r="T847" s="3"/>
     </row>
-    <row r="848" spans="1:20" ht="15.6" customHeight="1">
+    <row r="848" ht="15.6" customHeight="1" spans="1:20">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -20003,7 +20643,7 @@
       <c r="S848" s="3"/>
       <c r="T848" s="3"/>
     </row>
-    <row r="849" spans="1:20" ht="15.6" customHeight="1">
+    <row r="849" ht="15.6" customHeight="1" spans="1:20">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -20025,7 +20665,7 @@
       <c r="S849" s="3"/>
       <c r="T849" s="3"/>
     </row>
-    <row r="850" spans="1:20" ht="15.6" customHeight="1">
+    <row r="850" ht="15.6" customHeight="1" spans="1:20">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -20047,7 +20687,7 @@
       <c r="S850" s="3"/>
       <c r="T850" s="3"/>
     </row>
-    <row r="851" spans="1:20" ht="15.6" customHeight="1">
+    <row r="851" ht="15.6" customHeight="1" spans="1:20">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -20069,7 +20709,7 @@
       <c r="S851" s="3"/>
       <c r="T851" s="3"/>
     </row>
-    <row r="852" spans="1:20" ht="15.6" customHeight="1">
+    <row r="852" ht="15.6" customHeight="1" spans="1:20">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -20091,7 +20731,7 @@
       <c r="S852" s="3"/>
       <c r="T852" s="3"/>
     </row>
-    <row r="853" spans="1:20" ht="15.6" customHeight="1">
+    <row r="853" ht="15.6" customHeight="1" spans="1:20">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -20113,7 +20753,7 @@
       <c r="S853" s="3"/>
       <c r="T853" s="3"/>
     </row>
-    <row r="854" spans="1:20" ht="15.6" customHeight="1">
+    <row r="854" ht="15.6" customHeight="1" spans="1:20">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -20135,7 +20775,7 @@
       <c r="S854" s="3"/>
       <c r="T854" s="3"/>
     </row>
-    <row r="855" spans="1:20" ht="15.6" customHeight="1">
+    <row r="855" ht="15.6" customHeight="1" spans="1:20">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -20157,7 +20797,7 @@
       <c r="S855" s="3"/>
       <c r="T855" s="3"/>
     </row>
-    <row r="856" spans="1:20" ht="15.6" customHeight="1">
+    <row r="856" ht="15.6" customHeight="1" spans="1:20">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -20179,7 +20819,7 @@
       <c r="S856" s="3"/>
       <c r="T856" s="3"/>
     </row>
-    <row r="857" spans="1:20" ht="15.6" customHeight="1">
+    <row r="857" ht="15.6" customHeight="1" spans="1:20">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -20201,7 +20841,7 @@
       <c r="S857" s="3"/>
       <c r="T857" s="3"/>
     </row>
-    <row r="858" spans="1:20" ht="15.6" customHeight="1">
+    <row r="858" ht="15.6" customHeight="1" spans="1:20">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -20223,7 +20863,7 @@
       <c r="S858" s="3"/>
       <c r="T858" s="3"/>
     </row>
-    <row r="859" spans="1:20" ht="15.6" customHeight="1">
+    <row r="859" ht="15.6" customHeight="1" spans="1:20">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -20245,7 +20885,7 @@
       <c r="S859" s="3"/>
       <c r="T859" s="3"/>
     </row>
-    <row r="860" spans="1:20" ht="15.6" customHeight="1">
+    <row r="860" ht="15.6" customHeight="1" spans="1:20">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -20267,7 +20907,7 @@
       <c r="S860" s="3"/>
       <c r="T860" s="3"/>
     </row>
-    <row r="861" spans="1:20" ht="15.6" customHeight="1">
+    <row r="861" ht="15.6" customHeight="1" spans="1:20">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -20289,7 +20929,7 @@
       <c r="S861" s="3"/>
       <c r="T861" s="3"/>
     </row>
-    <row r="862" spans="1:20" ht="15.6" customHeight="1">
+    <row r="862" ht="15.6" customHeight="1" spans="1:20">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -20311,7 +20951,7 @@
       <c r="S862" s="3"/>
       <c r="T862" s="3"/>
     </row>
-    <row r="863" spans="1:20" ht="15.6" customHeight="1">
+    <row r="863" ht="15.6" customHeight="1" spans="1:20">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -20333,7 +20973,7 @@
       <c r="S863" s="3"/>
       <c r="T863" s="3"/>
     </row>
-    <row r="864" spans="1:20" ht="15.6" customHeight="1">
+    <row r="864" ht="15.6" customHeight="1" spans="1:20">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -20355,7 +20995,7 @@
       <c r="S864" s="3"/>
       <c r="T864" s="3"/>
     </row>
-    <row r="865" spans="1:20" ht="15.6" customHeight="1">
+    <row r="865" ht="15.6" customHeight="1" spans="1:20">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -20377,7 +21017,7 @@
       <c r="S865" s="3"/>
       <c r="T865" s="3"/>
     </row>
-    <row r="866" spans="1:20" ht="15.6" customHeight="1">
+    <row r="866" ht="15.6" customHeight="1" spans="1:20">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -20399,7 +21039,7 @@
       <c r="S866" s="3"/>
       <c r="T866" s="3"/>
     </row>
-    <row r="867" spans="1:20" ht="15.6" customHeight="1">
+    <row r="867" ht="15.6" customHeight="1" spans="1:20">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -20421,7 +21061,7 @@
       <c r="S867" s="3"/>
       <c r="T867" s="3"/>
     </row>
-    <row r="868" spans="1:20" ht="15.6" customHeight="1">
+    <row r="868" ht="15.6" customHeight="1" spans="1:20">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -20443,7 +21083,7 @@
       <c r="S868" s="3"/>
       <c r="T868" s="3"/>
     </row>
-    <row r="869" spans="1:20" ht="15.6" customHeight="1">
+    <row r="869" ht="15.6" customHeight="1" spans="1:20">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -20465,7 +21105,7 @@
       <c r="S869" s="3"/>
       <c r="T869" s="3"/>
     </row>
-    <row r="870" spans="1:20" ht="15.6" customHeight="1">
+    <row r="870" ht="15.6" customHeight="1" spans="1:20">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -20487,7 +21127,7 @@
       <c r="S870" s="3"/>
       <c r="T870" s="3"/>
     </row>
-    <row r="871" spans="1:20" ht="15.6" customHeight="1">
+    <row r="871" ht="15.6" customHeight="1" spans="1:20">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -20509,7 +21149,7 @@
       <c r="S871" s="3"/>
       <c r="T871" s="3"/>
     </row>
-    <row r="872" spans="1:20" ht="15.6" customHeight="1">
+    <row r="872" ht="15.6" customHeight="1" spans="1:20">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -20531,7 +21171,7 @@
       <c r="S872" s="3"/>
       <c r="T872" s="3"/>
     </row>
-    <row r="873" spans="1:20" ht="15.6" customHeight="1">
+    <row r="873" ht="15.6" customHeight="1" spans="1:20">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -20553,7 +21193,7 @@
       <c r="S873" s="3"/>
       <c r="T873" s="3"/>
     </row>
-    <row r="874" spans="1:20" ht="15.6" customHeight="1">
+    <row r="874" ht="15.6" customHeight="1" spans="1:20">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -20575,7 +21215,7 @@
       <c r="S874" s="3"/>
       <c r="T874" s="3"/>
     </row>
-    <row r="875" spans="1:20" ht="15.6" customHeight="1">
+    <row r="875" ht="15.6" customHeight="1" spans="1:20">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -20597,7 +21237,7 @@
       <c r="S875" s="3"/>
       <c r="T875" s="3"/>
     </row>
-    <row r="876" spans="1:20" ht="15.6" customHeight="1">
+    <row r="876" ht="15.6" customHeight="1" spans="1:20">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -20619,7 +21259,7 @@
       <c r="S876" s="3"/>
       <c r="T876" s="3"/>
     </row>
-    <row r="877" spans="1:20" ht="15.6" customHeight="1">
+    <row r="877" ht="15.6" customHeight="1" spans="1:20">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -20641,7 +21281,7 @@
       <c r="S877" s="3"/>
       <c r="T877" s="3"/>
     </row>
-    <row r="878" spans="1:20" ht="15.6" customHeight="1">
+    <row r="878" ht="15.6" customHeight="1" spans="1:20">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -20663,7 +21303,7 @@
       <c r="S878" s="3"/>
       <c r="T878" s="3"/>
     </row>
-    <row r="879" spans="1:20" ht="15.6" customHeight="1">
+    <row r="879" ht="15.6" customHeight="1" spans="1:20">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -20685,7 +21325,7 @@
       <c r="S879" s="3"/>
       <c r="T879" s="3"/>
     </row>
-    <row r="880" spans="1:20" ht="15.6" customHeight="1">
+    <row r="880" ht="15.6" customHeight="1" spans="1:20">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -20707,7 +21347,7 @@
       <c r="S880" s="3"/>
       <c r="T880" s="3"/>
     </row>
-    <row r="881" spans="1:20" ht="15.6" customHeight="1">
+    <row r="881" ht="15.6" customHeight="1" spans="1:20">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -20729,7 +21369,7 @@
       <c r="S881" s="3"/>
       <c r="T881" s="3"/>
     </row>
-    <row r="882" spans="1:20" ht="15.6" customHeight="1">
+    <row r="882" ht="15.6" customHeight="1" spans="1:20">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -20751,7 +21391,7 @@
       <c r="S882" s="3"/>
       <c r="T882" s="3"/>
     </row>
-    <row r="883" spans="1:20" ht="15.6" customHeight="1">
+    <row r="883" ht="15.6" customHeight="1" spans="1:20">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -20773,7 +21413,7 @@
       <c r="S883" s="3"/>
       <c r="T883" s="3"/>
     </row>
-    <row r="884" spans="1:20" ht="15.6" customHeight="1">
+    <row r="884" ht="15.6" customHeight="1" spans="1:20">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -20797,5 +21437,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>